--- a/solutions/aws/cloud/onpremise-to-cloud-migration/presales/level-of-effort-estimate.xlsx
+++ b/solutions/aws/cloud/onpremise-to-cloud-migration/presales/level-of-effort-estimate.xlsx
@@ -580,7 +580,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 13, 2025</t>
+          <t>November 15, 2025</t>
         </is>
       </c>
     </row>

--- a/solutions/aws/cloud/onpremise-to-cloud-migration/presales/level-of-effort-estimate.xlsx
+++ b/solutions/aws/cloud/onpremise-to-cloud-migration/presales/level-of-effort-estimate.xlsx
@@ -13,7 +13,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LOE" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Scope Assumptions'!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Scope Assumptions'!$A$1:$E$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Scope Assumptions'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -21,8 +22,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="9">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="$#,##0"/>
+  </numFmts>
+  <fonts count="12">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,40 +35,56 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="Segoe UI"/>
+      <color rgb="0095A5A6"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Segoe UI Light"/>
+      <color rgb="002C3E50"/>
+      <sz val="28"/>
+    </font>
+    <font>
+      <name val="Segoe UI"/>
+      <color rgb="005D6D7E"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Segoe UI"/>
       <b val="1"/>
-      <color rgb="001F4E78"/>
-      <sz val="24"/>
+      <color rgb="005D6D7E"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <color rgb="0044546A"/>
-      <sz val="14"/>
+      <color rgb="002C3E50"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Segoe UI"/>
+      <color rgb="00CC0000"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <b val="1"/>
-      <color rgb="0044546A"/>
+      <color rgb="005D6D7E"/>
       <sz val="11"/>
+      <u val="single"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color rgb="0044546A"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
+      <name val="Segoe UI Semibold"/>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <color rgb="00000000"/>
+      <b val="1"/>
+      <color rgb="00CC0000"/>
       <sz val="12"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="Segoe UI Semibold"/>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
       <sz val="14"/>
@@ -75,7 +95,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -84,14 +104,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00808080"/>
-        <bgColor rgb="00808080"/>
+        <fgColor rgb="00CC0000"/>
+        <bgColor rgb="00CC0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F2F2F2"/>
-        <bgColor rgb="00F2F2F2"/>
+        <fgColor rgb="002C3E50"/>
+        <bgColor rgb="002C3E50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8FAFB"/>
+        <bgColor rgb="00F8FAFB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E8F4F8"/>
+        <bgColor rgb="00E8F4F8"/>
       </patternFill>
     </fill>
     <fill>
@@ -100,8 +132,20 @@
         <bgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFCC"/>
+        <bgColor rgb="00FFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF2CC"/>
+        <bgColor rgb="00FFF2CC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -110,38 +154,123 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color rgb="00BDC3C7"/>
+      </left>
+      <right style="thin">
+        <color rgb="00BDC3C7"/>
+      </right>
+      <top style="thin">
+        <color rgb="00BDC3C7"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="002C3E50"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00DEE2E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="00DEE2E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="00DEE2E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00DEE2E6"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -224,10 +353,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>14</row>
+      <row>12</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1143000" cy="285750"/>
+    <ext cx="1238250" cy="314325"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -540,7 +669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B4:C10"/>
+  <dimension ref="B1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,83 +677,107 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="3" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="3" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1"/>
-    <row r="2" ht="10" customHeight="1"/>
-    <row r="3" ht="20" customHeight="1"/>
-    <row r="4" ht="30" customHeight="1">
-      <c r="B4" s="1" t="inlineStr">
+    <row r="1" ht="15" customHeight="1">
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+    </row>
+    <row r="2" ht="60" customHeight="1">
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>[VENDOR LOGO]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1"/>
+    <row r="4" ht="40" customHeight="1">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>Level Of Effort Estimate</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="B5" s="2" t="inlineStr">
+    <row r="5" ht="25" customHeight="1">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>Presales Document</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="20" customHeight="1"/>
-    <row r="7">
-      <c r="B7" s="3" t="inlineStr">
+    <row r="6" ht="30" customHeight="1"/>
+    <row r="7" ht="18" customHeight="1">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Generated:</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>November 15, 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="3" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>November 16, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Solution:</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>Onpremise To Cloud Migration</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>Customer Name:</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
+    <row r="9" ht="18" customHeight="1">
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Customer:</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>[Customer Name]</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="3" t="inlineStr">
+    <row r="10" ht="18" customHeight="1">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Version:</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="20" customHeight="1"/>
-    <row r="12" ht="10" customHeight="1"/>
-    <row r="13" ht="10" customHeight="1"/>
-    <row r="14" ht="10" customHeight="1"/>
-    <row r="15" ht="40" customHeight="1"/>
+    <row r="11" ht="18" customHeight="1">
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Status:</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="40" customHeight="1"/>
+    <row r="13" ht="30" customHeight="1">
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>eoframework.org</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -635,9 +788,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -648,46 +801,744 @@
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="35" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="30" customWidth="1" min="5" max="5"/>
-    <col width="40" customWidth="1" min="6" max="6"/>
+    <col width="35" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="60" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>Column 1</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="inlineStr">
-        <is>
-          <t>Column 2</t>
-        </is>
-      </c>
-      <c r="C1" s="5" t="inlineStr">
-        <is>
-          <t>Column 3</t>
-        </is>
-      </c>
-      <c r="D1" s="5" t="inlineStr">
-        <is>
-          <t>Column 4</t>
-        </is>
-      </c>
-      <c r="E1" s="5" t="inlineStr">
-        <is>
-          <t>Column 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="26" customHeight="1"/>
-    <row r="3" ht="26" customHeight="1"/>
-    <row r="4" ht="26" customHeight="1"/>
-    <row r="5" ht="26" customHeight="1"/>
+      <c r="A1" s="19" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="19" t="inlineStr">
+        <is>
+          <t>Baseline Assumption</t>
+        </is>
+      </c>
+      <c r="C1" s="19" t="inlineStr">
+        <is>
+          <t>Current Scope</t>
+        </is>
+      </c>
+      <c r="D1" s="19" t="inlineStr">
+        <is>
+          <t>Small (1x)</t>
+        </is>
+      </c>
+      <c r="E1" s="19" t="inlineStr">
+        <is>
+          <t>Medium (2x)</t>
+        </is>
+      </c>
+      <c r="F1" s="19" t="inlineStr">
+        <is>
+          <t>Large (3x)</t>
+        </is>
+      </c>
+      <c r="G1" s="19" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="H1" s="19" t="inlineStr"/>
+      <c r="I1" s="19" t="inlineStr"/>
+      <c r="J1" s="19" t="inlineStr"/>
+      <c r="K1" s="19" t="inlineStr"/>
+      <c r="L1" s="19" t="inlineStr"/>
+    </row>
+    <row r="2" ht="26" customHeight="1">
+      <c r="A2" s="10" t="inlineStr">
+        <is>
+          <t>Solution Scope</t>
+        </is>
+      </c>
+      <c r="B2" s="10" t="inlineStr">
+        <is>
+          <t>Workloads to Migrate</t>
+        </is>
+      </c>
+      <c r="C2" s="20" t="inlineStr">
+        <is>
+          <t>5-10 VMs/applications</t>
+        </is>
+      </c>
+      <c r="D2" s="10" t="inlineStr">
+        <is>
+          <t>5-10 workloads</t>
+        </is>
+      </c>
+      <c r="E2" s="10" t="inlineStr">
+        <is>
+          <t>10-25 workloads</t>
+        </is>
+      </c>
+      <c r="F2" s="10" t="inlineStr">
+        <is>
+          <t>25+ workloads or complex apps</t>
+        </is>
+      </c>
+      <c r="G2" s="10" t="inlineStr">
+        <is>
+          <t>Number of workloads being migrated</t>
+        </is>
+      </c>
+      <c r="H2" s="10" t="inlineStr"/>
+      <c r="I2" s="10" t="inlineStr"/>
+      <c r="J2" s="10" t="inlineStr"/>
+      <c r="K2" s="10" t="inlineStr"/>
+      <c r="L2" s="10" t="inlineStr"/>
+    </row>
+    <row r="3" ht="26" customHeight="1">
+      <c r="A3" s="21" t="inlineStr">
+        <is>
+          <t>Solution Scope</t>
+        </is>
+      </c>
+      <c r="B3" s="21" t="inlineStr">
+        <is>
+          <t>Migration Strategy</t>
+        </is>
+      </c>
+      <c r="C3" s="20" t="inlineStr">
+        <is>
+          <t>Rehost (lift-and-shift)</t>
+        </is>
+      </c>
+      <c r="D3" s="21" t="inlineStr">
+        <is>
+          <t>Rehost simple</t>
+        </is>
+      </c>
+      <c r="E3" s="21" t="inlineStr">
+        <is>
+          <t>Replatform moderate</t>
+        </is>
+      </c>
+      <c r="F3" s="21" t="inlineStr">
+        <is>
+          <t>Refactor complex</t>
+        </is>
+      </c>
+      <c r="G3" s="21" t="inlineStr">
+        <is>
+          <t>AWS 6R migration strategy</t>
+        </is>
+      </c>
+      <c r="H3" s="21" t="inlineStr"/>
+      <c r="I3" s="21" t="inlineStr"/>
+      <c r="J3" s="21" t="inlineStr"/>
+      <c r="K3" s="21" t="inlineStr"/>
+      <c r="L3" s="21" t="inlineStr"/>
+    </row>
+    <row r="4" ht="26" customHeight="1">
+      <c r="A4" s="10" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>Source Environment</t>
+        </is>
+      </c>
+      <c r="C4" s="20" t="inlineStr">
+        <is>
+          <t>VMware vSphere on-premises</t>
+        </is>
+      </c>
+      <c r="D4" s="10" t="inlineStr">
+        <is>
+          <t>Single hypervisor</t>
+        </is>
+      </c>
+      <c r="E4" s="10" t="inlineStr">
+        <is>
+          <t>Multiple hypervisors</t>
+        </is>
+      </c>
+      <c r="F4" s="10" t="inlineStr">
+        <is>
+          <t>Hybrid cloud + physical servers</t>
+        </is>
+      </c>
+      <c r="G4" s="10" t="inlineStr">
+        <is>
+          <t>Current infrastructure platform</t>
+        </is>
+      </c>
+      <c r="H4" s="10" t="inlineStr"/>
+      <c r="I4" s="10" t="inlineStr"/>
+      <c r="J4" s="10" t="inlineStr"/>
+      <c r="K4" s="10" t="inlineStr"/>
+      <c r="L4" s="10" t="inlineStr"/>
+    </row>
+    <row r="5" ht="26" customHeight="1">
+      <c r="A5" s="21" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="B5" s="21" t="inlineStr">
+        <is>
+          <t>Hybrid Connectivity</t>
+        </is>
+      </c>
+      <c r="C5" s="20" t="inlineStr">
+        <is>
+          <t>AWS Direct Connect</t>
+        </is>
+      </c>
+      <c r="D5" s="21" t="inlineStr">
+        <is>
+          <t>VPN only</t>
+        </is>
+      </c>
+      <c r="E5" s="21" t="inlineStr">
+        <is>
+          <t>Direct Connect</t>
+        </is>
+      </c>
+      <c r="F5" s="21" t="inlineStr">
+        <is>
+          <t>Direct Connect + VPN redundancy</t>
+        </is>
+      </c>
+      <c r="G5" s="21" t="inlineStr">
+        <is>
+          <t>On-premises to AWS connectivity</t>
+        </is>
+      </c>
+      <c r="H5" s="21" t="inlineStr"/>
+      <c r="I5" s="21" t="inlineStr"/>
+      <c r="J5" s="21" t="inlineStr"/>
+      <c r="K5" s="21" t="inlineStr"/>
+      <c r="L5" s="21" t="inlineStr"/>
+    </row>
+    <row r="6" ht="26" customHeight="1">
+      <c r="A6" s="10" t="inlineStr">
+        <is>
+          <t>User Base</t>
+        </is>
+      </c>
+      <c r="B6" s="10" t="inlineStr">
+        <is>
+          <t>Total Users</t>
+        </is>
+      </c>
+      <c r="C6" s="20" t="inlineStr">
+        <is>
+          <t>100 application users</t>
+        </is>
+      </c>
+      <c r="D6" s="10" t="inlineStr">
+        <is>
+          <t>50-100 users</t>
+        </is>
+      </c>
+      <c r="E6" s="10" t="inlineStr">
+        <is>
+          <t>100-500 users</t>
+        </is>
+      </c>
+      <c r="F6" s="10" t="inlineStr">
+        <is>
+          <t>500+ users</t>
+        </is>
+      </c>
+      <c r="G6" s="10" t="inlineStr">
+        <is>
+          <t>End users of migrated apps</t>
+        </is>
+      </c>
+      <c r="H6" s="10" t="inlineStr"/>
+      <c r="I6" s="10" t="inlineStr"/>
+      <c r="J6" s="10" t="inlineStr"/>
+      <c r="K6" s="10" t="inlineStr"/>
+      <c r="L6" s="10" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="21" t="inlineStr">
+        <is>
+          <t>User Base</t>
+        </is>
+      </c>
+      <c r="B7" s="21" t="inlineStr">
+        <is>
+          <t>User Roles</t>
+        </is>
+      </c>
+      <c r="C7" s="20" t="inlineStr">
+        <is>
+          <t>3 roles (admin operator user)</t>
+        </is>
+      </c>
+      <c r="D7" s="21" t="inlineStr">
+        <is>
+          <t>2-3 standard roles</t>
+        </is>
+      </c>
+      <c r="E7" s="21" t="inlineStr">
+        <is>
+          <t>4-6 roles</t>
+        </is>
+      </c>
+      <c r="F7" s="21" t="inlineStr">
+        <is>
+          <t>8+ roles with migration access</t>
+        </is>
+      </c>
+      <c r="G7" s="21" t="inlineStr">
+        <is>
+          <t>Roles for migration and operation</t>
+        </is>
+      </c>
+      <c r="H7" s="21" t="inlineStr"/>
+      <c r="I7" s="21" t="inlineStr"/>
+      <c r="J7" s="21" t="inlineStr"/>
+      <c r="K7" s="21" t="inlineStr"/>
+      <c r="L7" s="21" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="10" t="inlineStr">
+        <is>
+          <t>Data Volume</t>
+        </is>
+      </c>
+      <c r="B8" s="10" t="inlineStr">
+        <is>
+          <t>Total Data to Migrate</t>
+        </is>
+      </c>
+      <c r="C8" s="20" t="inlineStr">
+        <is>
+          <t>500 GB</t>
+        </is>
+      </c>
+      <c r="D8" s="10" t="inlineStr">
+        <is>
+          <t>100-500 GB</t>
+        </is>
+      </c>
+      <c r="E8" s="10" t="inlineStr">
+        <is>
+          <t>500 GB - 2 TB</t>
+        </is>
+      </c>
+      <c r="F8" s="10" t="inlineStr">
+        <is>
+          <t>2+ TB</t>
+        </is>
+      </c>
+      <c r="G8" s="10" t="inlineStr">
+        <is>
+          <t>Total data volume for migration</t>
+        </is>
+      </c>
+      <c r="H8" s="10" t="inlineStr"/>
+      <c r="I8" s="10" t="inlineStr"/>
+      <c r="J8" s="10" t="inlineStr"/>
+      <c r="K8" s="10" t="inlineStr"/>
+      <c r="L8" s="10" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="21" t="inlineStr">
+        <is>
+          <t>Data Volume</t>
+        </is>
+      </c>
+      <c r="B9" s="21" t="inlineStr">
+        <is>
+          <t>Database Migration</t>
+        </is>
+      </c>
+      <c r="C9" s="20" t="inlineStr">
+        <is>
+          <t>2 databases (MySQL PostgreSQL)</t>
+        </is>
+      </c>
+      <c r="D9" s="21" t="inlineStr">
+        <is>
+          <t>1-2 databases</t>
+        </is>
+      </c>
+      <c r="E9" s="21" t="inlineStr">
+        <is>
+          <t>3-5 databases</t>
+        </is>
+      </c>
+      <c r="F9" s="21" t="inlineStr">
+        <is>
+          <t>6+ databases or complex schemas</t>
+        </is>
+      </c>
+      <c r="G9" s="21" t="inlineStr">
+        <is>
+          <t>Database migration scope</t>
+        </is>
+      </c>
+      <c r="H9" s="21" t="inlineStr"/>
+      <c r="I9" s="21" t="inlineStr"/>
+      <c r="J9" s="21" t="inlineStr"/>
+      <c r="K9" s="21" t="inlineStr"/>
+      <c r="L9" s="21" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="10" t="inlineStr">
+        <is>
+          <t>Technical Environment</t>
+        </is>
+      </c>
+      <c r="B10" s="10" t="inlineStr">
+        <is>
+          <t>Target AWS Region</t>
+        </is>
+      </c>
+      <c r="C10" s="20" t="inlineStr">
+        <is>
+          <t>us-east-1</t>
+        </is>
+      </c>
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>Single region</t>
+        </is>
+      </c>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>Multi-AZ deployment</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Multi-region deployment</t>
+        </is>
+      </c>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>AWS target deployment region</t>
+        </is>
+      </c>
+      <c r="H10" s="10" t="inlineStr"/>
+      <c r="I10" s="10" t="inlineStr"/>
+      <c r="J10" s="10" t="inlineStr"/>
+      <c r="K10" s="10" t="inlineStr"/>
+      <c r="L10" s="10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="21" t="inlineStr">
+        <is>
+          <t>Technical Environment</t>
+        </is>
+      </c>
+      <c r="B11" s="21" t="inlineStr">
+        <is>
+          <t>Availability Requirements</t>
+        </is>
+      </c>
+      <c r="C11" s="20" t="inlineStr">
+        <is>
+          <t>Standard (99.5%)</t>
+        </is>
+      </c>
+      <c r="D11" s="21" t="inlineStr">
+        <is>
+          <t>Standard (99.5%)</t>
+        </is>
+      </c>
+      <c r="E11" s="21" t="inlineStr">
+        <is>
+          <t>High availability (99.9%)</t>
+        </is>
+      </c>
+      <c r="F11" s="21" t="inlineStr">
+        <is>
+          <t>Mission critical (99.95%+)</t>
+        </is>
+      </c>
+      <c r="G11" s="21" t="inlineStr">
+        <is>
+          <t>Post-migration availability SLA</t>
+        </is>
+      </c>
+      <c r="H11" s="21" t="inlineStr"/>
+      <c r="I11" s="21" t="inlineStr"/>
+      <c r="J11" s="21" t="inlineStr"/>
+      <c r="K11" s="21" t="inlineStr"/>
+      <c r="L11" s="21" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="10" t="inlineStr">
+        <is>
+          <t>Technical Environment</t>
+        </is>
+      </c>
+      <c r="B12" s="10" t="inlineStr">
+        <is>
+          <t>Infrastructure Complexity</t>
+        </is>
+      </c>
+      <c r="C12" s="20" t="inlineStr">
+        <is>
+          <t>EC2 RDS S3 standard</t>
+        </is>
+      </c>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>Basic IaaS</t>
+        </is>
+      </c>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>Standard AWS services</t>
+        </is>
+      </c>
+      <c r="F12" s="10" t="inlineStr">
+        <is>
+          <t>Advanced AWS native services</t>
+        </is>
+      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Target AWS architecture complexity</t>
+        </is>
+      </c>
+      <c r="H12" s="10" t="inlineStr"/>
+      <c r="I12" s="10" t="inlineStr"/>
+      <c r="J12" s="10" t="inlineStr"/>
+      <c r="K12" s="10" t="inlineStr"/>
+      <c r="L12" s="10" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="21" t="inlineStr">
+        <is>
+          <t>Security &amp; Compliance</t>
+        </is>
+      </c>
+      <c r="B13" s="21" t="inlineStr">
+        <is>
+          <t>Security Requirements</t>
+        </is>
+      </c>
+      <c r="C13" s="20" t="inlineStr">
+        <is>
+          <t>VPC Security Groups IAM</t>
+        </is>
+      </c>
+      <c r="D13" s="21" t="inlineStr">
+        <is>
+          <t>Basic cloud security</t>
+        </is>
+      </c>
+      <c r="E13" s="21" t="inlineStr">
+        <is>
+          <t>Industry standard (SOC2)</t>
+        </is>
+      </c>
+      <c r="F13" s="21" t="inlineStr">
+        <is>
+          <t>Advanced (compliance frameworks)</t>
+        </is>
+      </c>
+      <c r="G13" s="21" t="inlineStr">
+        <is>
+          <t>Cloud security controls</t>
+        </is>
+      </c>
+      <c r="H13" s="21" t="inlineStr"/>
+      <c r="I13" s="21" t="inlineStr"/>
+      <c r="J13" s="21" t="inlineStr"/>
+      <c r="K13" s="21" t="inlineStr"/>
+      <c r="L13" s="21" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="10" t="inlineStr">
+        <is>
+          <t>Security &amp; Compliance</t>
+        </is>
+      </c>
+      <c r="B14" s="10" t="inlineStr">
+        <is>
+          <t>Compliance Frameworks</t>
+        </is>
+      </c>
+      <c r="C14" s="20" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
+        <is>
+          <t>1-2 basic standards</t>
+        </is>
+      </c>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>2-3 industry standards</t>
+        </is>
+      </c>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>Multiple complex frameworks</t>
+        </is>
+      </c>
+      <c r="G14" s="10" t="inlineStr">
+        <is>
+          <t>Post-migration compliance</t>
+        </is>
+      </c>
+      <c r="H14" s="10" t="inlineStr"/>
+      <c r="I14" s="10" t="inlineStr"/>
+      <c r="J14" s="10" t="inlineStr"/>
+      <c r="K14" s="10" t="inlineStr"/>
+      <c r="L14" s="10" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="21" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="B15" s="21" t="inlineStr">
+        <is>
+          <t>Migration Window</t>
+        </is>
+      </c>
+      <c r="C15" s="20" t="inlineStr">
+        <is>
+          <t>Weekend maintenance windows</t>
+        </is>
+      </c>
+      <c r="D15" s="21" t="inlineStr">
+        <is>
+          <t>Single cutover</t>
+        </is>
+      </c>
+      <c r="E15" s="21" t="inlineStr">
+        <is>
+          <t>Phased migration</t>
+        </is>
+      </c>
+      <c r="F15" s="21" t="inlineStr">
+        <is>
+          <t>Zero-downtime migration</t>
+        </is>
+      </c>
+      <c r="G15" s="21" t="inlineStr">
+        <is>
+          <t>Migration execution strategy</t>
+        </is>
+      </c>
+      <c r="H15" s="21" t="inlineStr"/>
+      <c r="I15" s="21" t="inlineStr"/>
+      <c r="J15" s="21" t="inlineStr"/>
+      <c r="K15" s="21" t="inlineStr"/>
+      <c r="L15" s="21" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
+      <c r="B16" s="10" t="inlineStr">
+        <is>
+          <t>Performance Requirements</t>
+        </is>
+      </c>
+      <c r="C16" s="20" t="inlineStr">
+        <is>
+          <t>Match on-premises baseline</t>
+        </is>
+      </c>
+      <c r="D16" s="10" t="inlineStr">
+        <is>
+          <t>Standard performance</t>
+        </is>
+      </c>
+      <c r="E16" s="10" t="inlineStr">
+        <is>
+          <t>Enhanced cloud performance</t>
+        </is>
+      </c>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>Optimized cloud-native</t>
+        </is>
+      </c>
+      <c r="G16" s="10" t="inlineStr">
+        <is>
+          <t>Post-migration performance targets</t>
+        </is>
+      </c>
+      <c r="H16" s="10" t="inlineStr"/>
+      <c r="I16" s="10" t="inlineStr"/>
+      <c r="J16" s="10" t="inlineStr"/>
+      <c r="K16" s="10" t="inlineStr"/>
+      <c r="L16" s="10" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="21" t="inlineStr">
+        <is>
+          <t>Environment</t>
+        </is>
+      </c>
+      <c r="B17" s="21" t="inlineStr">
+        <is>
+          <t>Deployment Environments</t>
+        </is>
+      </c>
+      <c r="C17" s="20" t="inlineStr">
+        <is>
+          <t>2 environments (dev prod)</t>
+        </is>
+      </c>
+      <c r="D17" s="21" t="inlineStr">
+        <is>
+          <t>2 environments</t>
+        </is>
+      </c>
+      <c r="E17" s="21" t="inlineStr">
+        <is>
+          <t>3 environments</t>
+        </is>
+      </c>
+      <c r="F17" s="21" t="inlineStr">
+        <is>
+          <t>4+ environments with automation</t>
+        </is>
+      </c>
+      <c r="G17" s="21" t="inlineStr">
+        <is>
+          <t>Target cloud environments</t>
+        </is>
+      </c>
+      <c r="H17" s="21" t="inlineStr"/>
+      <c r="I17" s="21" t="inlineStr"/>
+      <c r="J17" s="21" t="inlineStr"/>
+      <c r="K17" s="21" t="inlineStr"/>
+      <c r="L17" s="21" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="inlineStr"/>
+      <c r="B18" s="10" t="inlineStr"/>
+      <c r="C18" s="10" t="inlineStr"/>
+      <c r="D18" s="10" t="inlineStr"/>
+      <c r="E18" s="10" t="inlineStr"/>
+      <c r="F18" s="10" t="inlineStr"/>
+      <c r="G18" s="10" t="inlineStr"/>
+      <c r="H18" s="10" t="inlineStr"/>
+      <c r="I18" s="10" t="inlineStr"/>
+      <c r="J18" s="10" t="inlineStr"/>
+      <c r="K18" s="10" t="inlineStr"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <autoFilter ref="A1:E6"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" fitToHeight="0" fitToWidth="1"/>
 </worksheet>
 </file>
 
@@ -697,7 +1548,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,140 +1563,424 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="inlineStr">
+      <c r="A1" s="22" t="inlineStr">
         <is>
           <t>INSTRUCTIONS: How to Use Estimate Settings</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="inlineStr"/>
+      <c r="A2" s="23" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="inlineStr">
+      <c r="A3" s="23" t="inlineStr">
         <is>
           <t>This sheet contains phase-based multiplier variables that control effort scaling for each project phase.</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="inlineStr">
+      <c r="A4" s="23" t="inlineStr">
         <is>
           <t>The EO Sales Engineer updates these multipliers based on customer scope compared to baseline assumptions.</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="inlineStr"/>
+      <c r="A5" s="23" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="inlineStr">
+      <c r="A6" s="24" t="inlineStr">
         <is>
           <t>How It Works:</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="inlineStr">
+      <c r="A7" s="23" t="inlineStr">
         <is>
           <t>1. Review customer requirements from Discovery Questionnaire</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="inlineStr">
+      <c r="A8" s="23" t="inlineStr">
         <is>
           <t>2. Compare customer scope to Baseline Assumptions (see 'Scope Assumptions' sheet)</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="inlineStr">
+      <c r="A9" s="23" t="inlineStr">
         <is>
           <t>3. Update YELLOW HIGHLIGHTED multiplier values below (Column C) for each phase</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="inlineStr">
+      <c r="A10" s="23" t="inlineStr">
         <is>
           <t>4. All tasks in that phase on the 'LOE' sheet automatically update their Actual Hours</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="inlineStr">
+      <c r="A11" s="23" t="inlineStr">
         <is>
           <t>5. Total cost recalculates automatically</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="inlineStr"/>
+      <c r="A12" s="23" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="10" t="inlineStr">
+      <c r="A13" s="24" t="inlineStr">
         <is>
           <t>Multiplier Guidelines:</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="inlineStr">
+      <c r="A14" s="23" t="inlineStr">
         <is>
           <t>• 1.0 = Matches baseline exactly (Small scope)</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="inlineStr">
+      <c r="A15" s="23" t="inlineStr">
         <is>
           <t>• 1.5-2.0 = Medium scope (moderately above baseline)</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="inlineStr">
+      <c r="A16" s="23" t="inlineStr">
         <is>
           <t>• 2.0-3.0 = Large scope (significantly above baseline)</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="inlineStr">
+      <c r="A17" s="23" t="inlineStr">
         <is>
           <t>• 3.0+ = Very large/complex (substantially above baseline, document rationale)</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="9" t="inlineStr"/>
+      <c r="A18" s="23" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="9" t="inlineStr">
+      <c r="A19" s="23" t="inlineStr">
         <is>
           <t>Example: Customer needs comprehensive testing due to compliance → Set TESTING_MX to 2.0</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="9" t="inlineStr">
+      <c r="A20" s="23" t="inlineStr">
         <is>
           <t>Example: Complex architecture requiring more technical oversight → Set LEADERSHIP_MX to 1.5</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="inlineStr"/>
+      <c r="A21" s="23" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="inlineStr">
+      <c r="A22" s="25" t="inlineStr">
         <is>
           <t>ESTIMATE SETTINGS - Update phase multipliers in Column C below:</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="32" customHeight="1"/>
+    <row r="23" ht="32" customHeight="1">
+      <c r="A23" s="19" t="inlineStr">
+        <is>
+          <t>Phase</t>
+        </is>
+      </c>
+      <c r="B23" s="19" t="inlineStr">
+        <is>
+          <t>Variable Name</t>
+        </is>
+      </c>
+      <c r="C23" s="19" t="inlineStr">
+        <is>
+          <t>Multiplier</t>
+        </is>
+      </c>
+      <c r="D23" s="19" t="inlineStr">
+        <is>
+          <t>Description / Applies To Tasks</t>
+        </is>
+      </c>
+      <c r="E23" s="19" t="inlineStr"/>
+      <c r="F23" s="19" t="inlineStr"/>
+      <c r="G23" s="19" t="inlineStr"/>
+      <c r="H23" s="19" t="inlineStr"/>
+      <c r="I23" s="19" t="inlineStr"/>
+      <c r="J23" s="19" t="inlineStr"/>
+      <c r="K23" s="19" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="10" t="inlineStr">
+        <is>
+          <t>Discovery</t>
+        </is>
+      </c>
+      <c r="B24" s="10" t="inlineStr">
+        <is>
+          <t>DISCOVERY_MX</t>
+        </is>
+      </c>
+      <c r="C24" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="10" t="inlineStr">
+        <is>
+          <t>All Discovery phase tasks</t>
+        </is>
+      </c>
+      <c r="E24" s="10" t="inlineStr"/>
+      <c r="F24" s="10" t="inlineStr"/>
+      <c r="G24" s="10" t="inlineStr"/>
+      <c r="H24" s="10" t="inlineStr"/>
+      <c r="I24" s="10" t="inlineStr"/>
+      <c r="J24" s="10" t="inlineStr"/>
+      <c r="K24" s="10" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="21" t="inlineStr">
+        <is>
+          <t>Planning</t>
+        </is>
+      </c>
+      <c r="B25" s="21" t="inlineStr">
+        <is>
+          <t>PLANNING_MX</t>
+        </is>
+      </c>
+      <c r="C25" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="21" t="inlineStr">
+        <is>
+          <t>All Planning phase tasks</t>
+        </is>
+      </c>
+      <c r="E25" s="21" t="inlineStr"/>
+      <c r="F25" s="21" t="inlineStr"/>
+      <c r="G25" s="21" t="inlineStr"/>
+      <c r="H25" s="21" t="inlineStr"/>
+      <c r="I25" s="21" t="inlineStr"/>
+      <c r="J25" s="21" t="inlineStr"/>
+      <c r="K25" s="21" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="10" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+      <c r="B26" s="10" t="inlineStr">
+        <is>
+          <t>DEVELOPMENT_MX</t>
+        </is>
+      </c>
+      <c r="C26" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="10" t="inlineStr">
+        <is>
+          <t>All Development phase tasks</t>
+        </is>
+      </c>
+      <c r="E26" s="10" t="inlineStr"/>
+      <c r="F26" s="10" t="inlineStr"/>
+      <c r="G26" s="10" t="inlineStr"/>
+      <c r="H26" s="10" t="inlineStr"/>
+      <c r="I26" s="10" t="inlineStr"/>
+      <c r="J26" s="10" t="inlineStr"/>
+      <c r="K26" s="10" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="21" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="B27" s="21" t="inlineStr">
+        <is>
+          <t>TESTING_MX</t>
+        </is>
+      </c>
+      <c r="C27" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="21" t="inlineStr">
+        <is>
+          <t>All Testing phase tasks</t>
+        </is>
+      </c>
+      <c r="E27" s="21" t="inlineStr"/>
+      <c r="F27" s="21" t="inlineStr"/>
+      <c r="G27" s="21" t="inlineStr"/>
+      <c r="H27" s="21" t="inlineStr"/>
+      <c r="I27" s="21" t="inlineStr"/>
+      <c r="J27" s="21" t="inlineStr"/>
+      <c r="K27" s="21" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="10" t="inlineStr">
+        <is>
+          <t>Deployment</t>
+        </is>
+      </c>
+      <c r="B28" s="10" t="inlineStr">
+        <is>
+          <t>DEPLOYMENT_MX</t>
+        </is>
+      </c>
+      <c r="C28" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="10" t="inlineStr">
+        <is>
+          <t>All Deployment phase tasks</t>
+        </is>
+      </c>
+      <c r="E28" s="10" t="inlineStr"/>
+      <c r="F28" s="10" t="inlineStr"/>
+      <c r="G28" s="10" t="inlineStr"/>
+      <c r="H28" s="10" t="inlineStr"/>
+      <c r="I28" s="10" t="inlineStr"/>
+      <c r="J28" s="10" t="inlineStr"/>
+      <c r="K28" s="10" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="21" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="B29" s="21" t="inlineStr">
+        <is>
+          <t>TRAINING_MX</t>
+        </is>
+      </c>
+      <c r="C29" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="21" t="inlineStr">
+        <is>
+          <t>All Training phase tasks</t>
+        </is>
+      </c>
+      <c r="E29" s="21" t="inlineStr"/>
+      <c r="F29" s="21" t="inlineStr"/>
+      <c r="G29" s="21" t="inlineStr"/>
+      <c r="H29" s="21" t="inlineStr"/>
+      <c r="I29" s="21" t="inlineStr"/>
+      <c r="J29" s="21" t="inlineStr"/>
+      <c r="K29" s="21" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="10" t="inlineStr">
+        <is>
+          <t>Closeout</t>
+        </is>
+      </c>
+      <c r="B30" s="10" t="inlineStr">
+        <is>
+          <t>CLOSEOUT_MX</t>
+        </is>
+      </c>
+      <c r="C30" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="10" t="inlineStr">
+        <is>
+          <t>All Closeout phase tasks</t>
+        </is>
+      </c>
+      <c r="E30" s="10" t="inlineStr"/>
+      <c r="F30" s="10" t="inlineStr"/>
+      <c r="G30" s="10" t="inlineStr"/>
+      <c r="H30" s="10" t="inlineStr"/>
+      <c r="I30" s="10" t="inlineStr"/>
+      <c r="J30" s="10" t="inlineStr"/>
+      <c r="K30" s="10" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="21" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="B31" s="21" t="inlineStr">
+        <is>
+          <t>MANAGEMENT_MX</t>
+        </is>
+      </c>
+      <c r="C31" s="26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D31" s="21" t="inlineStr">
+        <is>
+          <t>Project Management overhead</t>
+        </is>
+      </c>
+      <c r="E31" s="21" t="inlineStr"/>
+      <c r="F31" s="21" t="inlineStr"/>
+      <c r="G31" s="21" t="inlineStr"/>
+      <c r="H31" s="21" t="inlineStr"/>
+      <c r="I31" s="21" t="inlineStr"/>
+      <c r="J31" s="21" t="inlineStr"/>
+      <c r="K31" s="21" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="10" t="inlineStr">
+        <is>
+          <t>Leadership</t>
+        </is>
+      </c>
+      <c r="B32" s="10" t="inlineStr">
+        <is>
+          <t>LEADERSHIP_MX</t>
+        </is>
+      </c>
+      <c r="C32" s="26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D32" s="10" t="inlineStr">
+        <is>
+          <t>Quarterback/Technical Leadership overhead</t>
+        </is>
+      </c>
+      <c r="E32" s="10" t="inlineStr"/>
+      <c r="F32" s="10" t="inlineStr"/>
+      <c r="G32" s="10" t="inlineStr"/>
+      <c r="H32" s="10" t="inlineStr"/>
+      <c r="I32" s="10" t="inlineStr"/>
+      <c r="J32" s="10" t="inlineStr"/>
+      <c r="K32" s="10" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="21" t="inlineStr"/>
+      <c r="B33" s="21" t="inlineStr"/>
+      <c r="C33" s="26" t="inlineStr"/>
+      <c r="D33" s="21" t="inlineStr"/>
+      <c r="E33" s="21" t="inlineStr"/>
+      <c r="F33" s="21" t="inlineStr"/>
+      <c r="G33" s="21" t="inlineStr"/>
+      <c r="H33" s="21" t="inlineStr"/>
+      <c r="I33" s="21" t="inlineStr"/>
+      <c r="J33" s="21" t="inlineStr"/>
+      <c r="K33" s="21" t="inlineStr"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="A1:D1"/>
@@ -876,7 +2011,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -898,7 +2033,1336 @@
     <col width="60" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32" customHeight="1"/>
+    <row r="1" ht="32" customHeight="1">
+      <c r="A1" s="19" t="inlineStr">
+        <is>
+          <t>Phase</t>
+        </is>
+      </c>
+      <c r="B1" s="19" t="inlineStr">
+        <is>
+          <t>Work Package</t>
+        </is>
+      </c>
+      <c r="C1" s="19" t="inlineStr">
+        <is>
+          <t>Task Description</t>
+        </is>
+      </c>
+      <c r="D1" s="19" t="inlineStr">
+        <is>
+          <t>Resource Type</t>
+        </is>
+      </c>
+      <c r="E1" s="19" t="inlineStr">
+        <is>
+          <t>Base Hours</t>
+        </is>
+      </c>
+      <c r="F1" s="19" t="inlineStr">
+        <is>
+          <t>Effort Multiplier</t>
+        </is>
+      </c>
+      <c r="G1" s="19" t="inlineStr">
+        <is>
+          <t>Actual Hours</t>
+        </is>
+      </c>
+      <c r="H1" s="19" t="inlineStr">
+        <is>
+          <t>Rate</t>
+        </is>
+      </c>
+      <c r="I1" s="19" t="inlineStr">
+        <is>
+          <t>Cost Estimate</t>
+        </is>
+      </c>
+      <c r="J1" s="19" t="inlineStr">
+        <is>
+          <t>Dependencies</t>
+        </is>
+      </c>
+      <c r="K1" s="19" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="10" t="inlineStr">
+        <is>
+          <t>Discovery</t>
+        </is>
+      </c>
+      <c r="B2" s="10" t="inlineStr">
+        <is>
+          <t>Cloud Requirements Gathering</t>
+        </is>
+      </c>
+      <c r="C2" s="10" t="inlineStr">
+        <is>
+          <t>Conduct stakeholder interviews for cloud migration/infrastructure</t>
+        </is>
+      </c>
+      <c r="D2" s="10" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E2" s="27" t="n">
+        <v>40</v>
+      </c>
+      <c r="F2" s="28">
+        <f>'Estimate Settings'!$C$21</f>
+        <v/>
+      </c>
+      <c r="G2" s="10">
+        <f>$E2*$F2</f>
+        <v/>
+      </c>
+      <c r="H2" s="29" t="n">
+        <v>150</v>
+      </c>
+      <c r="I2" s="10">
+        <f>TEXT($G2*$H2,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J2" s="10" t="inlineStr"/>
+      <c r="K2" s="10" t="inlineStr">
+        <is>
+          <t>Focus on scalability performance and business objectives</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="21" t="inlineStr">
+        <is>
+          <t>Discovery</t>
+        </is>
+      </c>
+      <c r="B3" s="21" t="inlineStr">
+        <is>
+          <t>Infrastructure Assessment</t>
+        </is>
+      </c>
+      <c r="C3" s="21" t="inlineStr">
+        <is>
+          <t>Analyze current infrastructure workloads and dependencies</t>
+        </is>
+      </c>
+      <c r="D3" s="21" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E3" s="30" t="n">
+        <v>32</v>
+      </c>
+      <c r="F3" s="28">
+        <f>'Estimate Settings'!$C$21</f>
+        <v/>
+      </c>
+      <c r="G3" s="21">
+        <f>$E3*$F3</f>
+        <v/>
+      </c>
+      <c r="H3" s="31" t="n">
+        <v>200</v>
+      </c>
+      <c r="I3" s="21">
+        <f>TEXT($G3*$H3,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J3" s="21" t="inlineStr"/>
+      <c r="K3" s="21" t="inlineStr">
+        <is>
+          <t>Include application dependencies and performance baselines</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="10" t="inlineStr">
+        <is>
+          <t>Discovery</t>
+        </is>
+      </c>
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>AWS Services Assessment</t>
+        </is>
+      </c>
+      <c r="C4" s="10" t="inlineStr">
+        <is>
+          <t>Evaluate target AWS services and architecture patterns</t>
+        </is>
+      </c>
+      <c r="D4" s="10" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E4" s="27" t="n">
+        <v>24</v>
+      </c>
+      <c r="F4" s="28">
+        <f>'Estimate Settings'!$C$21</f>
+        <v/>
+      </c>
+      <c r="G4" s="10">
+        <f>$E4*$F4</f>
+        <v/>
+      </c>
+      <c r="H4" s="29" t="n">
+        <v>200</v>
+      </c>
+      <c r="I4" s="10">
+        <f>TEXT($G4*$H4,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J4" s="10" t="inlineStr"/>
+      <c r="K4" s="10" t="inlineStr">
+        <is>
+          <t>Focus on cost optimization and best practices</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="21" t="inlineStr">
+        <is>
+          <t>Discovery</t>
+        </is>
+      </c>
+      <c r="B5" s="21" t="inlineStr">
+        <is>
+          <t>Compliance Review</t>
+        </is>
+      </c>
+      <c r="C5" s="21" t="inlineStr">
+        <is>
+          <t>Assess security governance and compliance requirements</t>
+        </is>
+      </c>
+      <c r="D5" s="21" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E5" s="30" t="n">
+        <v>16</v>
+      </c>
+      <c r="F5" s="28">
+        <f>'Estimate Settings'!$C$21</f>
+        <v/>
+      </c>
+      <c r="G5" s="21">
+        <f>$E5*$F5</f>
+        <v/>
+      </c>
+      <c r="H5" s="31" t="n">
+        <v>175</v>
+      </c>
+      <c r="I5" s="21">
+        <f>TEXT($G5*$H5,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J5" s="21" t="inlineStr"/>
+      <c r="K5" s="21" t="inlineStr">
+        <is>
+          <t>Include industry regulations and data residency</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="10" t="inlineStr">
+        <is>
+          <t>Planning</t>
+        </is>
+      </c>
+      <c r="B6" s="10" t="inlineStr">
+        <is>
+          <t>AWS Architecture Design</t>
+        </is>
+      </c>
+      <c r="C6" s="10" t="inlineStr">
+        <is>
+          <t>Design AWS cloud architecture and migration strategy</t>
+        </is>
+      </c>
+      <c r="D6" s="10" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E6" s="27" t="n">
+        <v>48</v>
+      </c>
+      <c r="F6" s="28">
+        <f>'Estimate Settings'!$C$22</f>
+        <v/>
+      </c>
+      <c r="G6" s="10">
+        <f>$E6*$F6</f>
+        <v/>
+      </c>
+      <c r="H6" s="29" t="n">
+        <v>200</v>
+      </c>
+      <c r="I6" s="10">
+        <f>TEXT($G6*$H6,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J6" s="10" t="inlineStr"/>
+      <c r="K6" s="10" t="inlineStr">
+        <is>
+          <t>Include multi-AZ design and disaster recovery</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="21" t="inlineStr">
+        <is>
+          <t>Planning</t>
+        </is>
+      </c>
+      <c r="B7" s="21" t="inlineStr">
+        <is>
+          <t>Migration Strategy</t>
+        </is>
+      </c>
+      <c r="C7" s="21" t="inlineStr">
+        <is>
+          <t>Develop detailed migration approach and timeline</t>
+        </is>
+      </c>
+      <c r="D7" s="21" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E7" s="30" t="n">
+        <v>32</v>
+      </c>
+      <c r="F7" s="28">
+        <f>'Estimate Settings'!$C$22</f>
+        <v/>
+      </c>
+      <c r="G7" s="21">
+        <f>$E7*$F7</f>
+        <v/>
+      </c>
+      <c r="H7" s="31" t="n">
+        <v>180</v>
+      </c>
+      <c r="I7" s="21">
+        <f>TEXT($G7*$H7,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J7" s="21" t="inlineStr"/>
+      <c r="K7" s="21" t="inlineStr">
+        <is>
+          <t>Include risk assessment and rollback procedures</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="10" t="inlineStr">
+        <is>
+          <t>Planning</t>
+        </is>
+      </c>
+      <c r="B8" s="10" t="inlineStr">
+        <is>
+          <t>Security Architecture</t>
+        </is>
+      </c>
+      <c r="C8" s="10" t="inlineStr">
+        <is>
+          <t>Design AWS security controls and governance framework</t>
+        </is>
+      </c>
+      <c r="D8" s="10" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E8" s="27" t="n">
+        <v>24</v>
+      </c>
+      <c r="F8" s="28">
+        <f>'Estimate Settings'!$C$22</f>
+        <v/>
+      </c>
+      <c r="G8" s="10">
+        <f>$E8*$F8</f>
+        <v/>
+      </c>
+      <c r="H8" s="29" t="n">
+        <v>175</v>
+      </c>
+      <c r="I8" s="10">
+        <f>TEXT($G8*$H8,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J8" s="10" t="inlineStr"/>
+      <c r="K8" s="10" t="inlineStr">
+        <is>
+          <t>Include IAM networking and data protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="21" t="inlineStr">
+        <is>
+          <t>Planning</t>
+        </is>
+      </c>
+      <c r="B9" s="21" t="inlineStr">
+        <is>
+          <t>Project Planning</t>
+        </is>
+      </c>
+      <c r="C9" s="21" t="inlineStr">
+        <is>
+          <t>Develop cloud implementation timeline and resource allocation</t>
+        </is>
+      </c>
+      <c r="D9" s="21" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E9" s="30" t="n">
+        <v>24</v>
+      </c>
+      <c r="F9" s="28">
+        <f>'Estimate Settings'!$C$22</f>
+        <v/>
+      </c>
+      <c r="G9" s="21">
+        <f>$E9*$F9</f>
+        <v/>
+      </c>
+      <c r="H9" s="31" t="n">
+        <v>140</v>
+      </c>
+      <c r="I9" s="21">
+        <f>TEXT($G9*$H9,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J9" s="21" t="inlineStr"/>
+      <c r="K9" s="21" t="inlineStr">
+        <is>
+          <t>Coordinate with infrastructure and security teams</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="10" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+      <c r="B10" s="10" t="inlineStr">
+        <is>
+          <t>AWS Infrastructure Provisioning</t>
+        </is>
+      </c>
+      <c r="C10" s="10" t="inlineStr">
+        <is>
+          <t>Provision AWS services networking and foundational infrastructure</t>
+        </is>
+      </c>
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E10" s="27" t="n">
+        <v>60</v>
+      </c>
+      <c r="F10" s="28">
+        <f>'Estimate Settings'!$C$23</f>
+        <v/>
+      </c>
+      <c r="G10" s="10">
+        <f>$E10*$F10</f>
+        <v/>
+      </c>
+      <c r="H10" s="29" t="n">
+        <v>160</v>
+      </c>
+      <c r="I10" s="10">
+        <f>TEXT($G10*$H10,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J10" s="10" t="inlineStr"/>
+      <c r="K10" s="10" t="inlineStr">
+        <is>
+          <t>Include VPC subnets security groups and routing</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="21" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+      <c r="B11" s="21" t="inlineStr">
+        <is>
+          <t>Application Migration</t>
+        </is>
+      </c>
+      <c r="C11" s="21" t="inlineStr">
+        <is>
+          <t>Migrate applications and workloads to AWS</t>
+        </is>
+      </c>
+      <c r="D11" s="21" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E11" s="30" t="n">
+        <v>80</v>
+      </c>
+      <c r="F11" s="28">
+        <f>'Estimate Settings'!$C$23</f>
+        <v/>
+      </c>
+      <c r="G11" s="21">
+        <f>$E11*$F11</f>
+        <v/>
+      </c>
+      <c r="H11" s="31" t="n">
+        <v>130</v>
+      </c>
+      <c r="I11" s="21">
+        <f>TEXT($G11*$H11,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J11" s="21" t="inlineStr"/>
+      <c r="K11" s="21" t="inlineStr">
+        <is>
+          <t>Include application optimization and testing</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="10" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+      <c r="B12" s="10" t="inlineStr">
+        <is>
+          <t>Data Migration</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>Migrate databases and data stores to AWS</t>
+        </is>
+      </c>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E12" s="27" t="n">
+        <v>48</v>
+      </c>
+      <c r="F12" s="28">
+        <f>'Estimate Settings'!$C$23</f>
+        <v/>
+      </c>
+      <c r="G12" s="10">
+        <f>$E12*$F12</f>
+        <v/>
+      </c>
+      <c r="H12" s="29" t="n">
+        <v>145</v>
+      </c>
+      <c r="I12" s="10">
+        <f>TEXT($G12*$H12,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J12" s="10" t="inlineStr"/>
+      <c r="K12" s="10" t="inlineStr">
+        <is>
+          <t>Include data validation backup and recovery testing</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="21" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+      <c r="B13" s="21" t="inlineStr">
+        <is>
+          <t>Monitoring and Operations</t>
+        </is>
+      </c>
+      <c r="C13" s="21" t="inlineStr">
+        <is>
+          <t>Implement AWS monitoring logging and operational tools</t>
+        </is>
+      </c>
+      <c r="D13" s="21" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E13" s="30" t="n">
+        <v>40</v>
+      </c>
+      <c r="F13" s="28">
+        <f>'Estimate Settings'!$C$23</f>
+        <v/>
+      </c>
+      <c r="G13" s="21">
+        <f>$E13*$F13</f>
+        <v/>
+      </c>
+      <c r="H13" s="31" t="n">
+        <v>140</v>
+      </c>
+      <c r="I13" s="21">
+        <f>TEXT($G13*$H13,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J13" s="21" t="inlineStr"/>
+      <c r="K13" s="21" t="inlineStr">
+        <is>
+          <t>Include CloudWatch X-Ray and operational dashboards</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="10" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+      <c r="B14" s="10" t="inlineStr">
+        <is>
+          <t>Automation and IaC</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Develop infrastructure automation using CloudFormation/CDK</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E14" s="27" t="n">
+        <v>32</v>
+      </c>
+      <c r="F14" s="28">
+        <f>'Estimate Settings'!$C$23</f>
+        <v/>
+      </c>
+      <c r="G14" s="10">
+        <f>$E14*$F14</f>
+        <v/>
+      </c>
+      <c r="H14" s="29" t="n">
+        <v>125</v>
+      </c>
+      <c r="I14" s="10">
+        <f>TEXT($G14*$H14,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J14" s="10" t="inlineStr"/>
+      <c r="K14" s="10" t="inlineStr">
+        <is>
+          <t>Include CI/CD pipeline integration</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="21" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="B15" s="21" t="inlineStr">
+        <is>
+          <t>Unit Testing</t>
+        </is>
+      </c>
+      <c r="C15" s="21" t="inlineStr">
+        <is>
+          <t>Develop automated tests for all solution components</t>
+        </is>
+      </c>
+      <c r="D15" s="21" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E15" s="30" t="n">
+        <v>32</v>
+      </c>
+      <c r="F15" s="28">
+        <f>'Estimate Settings'!$C$24</f>
+        <v/>
+      </c>
+      <c r="G15" s="21">
+        <f>$E15*$F15</f>
+        <v/>
+      </c>
+      <c r="H15" s="31" t="n">
+        <v>120</v>
+      </c>
+      <c r="I15" s="21">
+        <f>TEXT($G15*$H15,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J15" s="21" t="inlineStr"/>
+      <c r="K15" s="21" t="inlineStr">
+        <is>
+          <t>Include technology-specific testing frameworks</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="B16" s="10" t="inlineStr">
+        <is>
+          <t>Integration Testing</t>
+        </is>
+      </c>
+      <c r="C16" s="10" t="inlineStr">
+        <is>
+          <t>Test system integrations data flows and external dependencies</t>
+        </is>
+      </c>
+      <c r="D16" s="10" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E16" s="27" t="n">
+        <v>40</v>
+      </c>
+      <c r="F16" s="28">
+        <f>'Estimate Settings'!$C$24</f>
+        <v/>
+      </c>
+      <c r="G16" s="10">
+        <f>$E16*$F16</f>
+        <v/>
+      </c>
+      <c r="H16" s="29" t="n">
+        <v>120</v>
+      </c>
+      <c r="I16" s="10">
+        <f>TEXT($G16*$H16,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J16" s="10" t="inlineStr"/>
+      <c r="K16" s="10" t="inlineStr">
+        <is>
+          <t>Include end-to-end workflow validation</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="21" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="B17" s="21" t="inlineStr">
+        <is>
+          <t>Performance Testing</t>
+        </is>
+      </c>
+      <c r="C17" s="21" t="inlineStr">
+        <is>
+          <t>Conduct load performance and scalability testing</t>
+        </is>
+      </c>
+      <c r="D17" s="21" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E17" s="30" t="n">
+        <v>24</v>
+      </c>
+      <c r="F17" s="28">
+        <f>'Estimate Settings'!$C$24</f>
+        <v/>
+      </c>
+      <c r="G17" s="21">
+        <f>$E17*$F17</f>
+        <v/>
+      </c>
+      <c r="H17" s="31" t="n">
+        <v>140</v>
+      </c>
+      <c r="I17" s="21">
+        <f>TEXT($G17*$H17,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J17" s="21" t="inlineStr"/>
+      <c r="K17" s="21" t="inlineStr">
+        <is>
+          <t>Include production-like environment and stress testing</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="B18" s="10" t="inlineStr">
+        <is>
+          <t>Security Testing</t>
+        </is>
+      </c>
+      <c r="C18" s="10" t="inlineStr">
+        <is>
+          <t>Perform security assessments penetration testing and compliance validation</t>
+        </is>
+      </c>
+      <c r="D18" s="10" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E18" s="27" t="n">
+        <v>16</v>
+      </c>
+      <c r="F18" s="28">
+        <f>'Estimate Settings'!$C$24</f>
+        <v/>
+      </c>
+      <c r="G18" s="10">
+        <f>$E18*$F18</f>
+        <v/>
+      </c>
+      <c r="H18" s="29" t="n">
+        <v>175</v>
+      </c>
+      <c r="I18" s="10">
+        <f>TEXT($G18*$H18,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J18" s="10" t="inlineStr"/>
+      <c r="K18" s="10" t="inlineStr">
+        <is>
+          <t>Include vulnerability scanning and compliance checks</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="21" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="B19" s="21" t="inlineStr">
+        <is>
+          <t>User Acceptance Testing</t>
+        </is>
+      </c>
+      <c r="C19" s="21" t="inlineStr">
+        <is>
+          <t>Coordinate UAT with business users and stakeholders</t>
+        </is>
+      </c>
+      <c r="D19" s="21" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E19" s="30" t="n">
+        <v>32</v>
+      </c>
+      <c r="F19" s="28">
+        <f>'Estimate Settings'!$C$24</f>
+        <v/>
+      </c>
+      <c r="G19" s="21">
+        <f>$E19*$F19</f>
+        <v/>
+      </c>
+      <c r="H19" s="31" t="n">
+        <v>150</v>
+      </c>
+      <c r="I19" s="21">
+        <f>TEXT($G19*$H19,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J19" s="21" t="inlineStr"/>
+      <c r="K19" s="21" t="inlineStr">
+        <is>
+          <t>Include training feedback collection and sign-off</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="10" t="inlineStr">
+        <is>
+          <t>Deployment</t>
+        </is>
+      </c>
+      <c r="B20" s="10" t="inlineStr">
+        <is>
+          <t>Production Deployment</t>
+        </is>
+      </c>
+      <c r="C20" s="10" t="inlineStr">
+        <is>
+          <t>Deploy solution to production environment with monitoring</t>
+        </is>
+      </c>
+      <c r="D20" s="10" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E20" s="27" t="n">
+        <v>24</v>
+      </c>
+      <c r="F20" s="28">
+        <f>'Estimate Settings'!$C$25</f>
+        <v/>
+      </c>
+      <c r="G20" s="10">
+        <f>$E20*$F20</f>
+        <v/>
+      </c>
+      <c r="H20" s="29" t="n">
+        <v>160</v>
+      </c>
+      <c r="I20" s="10">
+        <f>TEXT($G20*$H20,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J20" s="10" t="inlineStr"/>
+      <c r="K20" s="10" t="inlineStr">
+        <is>
+          <t>Include blue-green deployment rollback and validation</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="21" t="inlineStr">
+        <is>
+          <t>Deployment</t>
+        </is>
+      </c>
+      <c r="B21" s="21" t="inlineStr">
+        <is>
+          <t>Go-Live Support</t>
+        </is>
+      </c>
+      <c r="C21" s="21" t="inlineStr">
+        <is>
+          <t>Provide comprehensive support during initial production rollout</t>
+        </is>
+      </c>
+      <c r="D21" s="21" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E21" s="30" t="n">
+        <v>48</v>
+      </c>
+      <c r="F21" s="28">
+        <f>'Estimate Settings'!$C$25</f>
+        <v/>
+      </c>
+      <c r="G21" s="21">
+        <f>$E21*$F21</f>
+        <v/>
+      </c>
+      <c r="H21" s="31" t="n">
+        <v>110</v>
+      </c>
+      <c r="I21" s="21">
+        <f>TEXT($G21*$H21,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J21" s="21" t="inlineStr"/>
+      <c r="K21" s="21" t="inlineStr">
+        <is>
+          <t>Include 24/7 support monitoring and issue resolution</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="10" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="B22" s="10" t="inlineStr">
+        <is>
+          <t>Administrator Training</t>
+        </is>
+      </c>
+      <c r="C22" s="10" t="inlineStr">
+        <is>
+          <t>Train system administrators and technical support teams</t>
+        </is>
+      </c>
+      <c r="D22" s="10" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E22" s="27" t="n">
+        <v>16</v>
+      </c>
+      <c r="F22" s="28">
+        <f>'Estimate Settings'!$C$26</f>
+        <v/>
+      </c>
+      <c r="G22" s="10">
+        <f>$E22*$F22</f>
+        <v/>
+      </c>
+      <c r="H22" s="29" t="n">
+        <v>130</v>
+      </c>
+      <c r="I22" s="10">
+        <f>TEXT($G22*$H22,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J22" s="10" t="inlineStr"/>
+      <c r="K22" s="10" t="inlineStr">
+        <is>
+          <t>Include hands-on technical training and certification</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="21" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="B23" s="21" t="inlineStr">
+        <is>
+          <t>End User Training</t>
+        </is>
+      </c>
+      <c r="C23" s="21" t="inlineStr">
+        <is>
+          <t>Train business users on solution functionality and workflows</t>
+        </is>
+      </c>
+      <c r="D23" s="21" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E23" s="30" t="n">
+        <v>24</v>
+      </c>
+      <c r="F23" s="28">
+        <f>'Estimate Settings'!$C$26</f>
+        <v/>
+      </c>
+      <c r="G23" s="21">
+        <f>$E23*$F23</f>
+        <v/>
+      </c>
+      <c r="H23" s="31" t="n">
+        <v>120</v>
+      </c>
+      <c r="I23" s="21">
+        <f>TEXT($G23*$H23,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J23" s="21" t="inlineStr"/>
+      <c r="K23" s="21" t="inlineStr">
+        <is>
+          <t>Include role-based training documentation and support</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="10" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="B24" s="10" t="inlineStr">
+        <is>
+          <t>Documentation</t>
+        </is>
+      </c>
+      <c r="C24" s="10" t="inlineStr">
+        <is>
+          <t>Create comprehensive technical and user documentation</t>
+        </is>
+      </c>
+      <c r="D24" s="10" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E24" s="27" t="n">
+        <v>32</v>
+      </c>
+      <c r="F24" s="28">
+        <f>'Estimate Settings'!$C$26</f>
+        <v/>
+      </c>
+      <c r="G24" s="10">
+        <f>$E24*$F24</f>
+        <v/>
+      </c>
+      <c r="H24" s="29" t="n">
+        <v>110</v>
+      </c>
+      <c r="I24" s="10">
+        <f>TEXT($G24*$H24,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J24" s="10" t="inlineStr"/>
+      <c r="K24" s="10" t="inlineStr">
+        <is>
+          <t>Include runbooks troubleshooting guides and best practices</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="21" t="inlineStr">
+        <is>
+          <t>Closeout</t>
+        </is>
+      </c>
+      <c r="B25" s="21" t="inlineStr">
+        <is>
+          <t>Knowledge Transfer</t>
+        </is>
+      </c>
+      <c r="C25" s="21" t="inlineStr">
+        <is>
+          <t>Transfer solution ownership to operations and support teams</t>
+        </is>
+      </c>
+      <c r="D25" s="21" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E25" s="30" t="n">
+        <v>16</v>
+      </c>
+      <c r="F25" s="28">
+        <f>'Estimate Settings'!$C$27</f>
+        <v/>
+      </c>
+      <c r="G25" s="21">
+        <f>$E25*$F25</f>
+        <v/>
+      </c>
+      <c r="H25" s="31" t="n">
+        <v>140</v>
+      </c>
+      <c r="I25" s="21">
+        <f>TEXT($G25*$H25,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J25" s="21" t="inlineStr"/>
+      <c r="K25" s="21" t="inlineStr">
+        <is>
+          <t>Include operational procedures escalation and maintenance</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="10" t="inlineStr">
+        <is>
+          <t>Closeout</t>
+        </is>
+      </c>
+      <c r="B26" s="10" t="inlineStr">
+        <is>
+          <t>Performance Baseline</t>
+        </is>
+      </c>
+      <c r="C26" s="10" t="inlineStr">
+        <is>
+          <t>Establish performance metrics monitoring baselines and SLAs</t>
+        </is>
+      </c>
+      <c r="D26" s="10" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E26" s="27" t="n">
+        <v>8</v>
+      </c>
+      <c r="F26" s="28">
+        <f>'Estimate Settings'!$C$27</f>
+        <v/>
+      </c>
+      <c r="G26" s="10">
+        <f>$E26*$F26</f>
+        <v/>
+      </c>
+      <c r="H26" s="29" t="n">
+        <v>130</v>
+      </c>
+      <c r="I26" s="10">
+        <f>TEXT($G26*$H26,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J26" s="10" t="inlineStr"/>
+      <c r="K26" s="10" t="inlineStr">
+        <is>
+          <t>Include KPI definition monitoring setup and reporting</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="21" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="B27" s="21" t="inlineStr">
+        <is>
+          <t>Technical Leadership</t>
+        </is>
+      </c>
+      <c r="C27" s="21" t="inlineStr">
+        <is>
+          <t>Quarterback technical oversight and architecture review</t>
+        </is>
+      </c>
+      <c r="D27" s="21" t="inlineStr">
+        <is>
+          <t>EO Quarterback</t>
+        </is>
+      </c>
+      <c r="E27" s="30" t="n">
+        <v>40</v>
+      </c>
+      <c r="F27" s="28">
+        <f>'Estimate Settings'!$C$28</f>
+        <v/>
+      </c>
+      <c r="G27" s="21">
+        <f>$E27*$F27</f>
+        <v/>
+      </c>
+      <c r="H27" s="31" t="n">
+        <v>180</v>
+      </c>
+      <c r="I27" s="21">
+        <f>TEXT($G27*$H27,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J27" s="21" t="inlineStr"/>
+      <c r="K27" s="21" t="inlineStr">
+        <is>
+          <t>25% of engineering effort</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="10" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="B28" s="10" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="C28" s="10" t="inlineStr">
+        <is>
+          <t>Project coordination and management activities</t>
+        </is>
+      </c>
+      <c r="D28" s="10" t="inlineStr">
+        <is>
+          <t>EO Project Manager</t>
+        </is>
+      </c>
+      <c r="E28" s="27" t="n">
+        <v>40</v>
+      </c>
+      <c r="F28" s="28">
+        <f>'Estimate Settings'!$C$28</f>
+        <v/>
+      </c>
+      <c r="G28" s="10">
+        <f>$E28*$F28</f>
+        <v/>
+      </c>
+      <c r="H28" s="29" t="n">
+        <v>150</v>
+      </c>
+      <c r="I28" s="10">
+        <f>TEXT($G28*$H28,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J28" s="10" t="inlineStr"/>
+      <c r="K28" s="10" t="inlineStr">
+        <is>
+          <t>20% of engineering effort</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="28" t="inlineStr"/>
+      <c r="B29" s="28" t="inlineStr"/>
+      <c r="C29" s="28" t="inlineStr"/>
+      <c r="D29" s="28" t="inlineStr"/>
+      <c r="E29" s="32" t="inlineStr"/>
+      <c r="F29" s="16" t="inlineStr">
+        <is>
+          <t>TOTAL HOURS</t>
+        </is>
+      </c>
+      <c r="G29" s="16">
+        <f>SUM(G33:G59)</f>
+        <v/>
+      </c>
+      <c r="H29" s="16" t="inlineStr">
+        <is>
+          <t>TOTAL COST</t>
+        </is>
+      </c>
+      <c r="I29" s="16">
+        <f>TEXT(SUMPRODUCT(G33:G59,H33:H59),"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J29" s="28" t="inlineStr"/>
+      <c r="K29" s="16" t="inlineStr">
+        <is>
+          <t>Total project cost estimate</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/solutions/aws/cloud/onpremise-to-cloud-migration/presales/level-of-effort-estimate.xlsx
+++ b/solutions/aws/cloud/onpremise-to-cloud-migration/presales/level-of-effort-estimate.xlsx
@@ -718,7 +718,7 @@
       </c>
       <c r="C7" s="6" t="inlineStr">
         <is>
-          <t>November 16, 2025</t>
+          <t>November 18, 2025</t>
         </is>
       </c>
     </row>

--- a/solutions/aws/cloud/onpremise-to-cloud-migration/presales/level-of-effort-estimate.xlsx
+++ b/solutions/aws/cloud/onpremise-to-cloud-migration/presales/level-of-effort-estimate.xlsx
@@ -2,31 +2,34 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SCOPE ASSUMPTIONS" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ESTIMATE SETTINGS" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EFFORT ESTIMATE,,,,,,,,,," sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cover" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scope Assumptions" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Estimate Settings" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LOE" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Credits" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SCOPE ASSUMPTIONS'!$A$2:$H$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ESTIMATE SETTINGS'!$A$2:$E$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'EFFORT ESTIMATE,,,,,,,,,,'!$A$2:$K$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Scope Assumptions'!$A$2:$H$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Estimate Settings'!$A$2:$E$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'LOE'!$A$2:$K$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Credits'!$A$2:$C$5</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="$#,##0"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="$#,##0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="21">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -35,20 +38,127 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Segoe UI"/>
       <b val="1"/>
-      <color rgb="00FFFFFF"/>
-      <sz val="14"/>
+      <color rgb="FF5D6D7E"/>
+      <sz val="12"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color rgb="FF2C3E50"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Segoe UI"/>
+      <color rgb="FFCC0000"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF5D6D7E"/>
+      <sz val="11"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <b val="1"/>
-      <color rgb="00FFFFFF"/>
+      <color rgb="FFCC0000"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF5D6D7E"/>
+      <sz val="14"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF2C3E50"/>
+      <sz val="26"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="11"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF2C3E50"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFCC0000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FF2C3E50"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="00FF0000"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF2C3E50"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FF2C3E50"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FFCC0000"/>
+      <sz val="11"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="12">
     <fill>
       <patternFill/>
     </fill>
@@ -57,23 +167,125 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="001F4E78"/>
-        <bgColor rgb="001F4E78"/>
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FFCC0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="002F5496"/>
-        <bgColor rgb="002F5496"/>
+        <fgColor rgb="FF2C3E50"/>
+        <bgColor rgb="FF2C3E50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8FAFB"/>
+        <bgColor rgb="FFF8FAFB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F4F8"/>
+        <bgColor rgb="FFE8F4F8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD1ECF1"/>
+        <bgColor rgb="FFD1ECF1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F5E9"/>
+        <bgColor rgb="FFE8F5E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F4F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF2CC"/>
+        <bgColor rgb="00FFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBDC3C7"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFBDC3C7"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFBDC3C7"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF2C3E50"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDEE2E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDEE2E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDEE2E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDEE2E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFBDC3C7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -86,103 +298,235 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="11" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="11" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="11" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="11" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="5" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <colors/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1238250" cy="314325"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -474,6 +818,126 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <cols>
+    <col width="3" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="3" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" customHeight="1">
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1"/>
+    <row r="3" ht="40" customHeight="1">
+      <c r="B3" s="16" t="inlineStr">
+        <is>
+          <t>[DOCUMENT TITLE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1">
+      <c r="B4" s="15" t="inlineStr">
+        <is>
+          <t>Level of Effort</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AWS - Cloud - Onpremise To Cloud Migration</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Generated:</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>November 16, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Solution:</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>[Solution Name]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Customer:</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>[Customer Name]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1">
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Version:</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Status:</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="40" customHeight="1"/>
+    <row r="12" ht="30" customHeight="1">
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>eoframework.org</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -483,678 +947,677 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
     <col width="35" customWidth="1" min="2" max="2"/>
     <col width="30" customWidth="1" min="3" max="3"/>
     <col width="25" customWidth="1" min="4" max="4"/>
     <col width="25" customWidth="1" min="5" max="5"/>
     <col width="30" customWidth="1" min="6" max="6"/>
     <col width="40" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t># SCOPE ASSUMPTIONS - BASELINE (MULTIPLIER 1.0),,,,,,,,,,</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="30" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
+    <row r="1" ht="32" customHeight="1">
+      <c r="A1" s="35" t="inlineStr">
+        <is>
+          <t>SCOPE ASSUMPTIONS - BASELINE (MULTIPLIER 1.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="32" customHeight="1">
+      <c r="A2" s="36" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="36" t="inlineStr">
         <is>
           <t>Baseline Assumption</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="36" t="inlineStr">
         <is>
           <t>Current Scope</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="36" t="inlineStr">
         <is>
           <t>Small (1x)</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="36" t="inlineStr">
         <is>
           <t>Medium (2x)</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="36" t="inlineStr">
         <is>
           <t>Large (3x)</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" s="36" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="H2" s="36" t="inlineStr"/>
+    </row>
+    <row r="3" ht="26" customHeight="1">
+      <c r="A3" s="37" t="inlineStr">
         <is>
           <t>Solution Scope</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="38" t="inlineStr">
         <is>
           <t>Workloads to Migrate</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="39" t="inlineStr">
         <is>
           <t>5-10 VMs/applications</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="40" t="inlineStr">
         <is>
           <t>5-10 workloads</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="40" t="inlineStr">
         <is>
           <t>10-25 workloads</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="40" t="inlineStr">
         <is>
           <t>25+ workloads or complex apps</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="G3" s="40" t="inlineStr">
         <is>
           <t>Number of workloads being migrated</t>
         </is>
       </c>
-      <c r="H3" s="4" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="H3" s="40" t="inlineStr"/>
+    </row>
+    <row r="4" ht="26" customHeight="1">
+      <c r="A4" s="41" t="inlineStr">
         <is>
           <t>Solution Scope</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="42" t="inlineStr">
         <is>
           <t>Migration Strategy</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="39" t="inlineStr">
         <is>
           <t>Rehost (lift-and-shift)</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" s="43" t="inlineStr">
         <is>
           <t>Rehost simple</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="43" t="inlineStr">
         <is>
           <t>Replatform moderate</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="43" t="inlineStr">
         <is>
           <t>Refactor complex</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr">
+      <c r="G4" s="43" t="inlineStr">
         <is>
           <t>AWS 6R migration strategy</t>
         </is>
       </c>
-      <c r="H4" s="4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="H4" s="43" t="inlineStr"/>
+    </row>
+    <row r="5" ht="26" customHeight="1">
+      <c r="A5" s="37" t="inlineStr">
         <is>
           <t>Integration</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="38" t="inlineStr">
         <is>
           <t>Source Environment</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="39" t="inlineStr">
         <is>
           <t>VMware vSphere on-premises</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="40" t="inlineStr">
         <is>
           <t>Single hypervisor</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="40" t="inlineStr">
         <is>
           <t>Multiple hypervisors</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="40" t="inlineStr">
         <is>
           <t>Hybrid cloud + physical servers</t>
         </is>
       </c>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="G5" s="40" t="inlineStr">
         <is>
           <t>Current infrastructure platform</t>
         </is>
       </c>
-      <c r="H5" s="4" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="H5" s="40" t="inlineStr"/>
+    </row>
+    <row r="6" ht="26" customHeight="1">
+      <c r="A6" s="41" t="inlineStr">
         <is>
           <t>Integration</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="42" t="inlineStr">
         <is>
           <t>Hybrid Connectivity</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="39" t="inlineStr">
         <is>
           <t>AWS Direct Connect</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="43" t="inlineStr">
         <is>
           <t>VPN only</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="43" t="inlineStr">
         <is>
           <t>Direct Connect</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="43" t="inlineStr">
         <is>
           <t>Direct Connect + VPN redundancy</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G6" s="43" t="inlineStr">
         <is>
           <t>On-premises to AWS connectivity</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="H6" s="43" t="inlineStr"/>
+    </row>
+    <row r="7" ht="26" customHeight="1">
+      <c r="A7" s="37" t="inlineStr">
         <is>
           <t>User Base</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="38" t="inlineStr">
         <is>
           <t>Total Users</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="39" t="inlineStr">
         <is>
           <t>100 application users</t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="D7" s="40" t="inlineStr">
         <is>
           <t>50-100 users</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="40" t="inlineStr">
         <is>
           <t>100-500 users</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="40" t="inlineStr">
         <is>
           <t>500+ users</t>
         </is>
       </c>
-      <c r="G7" s="4" t="inlineStr">
+      <c r="G7" s="40" t="inlineStr">
         <is>
           <t>End users of migrated apps</t>
         </is>
       </c>
-      <c r="H7" s="4" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="H7" s="40" t="inlineStr"/>
+    </row>
+    <row r="8" ht="26" customHeight="1">
+      <c r="A8" s="41" t="inlineStr">
         <is>
           <t>User Base</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="42" t="inlineStr">
         <is>
           <t>User Roles</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="39" t="inlineStr">
         <is>
           <t>3 roles (admin operator user)</t>
         </is>
       </c>
-      <c r="D8" s="4" t="inlineStr">
+      <c r="D8" s="43" t="inlineStr">
         <is>
           <t>2-3 standard roles</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="43" t="inlineStr">
         <is>
           <t>4-6 roles</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="43" t="inlineStr">
         <is>
           <t>8+ roles with migration access</t>
         </is>
       </c>
-      <c r="G8" s="4" t="inlineStr">
+      <c r="G8" s="43" t="inlineStr">
         <is>
           <t>Roles for migration and operation</t>
         </is>
       </c>
-      <c r="H8" s="4" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="H8" s="43" t="inlineStr"/>
+    </row>
+    <row r="9" ht="26" customHeight="1">
+      <c r="A9" s="37" t="inlineStr">
         <is>
           <t>Data Volume</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="38" t="inlineStr">
         <is>
           <t>Total Data to Migrate</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="39" t="inlineStr">
         <is>
           <t>500 GB</t>
         </is>
       </c>
-      <c r="D9" s="4" t="inlineStr">
+      <c r="D9" s="40" t="inlineStr">
         <is>
           <t>100-500 GB</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="40" t="inlineStr">
         <is>
           <t>500 GB - 2 TB</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="40" t="inlineStr">
         <is>
           <t>2+ TB</t>
         </is>
       </c>
-      <c r="G9" s="4" t="inlineStr">
+      <c r="G9" s="40" t="inlineStr">
         <is>
           <t>Total data volume for migration</t>
         </is>
       </c>
-      <c r="H9" s="4" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="H9" s="40" t="inlineStr"/>
+    </row>
+    <row r="10" ht="26" customHeight="1">
+      <c r="A10" s="41" t="inlineStr">
         <is>
           <t>Data Volume</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="42" t="inlineStr">
         <is>
           <t>Database Migration</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="39" t="inlineStr">
         <is>
           <t>2 databases (MySQL PostgreSQL)</t>
         </is>
       </c>
-      <c r="D10" s="4" t="inlineStr">
+      <c r="D10" s="43" t="inlineStr">
         <is>
           <t>1-2 databases</t>
         </is>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="43" t="inlineStr">
         <is>
           <t>3-5 databases</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="43" t="inlineStr">
         <is>
           <t>6+ databases or complex schemas</t>
         </is>
       </c>
-      <c r="G10" s="4" t="inlineStr">
+      <c r="G10" s="43" t="inlineStr">
         <is>
           <t>Database migration scope</t>
         </is>
       </c>
-      <c r="H10" s="4" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="H10" s="43" t="inlineStr"/>
+    </row>
+    <row r="11" ht="26" customHeight="1">
+      <c r="A11" s="37" t="inlineStr">
         <is>
           <t>Technical Environment</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="38" t="inlineStr">
         <is>
           <t>Target AWS Region</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="39" t="inlineStr">
         <is>
           <t>us-east-1</t>
         </is>
       </c>
-      <c r="D11" s="4" t="inlineStr">
+      <c r="D11" s="40" t="inlineStr">
         <is>
           <t>Single region</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="40" t="inlineStr">
         <is>
           <t>Multi-AZ deployment</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="40" t="inlineStr">
         <is>
           <t>Multi-region deployment</t>
         </is>
       </c>
-      <c r="G11" s="4" t="inlineStr">
+      <c r="G11" s="40" t="inlineStr">
         <is>
           <t>AWS target deployment region</t>
         </is>
       </c>
-      <c r="H11" s="4" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="H11" s="40" t="inlineStr"/>
+    </row>
+    <row r="12" ht="26" customHeight="1">
+      <c r="A12" s="41" t="inlineStr">
         <is>
           <t>Technical Environment</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="42" t="inlineStr">
         <is>
           <t>Availability Requirements</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="39" t="inlineStr">
         <is>
           <t>Standard (99.5%)</t>
         </is>
       </c>
-      <c r="D12" s="4" t="inlineStr">
+      <c r="D12" s="43" t="inlineStr">
         <is>
           <t>Standard (99.5%)</t>
         </is>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E12" s="43" t="inlineStr">
         <is>
           <t>High availability (99.9%)</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" s="43" t="inlineStr">
         <is>
           <t>Mission critical (99.95%+)</t>
         </is>
       </c>
-      <c r="G12" s="4" t="inlineStr">
+      <c r="G12" s="43" t="inlineStr">
         <is>
           <t>Post-migration availability SLA</t>
         </is>
       </c>
-      <c r="H12" s="4" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="H12" s="43" t="inlineStr"/>
+    </row>
+    <row r="13" ht="26" customHeight="1">
+      <c r="A13" s="37" t="inlineStr">
         <is>
           <t>Technical Environment</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="38" t="inlineStr">
         <is>
           <t>Infrastructure Complexity</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="39" t="inlineStr">
         <is>
           <t>EC2 RDS S3 standard</t>
         </is>
       </c>
-      <c r="D13" s="4" t="inlineStr">
+      <c r="D13" s="40" t="inlineStr">
         <is>
           <t>Basic IaaS</t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E13" s="40" t="inlineStr">
         <is>
           <t>Standard AWS services</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="40" t="inlineStr">
         <is>
           <t>Advanced AWS native services</t>
         </is>
       </c>
-      <c r="G13" s="4" t="inlineStr">
+      <c r="G13" s="40" t="inlineStr">
         <is>
           <t>Target AWS architecture complexity</t>
         </is>
       </c>
-      <c r="H13" s="4" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="H13" s="40" t="inlineStr"/>
+    </row>
+    <row r="14" ht="26" customHeight="1">
+      <c r="A14" s="41" t="inlineStr">
         <is>
           <t>Security &amp; Compliance</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="42" t="inlineStr">
         <is>
           <t>Security Requirements</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="39" t="inlineStr">
         <is>
           <t>VPC Security Groups IAM</t>
         </is>
       </c>
-      <c r="D14" s="4" t="inlineStr">
+      <c r="D14" s="43" t="inlineStr">
         <is>
           <t>Basic cloud security</t>
         </is>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E14" s="43" t="inlineStr">
         <is>
           <t>Industry standard (SOC2)</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F14" s="43" t="inlineStr">
         <is>
           <t>Advanced (compliance frameworks)</t>
         </is>
       </c>
-      <c r="G14" s="4" t="inlineStr">
+      <c r="G14" s="43" t="inlineStr">
         <is>
           <t>Cloud security controls</t>
         </is>
       </c>
-      <c r="H14" s="4" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="H14" s="43" t="inlineStr"/>
+    </row>
+    <row r="15" ht="26" customHeight="1">
+      <c r="A15" s="37" t="inlineStr">
         <is>
           <t>Security &amp; Compliance</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="38" t="inlineStr">
         <is>
           <t>Compliance Frameworks</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="39" t="inlineStr">
         <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="D15" s="4" t="inlineStr">
+      <c r="D15" s="40" t="inlineStr">
         <is>
           <t>1-2 basic standards</t>
         </is>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E15" s="40" t="inlineStr">
         <is>
           <t>2-3 industry standards</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="F15" s="40" t="inlineStr">
         <is>
           <t>Multiple complex frameworks</t>
         </is>
       </c>
-      <c r="G15" s="4" t="inlineStr">
+      <c r="G15" s="40" t="inlineStr">
         <is>
           <t>Post-migration compliance</t>
         </is>
       </c>
-      <c r="H15" s="4" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="H15" s="40" t="inlineStr"/>
+    </row>
+    <row r="16" ht="26" customHeight="1">
+      <c r="A16" s="41" t="inlineStr">
         <is>
           <t>Performance</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" s="42" t="inlineStr">
         <is>
           <t>Migration Window</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C16" s="39" t="inlineStr">
         <is>
           <t>Weekend maintenance windows</t>
         </is>
       </c>
-      <c r="D16" s="4" t="inlineStr">
+      <c r="D16" s="43" t="inlineStr">
         <is>
           <t>Single cutover</t>
         </is>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="E16" s="43" t="inlineStr">
         <is>
           <t>Phased migration</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
+      <c r="F16" s="43" t="inlineStr">
         <is>
           <t>Zero-downtime migration</t>
         </is>
       </c>
-      <c r="G16" s="4" t="inlineStr">
+      <c r="G16" s="43" t="inlineStr">
         <is>
           <t>Migration execution strategy</t>
         </is>
       </c>
-      <c r="H16" s="4" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="H16" s="43" t="inlineStr"/>
+    </row>
+    <row r="17" ht="26" customHeight="1">
+      <c r="A17" s="37" t="inlineStr">
         <is>
           <t>Performance</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="38" t="inlineStr">
         <is>
           <t>Performance Requirements</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C17" s="39" t="inlineStr">
         <is>
           <t>Match on-premises baseline</t>
         </is>
       </c>
-      <c r="D17" s="4" t="inlineStr">
+      <c r="D17" s="40" t="inlineStr">
         <is>
           <t>Standard performance</t>
         </is>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="E17" s="40" t="inlineStr">
         <is>
           <t>Enhanced cloud performance</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="F17" s="40" t="inlineStr">
         <is>
           <t>Optimized cloud-native</t>
         </is>
       </c>
-      <c r="G17" s="4" t="inlineStr">
+      <c r="G17" s="40" t="inlineStr">
         <is>
           <t>Post-migration performance targets</t>
         </is>
       </c>
-      <c r="H17" s="4" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="H17" s="40" t="inlineStr"/>
+    </row>
+    <row r="18" ht="26" customHeight="1">
+      <c r="A18" s="41" t="inlineStr">
         <is>
           <t>Environment</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="42" t="inlineStr">
         <is>
           <t>Deployment Environments</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="39" t="inlineStr">
         <is>
           <t>2 environments (dev prod)</t>
         </is>
       </c>
-      <c r="D18" s="4" t="inlineStr">
+      <c r="D18" s="43" t="inlineStr">
         <is>
           <t>2 environments</t>
         </is>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="E18" s="43" t="inlineStr">
         <is>
           <t>3 environments</t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
+      <c r="F18" s="43" t="inlineStr">
         <is>
           <t>4+ environments with automation</t>
         </is>
       </c>
-      <c r="G18" s="4" t="inlineStr">
+      <c r="G18" s="43" t="inlineStr">
         <is>
           <t>Target cloud environments</t>
         </is>
       </c>
-      <c r="H18" s="4" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr"/>
-      <c r="B19" s="4" t="inlineStr"/>
-      <c r="C19" s="4" t="inlineStr"/>
-      <c r="D19" s="4" t="inlineStr"/>
-      <c r="E19" s="4" t="inlineStr"/>
-      <c r="F19" s="4" t="inlineStr"/>
-      <c r="G19" s="4" t="inlineStr"/>
-      <c r="H19" s="4" t="inlineStr"/>
+      <c r="H18" s="43" t="inlineStr"/>
+    </row>
+    <row r="19" ht="26" customHeight="1">
+      <c r="A19" s="37" t="inlineStr"/>
+      <c r="B19" s="38" t="inlineStr"/>
+      <c r="C19" s="39" t="inlineStr"/>
+      <c r="D19" s="40" t="inlineStr"/>
+      <c r="E19" s="40" t="inlineStr"/>
+      <c r="F19" s="40" t="inlineStr"/>
+      <c r="G19" s="40" t="inlineStr"/>
+      <c r="H19" s="40" t="inlineStr"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H19"/>
@@ -1165,13 +1628,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1183,246 +1646,253 @@
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="60" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="150" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t># ESTIMATE SETTINGS - EO Sales Engineer Updates Multipliers Based on Customer Scope,,,,,,,,,,</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="30" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
+    <row r="1" ht="32" customHeight="1">
+      <c r="A1" s="35" t="inlineStr">
+        <is>
+          <t>ESTIMATE SETTINGS - EO Sales Engineer Updates Multipliers Based on Customer Scope</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="32" customHeight="1">
+      <c r="A2" s="36" t="inlineStr">
         <is>
           <t>Phase</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="36" t="inlineStr">
         <is>
           <t>Variable Name</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="36" t="inlineStr">
         <is>
           <t>Multiplier</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="36" t="inlineStr">
         <is>
           <t>Description / Applies To Tasks</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="E2" s="36" t="inlineStr"/>
+    </row>
+    <row r="3" ht="26" customHeight="1">
+      <c r="A3" s="37" t="inlineStr">
         <is>
           <t>Discovery</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="40" t="inlineStr">
         <is>
           <t>DISCOVERY_MX</t>
         </is>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="40" t="inlineStr">
         <is>
           <t>All Discovery phase tasks</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="E3" s="40" t="inlineStr"/>
+    </row>
+    <row r="4" ht="26" customHeight="1">
+      <c r="A4" s="41" t="inlineStr">
         <is>
           <t>Planning</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="43" t="inlineStr">
         <is>
           <t>PLANNING_MX</t>
         </is>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" s="43" t="inlineStr">
         <is>
           <t>All Planning phase tasks</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="E4" s="43" t="inlineStr"/>
+    </row>
+    <row r="5" ht="26" customHeight="1">
+      <c r="A5" s="37" t="inlineStr">
         <is>
           <t>Development</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="40" t="inlineStr">
         <is>
           <t>DEVELOPMENT_MX</t>
         </is>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="40" t="inlineStr">
         <is>
           <t>All Development phase tasks</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="E5" s="40" t="inlineStr"/>
+    </row>
+    <row r="6" ht="26" customHeight="1">
+      <c r="A6" s="41" t="inlineStr">
         <is>
           <t>Testing</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="43" t="inlineStr">
         <is>
           <t>TESTING_MX</t>
         </is>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="43" t="inlineStr">
         <is>
           <t>All Testing phase tasks</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="E6" s="43" t="inlineStr"/>
+    </row>
+    <row r="7" ht="26" customHeight="1">
+      <c r="A7" s="37" t="inlineStr">
         <is>
           <t>Deployment</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="40" t="inlineStr">
         <is>
           <t>DEPLOYMENT_MX</t>
         </is>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="D7" s="40" t="inlineStr">
         <is>
           <t>All Deployment phase tasks</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="E7" s="40" t="inlineStr"/>
+    </row>
+    <row r="8" ht="26" customHeight="1">
+      <c r="A8" s="41" t="inlineStr">
         <is>
           <t>Training</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="43" t="inlineStr">
         <is>
           <t>TRAINING_MX</t>
         </is>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="4" t="inlineStr">
+      <c r="D8" s="43" t="inlineStr">
         <is>
           <t>All Training phase tasks</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="E8" s="43" t="inlineStr"/>
+    </row>
+    <row r="9" ht="26" customHeight="1">
+      <c r="A9" s="37" t="inlineStr">
         <is>
           <t>Closeout</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="40" t="inlineStr">
         <is>
           <t>CLOSEOUT_MX</t>
         </is>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="4" t="inlineStr">
+      <c r="D9" s="40" t="inlineStr">
         <is>
           <t>All Closeout phase tasks</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="E9" s="40" t="inlineStr"/>
+    </row>
+    <row r="10" ht="26" customHeight="1">
+      <c r="A10" s="41" t="inlineStr">
         <is>
           <t>Management</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="43" t="inlineStr">
         <is>
           <t>MANAGEMENT_MX</t>
         </is>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="45" t="n">
         <v>1.5</v>
       </c>
-      <c r="D10" s="4" t="inlineStr">
+      <c r="D10" s="43" t="inlineStr">
         <is>
           <t>Project Management overhead</t>
         </is>
       </c>
-      <c r="E10" s="4" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="E10" s="43" t="inlineStr"/>
+    </row>
+    <row r="11" ht="26" customHeight="1">
+      <c r="A11" s="37" t="inlineStr">
         <is>
           <t>Leadership</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="40" t="inlineStr">
         <is>
           <t>LEADERSHIP_MX</t>
         </is>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="44" t="n">
         <v>1.5</v>
       </c>
-      <c r="D11" s="4" t="inlineStr">
+      <c r="D11" s="40" t="inlineStr">
         <is>
           <t>Quarterback/Technical Leadership overhead</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr"/>
-      <c r="B12" s="4" t="inlineStr"/>
-      <c r="C12" s="4" t="inlineStr"/>
-      <c r="D12" s="4" t="inlineStr"/>
-      <c r="E12" s="4" t="inlineStr"/>
+      <c r="E11" s="40" t="inlineStr"/>
+    </row>
+    <row r="12" ht="26" customHeight="1">
+      <c r="A12" s="41" t="inlineStr"/>
+      <c r="B12" s="43" t="inlineStr"/>
+      <c r="C12" s="46" t="inlineStr"/>
+      <c r="D12" s="43" t="inlineStr"/>
+      <c r="E12" s="43" t="inlineStr"/>
+    </row>
+    <row r="14" ht="20" customHeight="1">
+      <c r="A14" s="47" t="inlineStr">
+        <is>
+          <t>EO Sales Engineer Updates Multipliers Based on Customer Scope</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:E12"/>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A14:E14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1450,1452 +1920,1340 @@
     <col width="40" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t># EFFORT ESTIMATE,,,,,,,,,,</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="30" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
+    <row r="1" ht="32" customHeight="1">
+      <c r="A1" s="35" t="inlineStr">
+        <is>
+          <t>Level of Effort</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="32" customHeight="1">
+      <c r="A2" s="36" t="inlineStr">
         <is>
           <t>Phase</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="36" t="inlineStr">
         <is>
           <t>Work Package</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="36" t="inlineStr">
         <is>
           <t>Task Description</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="36" t="inlineStr">
         <is>
           <t>Resource Type</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="36" t="inlineStr">
         <is>
           <t>Base Hours</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="36" t="inlineStr">
         <is>
           <t>Effort Multiplier</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" s="36" t="inlineStr">
         <is>
           <t>Actual Hours</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H2" s="36" t="inlineStr">
         <is>
           <t>Rate</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="I2" s="36" t="inlineStr">
         <is>
           <t>Cost Estimate</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="J2" s="36" t="inlineStr">
         <is>
           <t>Dependencies</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
+      <c r="K2" s="36" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+    <row r="3" ht="26" customHeight="1">
+      <c r="A3" s="48" t="inlineStr">
         <is>
           <t>Discovery</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="49" t="inlineStr">
         <is>
           <t>Cloud Requirements Gathering</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="49" t="inlineStr">
         <is>
           <t>Conduct stakeholder interviews for cloud migration/infrastructure</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="49" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="50" t="n">
         <v>40</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="51">
         <f>'Estimate Settings'!$C$21</f>
         <v/>
       </c>
-      <c r="G3" s="4">
-        <f>$E33*$F33</f>
-        <v/>
-      </c>
-      <c r="H3" s="7" t="n">
+      <c r="G3" s="51">
+        <f>$E3*$F3</f>
+        <v/>
+      </c>
+      <c r="H3" s="52" t="n">
         <v>150</v>
       </c>
-      <c r="I3" s="4">
-        <f>TEXT($G33*$H33</f>
-        <v/>
-      </c>
-      <c r="J3" s="4" t="inlineStr">
-        <is>
-          <t>$#</t>
-        </is>
-      </c>
-      <c r="K3" s="4" t="inlineStr">
-        <is>
-          <t>##0"")</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="I3" s="51">
+        <f>TEXT($G3*$H3,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J3" s="49" t="inlineStr"/>
+      <c r="K3" s="49" t="inlineStr">
+        <is>
+          <t>Focus on scalability performance and business objectives</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="26" customHeight="1">
+      <c r="A4" s="53" t="inlineStr">
         <is>
           <t>Discovery</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="54" t="inlineStr">
         <is>
           <t>Infrastructure Assessment</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="54" t="inlineStr">
         <is>
           <t>Analyze current infrastructure workloads and dependencies</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" s="54" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="55" t="n">
         <v>32</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="56">
         <f>'Estimate Settings'!$C$21</f>
         <v/>
       </c>
-      <c r="G4" s="4">
-        <f>$E34*$F34</f>
-        <v/>
-      </c>
-      <c r="H4" s="7" t="n">
+      <c r="G4" s="56">
+        <f>$E4*$F4</f>
+        <v/>
+      </c>
+      <c r="H4" s="57" t="n">
         <v>200</v>
       </c>
-      <c r="I4" s="4">
-        <f>TEXT($G34*$H34</f>
-        <v/>
-      </c>
-      <c r="J4" s="4" t="inlineStr">
-        <is>
-          <t>$#</t>
-        </is>
-      </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>##0"")</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="I4" s="56">
+        <f>TEXT($G4*$H4,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J4" s="54" t="inlineStr"/>
+      <c r="K4" s="54" t="inlineStr">
+        <is>
+          <t>Include application dependencies and performance baselines</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="26" customHeight="1">
+      <c r="A5" s="48" t="inlineStr">
         <is>
           <t>Discovery</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="49" t="inlineStr">
         <is>
           <t>AWS Services Assessment</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="49" t="inlineStr">
         <is>
           <t>Evaluate target AWS services and architecture patterns</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="49" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="50" t="n">
         <v>24</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="51">
         <f>'Estimate Settings'!$C$21</f>
         <v/>
       </c>
-      <c r="G5" s="4">
-        <f>$E35*$F35</f>
-        <v/>
-      </c>
-      <c r="H5" s="7" t="n">
+      <c r="G5" s="51">
+        <f>$E5*$F5</f>
+        <v/>
+      </c>
+      <c r="H5" s="52" t="n">
         <v>200</v>
       </c>
-      <c r="I5" s="4">
-        <f>TEXT($G35*$H35</f>
-        <v/>
-      </c>
-      <c r="J5" s="4" t="inlineStr">
-        <is>
-          <t>$#</t>
-        </is>
-      </c>
-      <c r="K5" s="4" t="inlineStr">
-        <is>
-          <t>##0"")</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="I5" s="51">
+        <f>TEXT($G5*$H5,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J5" s="49" t="inlineStr"/>
+      <c r="K5" s="49" t="inlineStr">
+        <is>
+          <t>Focus on cost optimization and best practices</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="26" customHeight="1">
+      <c r="A6" s="53" t="inlineStr">
         <is>
           <t>Discovery</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="54" t="inlineStr">
         <is>
           <t>Compliance Review</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="54" t="inlineStr">
         <is>
           <t>Assess security governance and compliance requirements</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="54" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="55" t="n">
         <v>16</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="56">
         <f>'Estimate Settings'!$C$21</f>
         <v/>
       </c>
-      <c r="G6" s="4">
-        <f>$E36*$F36</f>
-        <v/>
-      </c>
-      <c r="H6" s="7" t="n">
+      <c r="G6" s="56">
+        <f>$E6*$F6</f>
+        <v/>
+      </c>
+      <c r="H6" s="57" t="n">
         <v>175</v>
       </c>
-      <c r="I6" s="4">
-        <f>TEXT($G36*$H36</f>
-        <v/>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>$#</t>
-        </is>
-      </c>
-      <c r="K6" s="4" t="inlineStr">
-        <is>
-          <t>##0"")</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="I6" s="56">
+        <f>TEXT($G6*$H6,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J6" s="54" t="inlineStr"/>
+      <c r="K6" s="54" t="inlineStr">
+        <is>
+          <t>Include industry regulations and data residency</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="26" customHeight="1">
+      <c r="A7" s="48" t="inlineStr">
         <is>
           <t>Planning</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="49" t="inlineStr">
         <is>
           <t>AWS Architecture Design</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="49" t="inlineStr">
         <is>
           <t>Design AWS cloud architecture and migration strategy</t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="D7" s="49" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="50" t="n">
         <v>48</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="51">
         <f>'Estimate Settings'!$C$22</f>
         <v/>
       </c>
-      <c r="G7" s="4">
-        <f>$E37*$F37</f>
-        <v/>
-      </c>
-      <c r="H7" s="7" t="n">
+      <c r="G7" s="51">
+        <f>$E7*$F7</f>
+        <v/>
+      </c>
+      <c r="H7" s="52" t="n">
         <v>200</v>
       </c>
-      <c r="I7" s="4">
-        <f>TEXT($G37*$H37</f>
-        <v/>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>$#</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>##0"")</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="I7" s="51">
+        <f>TEXT($G7*$H7,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J7" s="49" t="inlineStr"/>
+      <c r="K7" s="49" t="inlineStr">
+        <is>
+          <t>Include multi-AZ design and disaster recovery</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="26" customHeight="1">
+      <c r="A8" s="53" t="inlineStr">
         <is>
           <t>Planning</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="54" t="inlineStr">
         <is>
           <t>Migration Strategy</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="54" t="inlineStr">
         <is>
           <t>Develop detailed migration approach and timeline</t>
         </is>
       </c>
-      <c r="D8" s="4" t="inlineStr">
+      <c r="D8" s="54" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="55" t="n">
         <v>32</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="56">
         <f>'Estimate Settings'!$C$22</f>
         <v/>
       </c>
-      <c r="G8" s="4">
-        <f>$E38*$F38</f>
-        <v/>
-      </c>
-      <c r="H8" s="7" t="n">
+      <c r="G8" s="56">
+        <f>$E8*$F8</f>
+        <v/>
+      </c>
+      <c r="H8" s="57" t="n">
         <v>180</v>
       </c>
-      <c r="I8" s="4">
-        <f>TEXT($G38*$H38</f>
-        <v/>
-      </c>
-      <c r="J8" s="4" t="inlineStr">
-        <is>
-          <t>$#</t>
-        </is>
-      </c>
-      <c r="K8" s="4" t="inlineStr">
-        <is>
-          <t>##0"")</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="I8" s="56">
+        <f>TEXT($G8*$H8,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J8" s="54" t="inlineStr"/>
+      <c r="K8" s="54" t="inlineStr">
+        <is>
+          <t>Include risk assessment and rollback procedures</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="26" customHeight="1">
+      <c r="A9" s="48" t="inlineStr">
         <is>
           <t>Planning</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="49" t="inlineStr">
         <is>
           <t>Security Architecture</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="49" t="inlineStr">
         <is>
           <t>Design AWS security controls and governance framework</t>
         </is>
       </c>
-      <c r="D9" s="4" t="inlineStr">
+      <c r="D9" s="49" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="50" t="n">
         <v>24</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="51">
         <f>'Estimate Settings'!$C$22</f>
         <v/>
       </c>
-      <c r="G9" s="4">
-        <f>$E39*$F39</f>
-        <v/>
-      </c>
-      <c r="H9" s="7" t="n">
+      <c r="G9" s="51">
+        <f>$E9*$F9</f>
+        <v/>
+      </c>
+      <c r="H9" s="52" t="n">
         <v>175</v>
       </c>
-      <c r="I9" s="4">
-        <f>TEXT($G39*$H39</f>
-        <v/>
-      </c>
-      <c r="J9" s="4" t="inlineStr">
-        <is>
-          <t>$#</t>
-        </is>
-      </c>
-      <c r="K9" s="4" t="inlineStr">
-        <is>
-          <t>##0"")</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="I9" s="51">
+        <f>TEXT($G9*$H9,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J9" s="49" t="inlineStr"/>
+      <c r="K9" s="49" t="inlineStr">
+        <is>
+          <t>Include IAM networking and data protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="26" customHeight="1">
+      <c r="A10" s="53" t="inlineStr">
         <is>
           <t>Planning</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="54" t="inlineStr">
         <is>
           <t>Project Planning</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="54" t="inlineStr">
         <is>
           <t>Develop cloud implementation timeline and resource allocation</t>
         </is>
       </c>
-      <c r="D10" s="4" t="inlineStr">
+      <c r="D10" s="54" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="E10" s="55" t="n">
         <v>24</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="56">
         <f>'Estimate Settings'!$C$22</f>
         <v/>
       </c>
-      <c r="G10" s="4">
-        <f>$E40*$F40</f>
-        <v/>
-      </c>
-      <c r="H10" s="7" t="n">
+      <c r="G10" s="56">
+        <f>$E10*$F10</f>
+        <v/>
+      </c>
+      <c r="H10" s="57" t="n">
         <v>140</v>
       </c>
-      <c r="I10" s="4">
-        <f>TEXT($G40*$H40</f>
-        <v/>
-      </c>
-      <c r="J10" s="4" t="inlineStr">
-        <is>
-          <t>$#</t>
-        </is>
-      </c>
-      <c r="K10" s="4" t="inlineStr">
-        <is>
-          <t>##0"")</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="I10" s="56">
+        <f>TEXT($G10*$H10,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J10" s="54" t="inlineStr"/>
+      <c r="K10" s="54" t="inlineStr">
+        <is>
+          <t>Coordinate with infrastructure and security teams</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="26" customHeight="1">
+      <c r="A11" s="48" t="inlineStr">
         <is>
           <t>Development</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="49" t="inlineStr">
         <is>
           <t>AWS Infrastructure Provisioning</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="49" t="inlineStr">
         <is>
           <t>Provision AWS services networking and foundational infrastructure</t>
         </is>
       </c>
-      <c r="D11" s="4" t="inlineStr">
+      <c r="D11" s="49" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E11" s="6" t="n">
+      <c r="E11" s="50" t="n">
         <v>60</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="51">
         <f>'Estimate Settings'!$C$23</f>
         <v/>
       </c>
-      <c r="G11" s="4">
-        <f>$E41*$F41</f>
-        <v/>
-      </c>
-      <c r="H11" s="7" t="n">
+      <c r="G11" s="51">
+        <f>$E11*$F11</f>
+        <v/>
+      </c>
+      <c r="H11" s="52" t="n">
         <v>160</v>
       </c>
-      <c r="I11" s="4">
-        <f>TEXT($G41*$H41</f>
-        <v/>
-      </c>
-      <c r="J11" s="4" t="inlineStr">
-        <is>
-          <t>$#</t>
-        </is>
-      </c>
-      <c r="K11" s="4" t="inlineStr">
-        <is>
-          <t>##0"")</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="I11" s="51">
+        <f>TEXT($G11*$H11,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J11" s="49" t="inlineStr"/>
+      <c r="K11" s="49" t="inlineStr">
+        <is>
+          <t>Include VPC subnets security groups and routing</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="26" customHeight="1">
+      <c r="A12" s="53" t="inlineStr">
         <is>
           <t>Development</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="54" t="inlineStr">
         <is>
           <t>Application Migration</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="54" t="inlineStr">
         <is>
           <t>Migrate applications and workloads to AWS</t>
         </is>
       </c>
-      <c r="D12" s="4" t="inlineStr">
+      <c r="D12" s="54" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E12" s="6" t="n">
+      <c r="E12" s="55" t="n">
         <v>80</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="56">
         <f>'Estimate Settings'!$C$23</f>
         <v/>
       </c>
-      <c r="G12" s="4">
-        <f>$E42*$F42</f>
-        <v/>
-      </c>
-      <c r="H12" s="7" t="n">
+      <c r="G12" s="56">
+        <f>$E12*$F12</f>
+        <v/>
+      </c>
+      <c r="H12" s="57" t="n">
         <v>130</v>
       </c>
-      <c r="I12" s="4">
-        <f>TEXT($G42*$H42</f>
-        <v/>
-      </c>
-      <c r="J12" s="4" t="inlineStr">
-        <is>
-          <t>$#</t>
-        </is>
-      </c>
-      <c r="K12" s="4" t="inlineStr">
-        <is>
-          <t>##0"")</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="I12" s="56">
+        <f>TEXT($G12*$H12,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J12" s="54" t="inlineStr"/>
+      <c r="K12" s="54" t="inlineStr">
+        <is>
+          <t>Include application optimization and testing</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="26" customHeight="1">
+      <c r="A13" s="48" t="inlineStr">
         <is>
           <t>Development</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="49" t="inlineStr">
         <is>
           <t>Data Migration</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="49" t="inlineStr">
         <is>
           <t>Migrate databases and data stores to AWS</t>
         </is>
       </c>
-      <c r="D13" s="4" t="inlineStr">
+      <c r="D13" s="49" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="E13" s="50" t="n">
         <v>48</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="51">
         <f>'Estimate Settings'!$C$23</f>
         <v/>
       </c>
-      <c r="G13" s="4">
-        <f>$E43*$F43</f>
-        <v/>
-      </c>
-      <c r="H13" s="7" t="n">
+      <c r="G13" s="51">
+        <f>$E13*$F13</f>
+        <v/>
+      </c>
+      <c r="H13" s="52" t="n">
         <v>145</v>
       </c>
-      <c r="I13" s="4">
-        <f>TEXT($G43*$H43</f>
-        <v/>
-      </c>
-      <c r="J13" s="4" t="inlineStr">
-        <is>
-          <t>$#</t>
-        </is>
-      </c>
-      <c r="K13" s="4" t="inlineStr">
-        <is>
-          <t>##0"")</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="I13" s="51">
+        <f>TEXT($G13*$H13,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J13" s="49" t="inlineStr"/>
+      <c r="K13" s="49" t="inlineStr">
+        <is>
+          <t>Include data validation backup and recovery testing</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="26" customHeight="1">
+      <c r="A14" s="53" t="inlineStr">
         <is>
           <t>Development</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="54" t="inlineStr">
         <is>
           <t>Monitoring and Operations</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="54" t="inlineStr">
         <is>
           <t>Implement AWS monitoring logging and operational tools</t>
         </is>
       </c>
-      <c r="D14" s="4" t="inlineStr">
+      <c r="D14" s="54" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E14" s="6" t="n">
+      <c r="E14" s="55" t="n">
         <v>40</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="56">
         <f>'Estimate Settings'!$C$23</f>
         <v/>
       </c>
-      <c r="G14" s="4">
-        <f>$E44*$F44</f>
-        <v/>
-      </c>
-      <c r="H14" s="7" t="n">
+      <c r="G14" s="56">
+        <f>$E14*$F14</f>
+        <v/>
+      </c>
+      <c r="H14" s="57" t="n">
         <v>140</v>
       </c>
-      <c r="I14" s="4">
-        <f>TEXT($G44*$H44</f>
-        <v/>
-      </c>
-      <c r="J14" s="4" t="inlineStr">
-        <is>
-          <t>$#</t>
-        </is>
-      </c>
-      <c r="K14" s="4" t="inlineStr">
-        <is>
-          <t>##0"")</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="I14" s="56">
+        <f>TEXT($G14*$H14,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J14" s="54" t="inlineStr"/>
+      <c r="K14" s="54" t="inlineStr">
+        <is>
+          <t>Include CloudWatch X-Ray and operational dashboards</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="26" customHeight="1">
+      <c r="A15" s="48" t="inlineStr">
         <is>
           <t>Development</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="49" t="inlineStr">
         <is>
           <t>Automation and IaC</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="49" t="inlineStr">
         <is>
           <t>Develop infrastructure automation using CloudFormation/CDK</t>
         </is>
       </c>
-      <c r="D15" s="4" t="inlineStr">
+      <c r="D15" s="49" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E15" s="6" t="n">
+      <c r="E15" s="50" t="n">
         <v>32</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="51">
         <f>'Estimate Settings'!$C$23</f>
         <v/>
       </c>
-      <c r="G15" s="4">
-        <f>$E45*$F45</f>
-        <v/>
-      </c>
-      <c r="H15" s="7" t="n">
+      <c r="G15" s="51">
+        <f>$E15*$F15</f>
+        <v/>
+      </c>
+      <c r="H15" s="52" t="n">
         <v>125</v>
       </c>
-      <c r="I15" s="4">
-        <f>TEXT($G45*$H45</f>
-        <v/>
-      </c>
-      <c r="J15" s="4" t="inlineStr">
-        <is>
-          <t>$#</t>
-        </is>
-      </c>
-      <c r="K15" s="4" t="inlineStr">
-        <is>
-          <t>##0"")</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="I15" s="51">
+        <f>TEXT($G15*$H15,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J15" s="49" t="inlineStr"/>
+      <c r="K15" s="49" t="inlineStr">
+        <is>
+          <t>Include CI/CD pipeline integration</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="26" customHeight="1">
+      <c r="A16" s="53" t="inlineStr">
         <is>
           <t>Testing</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" s="54" t="inlineStr">
         <is>
           <t>Unit Testing</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C16" s="54" t="inlineStr">
         <is>
           <t>Develop automated tests for all solution components</t>
         </is>
       </c>
-      <c r="D16" s="4" t="inlineStr">
+      <c r="D16" s="54" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E16" s="6" t="n">
+      <c r="E16" s="55" t="n">
         <v>32</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="56">
         <f>'Estimate Settings'!$C$24</f>
         <v/>
       </c>
-      <c r="G16" s="4">
-        <f>$E46*$F46</f>
-        <v/>
-      </c>
-      <c r="H16" s="7" t="n">
+      <c r="G16" s="56">
+        <f>$E16*$F16</f>
+        <v/>
+      </c>
+      <c r="H16" s="57" t="n">
         <v>120</v>
       </c>
-      <c r="I16" s="4">
-        <f>TEXT($G46*$H46</f>
-        <v/>
-      </c>
-      <c r="J16" s="4" t="inlineStr">
-        <is>
-          <t>$#</t>
-        </is>
-      </c>
-      <c r="K16" s="4" t="inlineStr">
-        <is>
-          <t>##0"")</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="I16" s="56">
+        <f>TEXT($G16*$H16,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J16" s="54" t="inlineStr"/>
+      <c r="K16" s="54" t="inlineStr">
+        <is>
+          <t>Include technology-specific testing frameworks</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="26" customHeight="1">
+      <c r="A17" s="48" t="inlineStr">
         <is>
           <t>Testing</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="49" t="inlineStr">
         <is>
           <t>Integration Testing</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C17" s="49" t="inlineStr">
         <is>
           <t>Test system integrations data flows and external dependencies</t>
         </is>
       </c>
-      <c r="D17" s="4" t="inlineStr">
+      <c r="D17" s="49" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E17" s="6" t="n">
+      <c r="E17" s="50" t="n">
         <v>40</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="51">
         <f>'Estimate Settings'!$C$24</f>
         <v/>
       </c>
-      <c r="G17" s="4">
-        <f>$E47*$F47</f>
-        <v/>
-      </c>
-      <c r="H17" s="7" t="n">
+      <c r="G17" s="51">
+        <f>$E17*$F17</f>
+        <v/>
+      </c>
+      <c r="H17" s="52" t="n">
         <v>120</v>
       </c>
-      <c r="I17" s="4">
-        <f>TEXT($G47*$H47</f>
-        <v/>
-      </c>
-      <c r="J17" s="4" t="inlineStr">
-        <is>
-          <t>$#</t>
-        </is>
-      </c>
-      <c r="K17" s="4" t="inlineStr">
-        <is>
-          <t>##0"")</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="I17" s="51">
+        <f>TEXT($G17*$H17,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J17" s="49" t="inlineStr"/>
+      <c r="K17" s="49" t="inlineStr">
+        <is>
+          <t>Include end-to-end workflow validation</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="26" customHeight="1">
+      <c r="A18" s="53" t="inlineStr">
         <is>
           <t>Testing</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="54" t="inlineStr">
         <is>
           <t>Performance Testing</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="54" t="inlineStr">
         <is>
           <t>Conduct load performance and scalability testing</t>
         </is>
       </c>
-      <c r="D18" s="4" t="inlineStr">
+      <c r="D18" s="54" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E18" s="6" t="n">
+      <c r="E18" s="55" t="n">
         <v>24</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="56">
         <f>'Estimate Settings'!$C$24</f>
         <v/>
       </c>
-      <c r="G18" s="4">
-        <f>$E48*$F48</f>
-        <v/>
-      </c>
-      <c r="H18" s="7" t="n">
+      <c r="G18" s="56">
+        <f>$E18*$F18</f>
+        <v/>
+      </c>
+      <c r="H18" s="57" t="n">
         <v>140</v>
       </c>
-      <c r="I18" s="4">
-        <f>TEXT($G48*$H48</f>
-        <v/>
-      </c>
-      <c r="J18" s="4" t="inlineStr">
-        <is>
-          <t>$#</t>
-        </is>
-      </c>
-      <c r="K18" s="4" t="inlineStr">
-        <is>
-          <t>##0"")</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
+      <c r="I18" s="56">
+        <f>TEXT($G18*$H18,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J18" s="54" t="inlineStr"/>
+      <c r="K18" s="54" t="inlineStr">
+        <is>
+          <t>Include production-like environment and stress testing</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="26" customHeight="1">
+      <c r="A19" s="48" t="inlineStr">
         <is>
           <t>Testing</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="49" t="inlineStr">
         <is>
           <t>Security Testing</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="49" t="inlineStr">
         <is>
           <t>Perform security assessments penetration testing and compliance validation</t>
         </is>
       </c>
-      <c r="D19" s="4" t="inlineStr">
+      <c r="D19" s="49" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E19" s="6" t="n">
+      <c r="E19" s="50" t="n">
         <v>16</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="51">
         <f>'Estimate Settings'!$C$24</f>
         <v/>
       </c>
-      <c r="G19" s="4">
-        <f>$E49*$F49</f>
-        <v/>
-      </c>
-      <c r="H19" s="7" t="n">
+      <c r="G19" s="51">
+        <f>$E19*$F19</f>
+        <v/>
+      </c>
+      <c r="H19" s="52" t="n">
         <v>175</v>
       </c>
-      <c r="I19" s="4">
-        <f>TEXT($G49*$H49</f>
-        <v/>
-      </c>
-      <c r="J19" s="4" t="inlineStr">
-        <is>
-          <t>$#</t>
-        </is>
-      </c>
-      <c r="K19" s="4" t="inlineStr">
-        <is>
-          <t>##0"")</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
+      <c r="I19" s="51">
+        <f>TEXT($G19*$H19,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J19" s="49" t="inlineStr"/>
+      <c r="K19" s="49" t="inlineStr">
+        <is>
+          <t>Include vulnerability scanning and compliance checks</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="26" customHeight="1">
+      <c r="A20" s="53" t="inlineStr">
         <is>
           <t>Testing</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="54" t="inlineStr">
         <is>
           <t>User Acceptance Testing</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C20" s="54" t="inlineStr">
         <is>
           <t>Coordinate UAT with business users and stakeholders</t>
         </is>
       </c>
-      <c r="D20" s="4" t="inlineStr">
+      <c r="D20" s="54" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E20" s="6" t="n">
+      <c r="E20" s="55" t="n">
         <v>32</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="56">
         <f>'Estimate Settings'!$C$24</f>
         <v/>
       </c>
-      <c r="G20" s="4">
-        <f>$E50*$F50</f>
-        <v/>
-      </c>
-      <c r="H20" s="7" t="n">
+      <c r="G20" s="56">
+        <f>$E20*$F20</f>
+        <v/>
+      </c>
+      <c r="H20" s="57" t="n">
         <v>150</v>
       </c>
-      <c r="I20" s="4">
-        <f>TEXT($G50*$H50</f>
-        <v/>
-      </c>
-      <c r="J20" s="4" t="inlineStr">
-        <is>
-          <t>$#</t>
-        </is>
-      </c>
-      <c r="K20" s="4" t="inlineStr">
-        <is>
-          <t>##0"")</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="I20" s="56">
+        <f>TEXT($G20*$H20,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J20" s="54" t="inlineStr"/>
+      <c r="K20" s="54" t="inlineStr">
+        <is>
+          <t>Include training feedback collection and sign-off</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="26" customHeight="1">
+      <c r="A21" s="48" t="inlineStr">
         <is>
           <t>Deployment</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B21" s="49" t="inlineStr">
         <is>
           <t>Production Deployment</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="C21" s="49" t="inlineStr">
         <is>
           <t>Deploy solution to production environment with monitoring</t>
         </is>
       </c>
-      <c r="D21" s="4" t="inlineStr">
+      <c r="D21" s="49" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E21" s="6" t="n">
+      <c r="E21" s="50" t="n">
         <v>24</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="51">
         <f>'Estimate Settings'!$C$25</f>
         <v/>
       </c>
-      <c r="G21" s="4">
-        <f>$E51*$F51</f>
-        <v/>
-      </c>
-      <c r="H21" s="7" t="n">
+      <c r="G21" s="51">
+        <f>$E21*$F21</f>
+        <v/>
+      </c>
+      <c r="H21" s="52" t="n">
         <v>160</v>
       </c>
-      <c r="I21" s="4">
-        <f>TEXT($G51*$H51</f>
-        <v/>
-      </c>
-      <c r="J21" s="4" t="inlineStr">
-        <is>
-          <t>$#</t>
-        </is>
-      </c>
-      <c r="K21" s="4" t="inlineStr">
-        <is>
-          <t>##0"")</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="I21" s="51">
+        <f>TEXT($G21*$H21,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J21" s="49" t="inlineStr"/>
+      <c r="K21" s="49" t="inlineStr">
+        <is>
+          <t>Include blue-green deployment rollback and validation</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="26" customHeight="1">
+      <c r="A22" s="53" t="inlineStr">
         <is>
           <t>Deployment</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B22" s="54" t="inlineStr">
         <is>
           <t>Go-Live Support</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="C22" s="54" t="inlineStr">
         <is>
           <t>Provide comprehensive support during initial production rollout</t>
         </is>
       </c>
-      <c r="D22" s="4" t="inlineStr">
+      <c r="D22" s="54" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E22" s="6" t="n">
+      <c r="E22" s="55" t="n">
         <v>48</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="56">
         <f>'Estimate Settings'!$C$25</f>
         <v/>
       </c>
-      <c r="G22" s="4">
-        <f>$E52*$F52</f>
-        <v/>
-      </c>
-      <c r="H22" s="7" t="n">
+      <c r="G22" s="56">
+        <f>$E22*$F22</f>
+        <v/>
+      </c>
+      <c r="H22" s="57" t="n">
         <v>110</v>
       </c>
-      <c r="I22" s="4">
-        <f>TEXT($G52*$H52</f>
-        <v/>
-      </c>
-      <c r="J22" s="4" t="inlineStr">
-        <is>
-          <t>$#</t>
-        </is>
-      </c>
-      <c r="K22" s="4" t="inlineStr">
-        <is>
-          <t>##0"")</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="I22" s="56">
+        <f>TEXT($G22*$H22,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J22" s="54" t="inlineStr"/>
+      <c r="K22" s="54" t="inlineStr">
+        <is>
+          <t>Include 24/7 support monitoring and issue resolution</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="26" customHeight="1">
+      <c r="A23" s="48" t="inlineStr">
         <is>
           <t>Training</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="B23" s="49" t="inlineStr">
         <is>
           <t>Administrator Training</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="C23" s="49" t="inlineStr">
         <is>
           <t>Train system administrators and technical support teams</t>
         </is>
       </c>
-      <c r="D23" s="4" t="inlineStr">
+      <c r="D23" s="49" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E23" s="6" t="n">
+      <c r="E23" s="50" t="n">
         <v>16</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="51">
         <f>'Estimate Settings'!$C$26</f>
         <v/>
       </c>
-      <c r="G23" s="4">
-        <f>$E53*$F53</f>
-        <v/>
-      </c>
-      <c r="H23" s="7" t="n">
+      <c r="G23" s="51">
+        <f>$E23*$F23</f>
+        <v/>
+      </c>
+      <c r="H23" s="52" t="n">
         <v>130</v>
       </c>
-      <c r="I23" s="4">
-        <f>TEXT($G53*$H53</f>
-        <v/>
-      </c>
-      <c r="J23" s="4" t="inlineStr">
-        <is>
-          <t>$#</t>
-        </is>
-      </c>
-      <c r="K23" s="4" t="inlineStr">
-        <is>
-          <t>##0"")</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="I23" s="51">
+        <f>TEXT($G23*$H23,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J23" s="49" t="inlineStr"/>
+      <c r="K23" s="49" t="inlineStr">
+        <is>
+          <t>Include hands-on technical training and certification</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="26" customHeight="1">
+      <c r="A24" s="53" t="inlineStr">
         <is>
           <t>Training</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="54" t="inlineStr">
         <is>
           <t>End User Training</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="C24" s="54" t="inlineStr">
         <is>
           <t>Train business users on solution functionality and workflows</t>
         </is>
       </c>
-      <c r="D24" s="4" t="inlineStr">
+      <c r="D24" s="54" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E24" s="6" t="n">
+      <c r="E24" s="55" t="n">
         <v>24</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="56">
         <f>'Estimate Settings'!$C$26</f>
         <v/>
       </c>
-      <c r="G24" s="4">
-        <f>$E54*$F54</f>
-        <v/>
-      </c>
-      <c r="H24" s="7" t="n">
+      <c r="G24" s="56">
+        <f>$E24*$F24</f>
+        <v/>
+      </c>
+      <c r="H24" s="57" t="n">
         <v>120</v>
       </c>
-      <c r="I24" s="4">
-        <f>TEXT($G54*$H54</f>
-        <v/>
-      </c>
-      <c r="J24" s="4" t="inlineStr">
-        <is>
-          <t>$#</t>
-        </is>
-      </c>
-      <c r="K24" s="4" t="inlineStr">
-        <is>
-          <t>##0"")</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr">
+      <c r="I24" s="56">
+        <f>TEXT($G24*$H24,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J24" s="54" t="inlineStr"/>
+      <c r="K24" s="54" t="inlineStr">
+        <is>
+          <t>Include role-based training documentation and support</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="26" customHeight="1">
+      <c r="A25" s="48" t="inlineStr">
         <is>
           <t>Training</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="49" t="inlineStr">
         <is>
           <t>Documentation</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="C25" s="49" t="inlineStr">
         <is>
           <t>Create comprehensive technical and user documentation</t>
         </is>
       </c>
-      <c r="D25" s="4" t="inlineStr">
+      <c r="D25" s="49" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E25" s="6" t="n">
+      <c r="E25" s="50" t="n">
         <v>32</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="51">
         <f>'Estimate Settings'!$C$26</f>
         <v/>
       </c>
-      <c r="G25" s="4">
-        <f>$E55*$F55</f>
-        <v/>
-      </c>
-      <c r="H25" s="7" t="n">
+      <c r="G25" s="51">
+        <f>$E25*$F25</f>
+        <v/>
+      </c>
+      <c r="H25" s="52" t="n">
         <v>110</v>
       </c>
-      <c r="I25" s="4">
-        <f>TEXT($G55*$H55</f>
-        <v/>
-      </c>
-      <c r="J25" s="4" t="inlineStr">
-        <is>
-          <t>$#</t>
-        </is>
-      </c>
-      <c r="K25" s="4" t="inlineStr">
-        <is>
-          <t>##0"")</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="inlineStr">
+      <c r="I25" s="51">
+        <f>TEXT($G25*$H25,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J25" s="49" t="inlineStr"/>
+      <c r="K25" s="49" t="inlineStr">
+        <is>
+          <t>Include runbooks troubleshooting guides and best practices</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="26" customHeight="1">
+      <c r="A26" s="53" t="inlineStr">
         <is>
           <t>Closeout</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B26" s="54" t="inlineStr">
         <is>
           <t>Knowledge Transfer</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="C26" s="54" t="inlineStr">
         <is>
           <t>Transfer solution ownership to operations and support teams</t>
         </is>
       </c>
-      <c r="D26" s="4" t="inlineStr">
+      <c r="D26" s="54" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E26" s="6" t="n">
+      <c r="E26" s="55" t="n">
         <v>16</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="56">
         <f>'Estimate Settings'!$C$27</f>
         <v/>
       </c>
-      <c r="G26" s="4">
-        <f>$E56*$F56</f>
-        <v/>
-      </c>
-      <c r="H26" s="7" t="n">
+      <c r="G26" s="56">
+        <f>$E26*$F26</f>
+        <v/>
+      </c>
+      <c r="H26" s="57" t="n">
         <v>140</v>
       </c>
-      <c r="I26" s="4">
-        <f>TEXT($G56*$H56</f>
-        <v/>
-      </c>
-      <c r="J26" s="4" t="inlineStr">
-        <is>
-          <t>$#</t>
-        </is>
-      </c>
-      <c r="K26" s="4" t="inlineStr">
-        <is>
-          <t>##0"")</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="inlineStr">
+      <c r="I26" s="56">
+        <f>TEXT($G26*$H26,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J26" s="54" t="inlineStr"/>
+      <c r="K26" s="54" t="inlineStr">
+        <is>
+          <t>Include operational procedures escalation and maintenance</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="26" customHeight="1">
+      <c r="A27" s="48" t="inlineStr">
         <is>
           <t>Closeout</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="B27" s="49" t="inlineStr">
         <is>
           <t>Performance Baseline</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="C27" s="49" t="inlineStr">
         <is>
           <t>Establish performance metrics monitoring baselines and SLAs</t>
         </is>
       </c>
-      <c r="D27" s="4" t="inlineStr">
+      <c r="D27" s="49" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E27" s="6" t="n">
+      <c r="E27" s="50" t="n">
         <v>8</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="51">
         <f>'Estimate Settings'!$C$27</f>
         <v/>
       </c>
-      <c r="G27" s="4">
-        <f>$E57*$F57</f>
-        <v/>
-      </c>
-      <c r="H27" s="7" t="n">
+      <c r="G27" s="51">
+        <f>$E27*$F27</f>
+        <v/>
+      </c>
+      <c r="H27" s="52" t="n">
         <v>130</v>
       </c>
-      <c r="I27" s="4">
-        <f>TEXT($G57*$H57</f>
-        <v/>
-      </c>
-      <c r="J27" s="4" t="inlineStr">
-        <is>
-          <t>$#</t>
-        </is>
-      </c>
-      <c r="K27" s="4" t="inlineStr">
-        <is>
-          <t>##0"")</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="inlineStr">
+      <c r="I27" s="51">
+        <f>TEXT($G27*$H27,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J27" s="49" t="inlineStr"/>
+      <c r="K27" s="49" t="inlineStr">
+        <is>
+          <t>Include KPI definition monitoring setup and reporting</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="26" customHeight="1">
+      <c r="A28" s="53" t="inlineStr">
         <is>
           <t>Management</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B28" s="54" t="inlineStr">
         <is>
           <t>Technical Leadership</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="C28" s="54" t="inlineStr">
         <is>
           <t>Quarterback technical oversight and architecture review</t>
         </is>
       </c>
-      <c r="D28" s="4" t="inlineStr">
+      <c r="D28" s="54" t="inlineStr">
         <is>
           <t>EO Quarterback</t>
         </is>
       </c>
-      <c r="E28" s="6" t="n">
+      <c r="E28" s="55" t="n">
         <v>40</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="56">
         <f>'Estimate Settings'!$C$28</f>
         <v/>
       </c>
-      <c r="G28" s="4">
-        <f>$E58*$F58</f>
-        <v/>
-      </c>
-      <c r="H28" s="7" t="n">
+      <c r="G28" s="56">
+        <f>$E28*$F28</f>
+        <v/>
+      </c>
+      <c r="H28" s="57" t="n">
         <v>180</v>
       </c>
-      <c r="I28" s="4">
-        <f>TEXT($G58*$H58</f>
-        <v/>
-      </c>
-      <c r="J28" s="4" t="inlineStr">
-        <is>
-          <t>$#</t>
-        </is>
-      </c>
-      <c r="K28" s="4" t="inlineStr">
-        <is>
-          <t>##0"")</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="inlineStr">
+      <c r="I28" s="56">
+        <f>TEXT($G28*$H28,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J28" s="54" t="inlineStr"/>
+      <c r="K28" s="54" t="inlineStr">
+        <is>
+          <t>25% of engineering effort</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="26" customHeight="1">
+      <c r="A29" s="48" t="inlineStr">
         <is>
           <t>Management</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="B29" s="49" t="inlineStr">
         <is>
           <t>Project Management</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="C29" s="49" t="inlineStr">
         <is>
           <t>Project coordination and management activities</t>
         </is>
       </c>
-      <c r="D29" s="4" t="inlineStr">
+      <c r="D29" s="49" t="inlineStr">
         <is>
           <t>EO Project Manager</t>
         </is>
       </c>
-      <c r="E29" s="6" t="n">
+      <c r="E29" s="50" t="n">
         <v>40</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="51">
         <f>'Estimate Settings'!$C$28</f>
         <v/>
       </c>
-      <c r="G29" s="4">
-        <f>$E59*$F59</f>
-        <v/>
-      </c>
-      <c r="H29" s="7" t="n">
+      <c r="G29" s="51">
+        <f>$E29*$F29</f>
+        <v/>
+      </c>
+      <c r="H29" s="52" t="n">
         <v>150</v>
       </c>
-      <c r="I29" s="4">
-        <f>TEXT($G59*$H59</f>
-        <v/>
-      </c>
-      <c r="J29" s="4" t="inlineStr">
-        <is>
-          <t>$#</t>
-        </is>
-      </c>
-      <c r="K29" s="4" t="inlineStr">
-        <is>
-          <t>##0"")</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="inlineStr"/>
-      <c r="B30" s="4" t="inlineStr"/>
-      <c r="C30" s="4" t="inlineStr"/>
-      <c r="D30" s="4" t="inlineStr"/>
-      <c r="E30" s="4" t="inlineStr"/>
-      <c r="F30" s="4" t="inlineStr">
+      <c r="I29" s="51">
+        <f>TEXT($G29*$H29,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J29" s="49" t="inlineStr"/>
+      <c r="K29" s="49" t="inlineStr">
+        <is>
+          <t>20% of engineering effort</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="26" customHeight="1">
+      <c r="A30" s="58" t="inlineStr"/>
+      <c r="B30" s="58" t="inlineStr"/>
+      <c r="C30" s="58" t="inlineStr"/>
+      <c r="D30" s="58" t="inlineStr"/>
+      <c r="E30" s="58" t="inlineStr"/>
+      <c r="F30" s="59" t="inlineStr">
         <is>
           <t>TOTAL HOURS</t>
         </is>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="59">
         <f>SUM(G33:G59)</f>
         <v/>
       </c>
-      <c r="H30" s="4" t="inlineStr">
+      <c r="H30" s="59" t="inlineStr">
         <is>
           <t>TOTAL COST</t>
         </is>
       </c>
-      <c r="I30" s="4">
-        <f>TEXT(SUMPRODUCT(G33:G59</f>
-        <v/>
-      </c>
-      <c r="J30" s="4" t="inlineStr">
-        <is>
-          <t>H33:H59)</t>
-        </is>
-      </c>
-      <c r="K30" s="4" t="inlineStr">
-        <is>
-          <t>$#</t>
+      <c r="I30" s="59">
+        <f>TEXT(SUMPRODUCT(G33:G59,H33:H59),"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J30" s="58" t="inlineStr"/>
+      <c r="K30" s="59" t="inlineStr">
+        <is>
+          <t>Total project cost estimate</t>
         </is>
       </c>
     </row>
@@ -2906,4 +3264,99 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="27" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="100" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="32" customHeight="1">
+      <c r="A1" s="35" t="inlineStr">
+        <is>
+          <t>Credits - Applied to Total Cost (Year 1 Only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="32" customHeight="1">
+      <c r="A2" s="36" t="inlineStr">
+        <is>
+          <t>Credit Type</t>
+        </is>
+      </c>
+      <c r="B2" s="36" t="inlineStr">
+        <is>
+          <t>Credit Amount</t>
+        </is>
+      </c>
+      <c r="C2" s="36" t="inlineStr">
+        <is>
+          <t>Credit Comments</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="26" customHeight="1">
+      <c r="A3" s="37" t="inlineStr">
+        <is>
+          <t>AWS Partner Services Credit</t>
+        </is>
+      </c>
+      <c r="B3" s="60" t="n">
+        <v>-10000</v>
+      </c>
+      <c r="C3" s="40" t="inlineStr">
+        <is>
+          <t>AWS Partner Network (APN) credit for cloud migration solution architecture and implementation services</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="26" customHeight="1">
+      <c r="A4" s="41" t="inlineStr">
+        <is>
+          <t>Implementation Discount</t>
+        </is>
+      </c>
+      <c r="B4" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="43" t="inlineStr">
+        <is>
+          <t>No implementation discount applicable</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="26" customHeight="1">
+      <c r="A5" s="62" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="B5" s="63">
+        <f>SUMPRODUCT($G$33:$G$59,$H$33:$H$59)-10000</f>
+        <v/>
+      </c>
+      <c r="C5" s="62" t="n"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:C5"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/solutions/aws/cloud/onpremise-to-cloud-migration/presales/level-of-effort-estimate.xlsx
+++ b/solutions/aws/cloud/onpremise-to-cloud-migration/presales/level-of-effort-estimate.xlsx
@@ -408,21 +408,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -447,6 +441,9 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="18" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -460,6 +457,9 @@
     </xf>
     <xf numFmtId="3" fontId="18" fillId="11" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -949,11 +949,11 @@
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="35" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="30" customWidth="1" min="6" max="6"/>
-    <col width="40" customWidth="1" min="7" max="7"/>
+    <col width="33" customWidth="1" min="3" max="3"/>
+    <col width="32" customWidth="1" min="4" max="4"/>
+    <col width="32" customWidth="1" min="5" max="5"/>
+    <col width="39" customWidth="1" min="6" max="6"/>
+    <col width="44" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
@@ -1017,35 +1017,35 @@
           <t>5-10 VMs/applications</t>
         </is>
       </c>
-      <c r="D3" s="40" t="inlineStr">
+      <c r="D3" s="38" t="inlineStr">
         <is>
           <t>5-10 workloads</t>
         </is>
       </c>
-      <c r="E3" s="40" t="inlineStr">
+      <c r="E3" s="38" t="inlineStr">
         <is>
           <t>10-25 workloads</t>
         </is>
       </c>
-      <c r="F3" s="40" t="inlineStr">
+      <c r="F3" s="38" t="inlineStr">
         <is>
           <t>25+ workloads or complex apps</t>
         </is>
       </c>
-      <c r="G3" s="40" t="inlineStr">
+      <c r="G3" s="38" t="inlineStr">
         <is>
           <t>Number of workloads being migrated</t>
         </is>
       </c>
-      <c r="H3" s="40" t="inlineStr"/>
+      <c r="H3" s="38" t="inlineStr"/>
     </row>
     <row r="4" ht="26" customHeight="1">
-      <c r="A4" s="41" t="inlineStr">
+      <c r="A4" s="40" t="inlineStr">
         <is>
           <t>Solution Scope</t>
         </is>
       </c>
-      <c r="B4" s="42" t="inlineStr">
+      <c r="B4" s="41" t="inlineStr">
         <is>
           <t>Migration Strategy</t>
         </is>
@@ -1055,27 +1055,27 @@
           <t>Rehost (lift-and-shift)</t>
         </is>
       </c>
-      <c r="D4" s="43" t="inlineStr">
+      <c r="D4" s="41" t="inlineStr">
         <is>
           <t>Rehost simple</t>
         </is>
       </c>
-      <c r="E4" s="43" t="inlineStr">
+      <c r="E4" s="41" t="inlineStr">
         <is>
           <t>Replatform moderate</t>
         </is>
       </c>
-      <c r="F4" s="43" t="inlineStr">
+      <c r="F4" s="41" t="inlineStr">
         <is>
           <t>Refactor complex</t>
         </is>
       </c>
-      <c r="G4" s="43" t="inlineStr">
+      <c r="G4" s="41" t="inlineStr">
         <is>
           <t>AWS 6R migration strategy</t>
         </is>
       </c>
-      <c r="H4" s="43" t="inlineStr"/>
+      <c r="H4" s="41" t="inlineStr"/>
     </row>
     <row r="5" ht="26" customHeight="1">
       <c r="A5" s="37" t="inlineStr">
@@ -1093,35 +1093,35 @@
           <t>VMware vSphere on-premises</t>
         </is>
       </c>
-      <c r="D5" s="40" t="inlineStr">
+      <c r="D5" s="38" t="inlineStr">
         <is>
           <t>Single hypervisor</t>
         </is>
       </c>
-      <c r="E5" s="40" t="inlineStr">
+      <c r="E5" s="38" t="inlineStr">
         <is>
           <t>Multiple hypervisors</t>
         </is>
       </c>
-      <c r="F5" s="40" t="inlineStr">
+      <c r="F5" s="38" t="inlineStr">
         <is>
           <t>Hybrid cloud + physical servers</t>
         </is>
       </c>
-      <c r="G5" s="40" t="inlineStr">
+      <c r="G5" s="38" t="inlineStr">
         <is>
           <t>Current infrastructure platform</t>
         </is>
       </c>
-      <c r="H5" s="40" t="inlineStr"/>
+      <c r="H5" s="38" t="inlineStr"/>
     </row>
     <row r="6" ht="26" customHeight="1">
-      <c r="A6" s="41" t="inlineStr">
+      <c r="A6" s="40" t="inlineStr">
         <is>
           <t>Integration</t>
         </is>
       </c>
-      <c r="B6" s="42" t="inlineStr">
+      <c r="B6" s="41" t="inlineStr">
         <is>
           <t>Hybrid Connectivity</t>
         </is>
@@ -1131,27 +1131,27 @@
           <t>AWS Direct Connect</t>
         </is>
       </c>
-      <c r="D6" s="43" t="inlineStr">
+      <c r="D6" s="41" t="inlineStr">
         <is>
           <t>VPN only</t>
         </is>
       </c>
-      <c r="E6" s="43" t="inlineStr">
+      <c r="E6" s="41" t="inlineStr">
         <is>
           <t>Direct Connect</t>
         </is>
       </c>
-      <c r="F6" s="43" t="inlineStr">
+      <c r="F6" s="41" t="inlineStr">
         <is>
           <t>Direct Connect + VPN redundancy</t>
         </is>
       </c>
-      <c r="G6" s="43" t="inlineStr">
+      <c r="G6" s="41" t="inlineStr">
         <is>
           <t>On-premises to AWS connectivity</t>
         </is>
       </c>
-      <c r="H6" s="43" t="inlineStr"/>
+      <c r="H6" s="41" t="inlineStr"/>
     </row>
     <row r="7" ht="26" customHeight="1">
       <c r="A7" s="37" t="inlineStr">
@@ -1169,35 +1169,35 @@
           <t>100 application users</t>
         </is>
       </c>
-      <c r="D7" s="40" t="inlineStr">
+      <c r="D7" s="38" t="inlineStr">
         <is>
           <t>50-100 users</t>
         </is>
       </c>
-      <c r="E7" s="40" t="inlineStr">
+      <c r="E7" s="38" t="inlineStr">
         <is>
           <t>100-500 users</t>
         </is>
       </c>
-      <c r="F7" s="40" t="inlineStr">
+      <c r="F7" s="38" t="inlineStr">
         <is>
           <t>500+ users</t>
         </is>
       </c>
-      <c r="G7" s="40" t="inlineStr">
+      <c r="G7" s="38" t="inlineStr">
         <is>
           <t>End users of migrated apps</t>
         </is>
       </c>
-      <c r="H7" s="40" t="inlineStr"/>
+      <c r="H7" s="38" t="inlineStr"/>
     </row>
     <row r="8" ht="26" customHeight="1">
-      <c r="A8" s="41" t="inlineStr">
+      <c r="A8" s="40" t="inlineStr">
         <is>
           <t>User Base</t>
         </is>
       </c>
-      <c r="B8" s="42" t="inlineStr">
+      <c r="B8" s="41" t="inlineStr">
         <is>
           <t>User Roles</t>
         </is>
@@ -1207,27 +1207,27 @@
           <t>3 roles (admin operator user)</t>
         </is>
       </c>
-      <c r="D8" s="43" t="inlineStr">
+      <c r="D8" s="41" t="inlineStr">
         <is>
           <t>2-3 standard roles</t>
         </is>
       </c>
-      <c r="E8" s="43" t="inlineStr">
+      <c r="E8" s="41" t="inlineStr">
         <is>
           <t>4-6 roles</t>
         </is>
       </c>
-      <c r="F8" s="43" t="inlineStr">
+      <c r="F8" s="41" t="inlineStr">
         <is>
           <t>8+ roles with migration access</t>
         </is>
       </c>
-      <c r="G8" s="43" t="inlineStr">
+      <c r="G8" s="41" t="inlineStr">
         <is>
           <t>Roles for migration and operation</t>
         </is>
       </c>
-      <c r="H8" s="43" t="inlineStr"/>
+      <c r="H8" s="41" t="inlineStr"/>
     </row>
     <row r="9" ht="26" customHeight="1">
       <c r="A9" s="37" t="inlineStr">
@@ -1245,35 +1245,35 @@
           <t>500 GB</t>
         </is>
       </c>
-      <c r="D9" s="40" t="inlineStr">
+      <c r="D9" s="38" t="inlineStr">
         <is>
           <t>100-500 GB</t>
         </is>
       </c>
-      <c r="E9" s="40" t="inlineStr">
+      <c r="E9" s="38" t="inlineStr">
         <is>
           <t>500 GB - 2 TB</t>
         </is>
       </c>
-      <c r="F9" s="40" t="inlineStr">
+      <c r="F9" s="38" t="inlineStr">
         <is>
           <t>2+ TB</t>
         </is>
       </c>
-      <c r="G9" s="40" t="inlineStr">
+      <c r="G9" s="38" t="inlineStr">
         <is>
           <t>Total data volume for migration</t>
         </is>
       </c>
-      <c r="H9" s="40" t="inlineStr"/>
+      <c r="H9" s="38" t="inlineStr"/>
     </row>
     <row r="10" ht="26" customHeight="1">
-      <c r="A10" s="41" t="inlineStr">
+      <c r="A10" s="40" t="inlineStr">
         <is>
           <t>Data Volume</t>
         </is>
       </c>
-      <c r="B10" s="42" t="inlineStr">
+      <c r="B10" s="41" t="inlineStr">
         <is>
           <t>Database Migration</t>
         </is>
@@ -1283,27 +1283,27 @@
           <t>2 databases (MySQL PostgreSQL)</t>
         </is>
       </c>
-      <c r="D10" s="43" t="inlineStr">
+      <c r="D10" s="41" t="inlineStr">
         <is>
           <t>1-2 databases</t>
         </is>
       </c>
-      <c r="E10" s="43" t="inlineStr">
+      <c r="E10" s="41" t="inlineStr">
         <is>
           <t>3-5 databases</t>
         </is>
       </c>
-      <c r="F10" s="43" t="inlineStr">
+      <c r="F10" s="41" t="inlineStr">
         <is>
           <t>6+ databases or complex schemas</t>
         </is>
       </c>
-      <c r="G10" s="43" t="inlineStr">
+      <c r="G10" s="41" t="inlineStr">
         <is>
           <t>Database migration scope</t>
         </is>
       </c>
-      <c r="H10" s="43" t="inlineStr"/>
+      <c r="H10" s="41" t="inlineStr"/>
     </row>
     <row r="11" ht="26" customHeight="1">
       <c r="A11" s="37" t="inlineStr">
@@ -1321,35 +1321,35 @@
           <t>us-east-1</t>
         </is>
       </c>
-      <c r="D11" s="40" t="inlineStr">
+      <c r="D11" s="38" t="inlineStr">
         <is>
           <t>Single region</t>
         </is>
       </c>
-      <c r="E11" s="40" t="inlineStr">
+      <c r="E11" s="38" t="inlineStr">
         <is>
           <t>Multi-AZ deployment</t>
         </is>
       </c>
-      <c r="F11" s="40" t="inlineStr">
+      <c r="F11" s="38" t="inlineStr">
         <is>
           <t>Multi-region deployment</t>
         </is>
       </c>
-      <c r="G11" s="40" t="inlineStr">
+      <c r="G11" s="38" t="inlineStr">
         <is>
           <t>AWS target deployment region</t>
         </is>
       </c>
-      <c r="H11" s="40" t="inlineStr"/>
+      <c r="H11" s="38" t="inlineStr"/>
     </row>
     <row r="12" ht="26" customHeight="1">
-      <c r="A12" s="41" t="inlineStr">
+      <c r="A12" s="40" t="inlineStr">
         <is>
           <t>Technical Environment</t>
         </is>
       </c>
-      <c r="B12" s="42" t="inlineStr">
+      <c r="B12" s="41" t="inlineStr">
         <is>
           <t>Availability Requirements</t>
         </is>
@@ -1359,27 +1359,27 @@
           <t>Standard (99.5%)</t>
         </is>
       </c>
-      <c r="D12" s="43" t="inlineStr">
+      <c r="D12" s="41" t="inlineStr">
         <is>
           <t>Standard (99.5%)</t>
         </is>
       </c>
-      <c r="E12" s="43" t="inlineStr">
+      <c r="E12" s="41" t="inlineStr">
         <is>
           <t>High availability (99.9%)</t>
         </is>
       </c>
-      <c r="F12" s="43" t="inlineStr">
+      <c r="F12" s="41" t="inlineStr">
         <is>
           <t>Mission critical (99.95%+)</t>
         </is>
       </c>
-      <c r="G12" s="43" t="inlineStr">
+      <c r="G12" s="41" t="inlineStr">
         <is>
           <t>Post-migration availability SLA</t>
         </is>
       </c>
-      <c r="H12" s="43" t="inlineStr"/>
+      <c r="H12" s="41" t="inlineStr"/>
     </row>
     <row r="13" ht="26" customHeight="1">
       <c r="A13" s="37" t="inlineStr">
@@ -1397,35 +1397,35 @@
           <t>EC2 RDS S3 standard</t>
         </is>
       </c>
-      <c r="D13" s="40" t="inlineStr">
+      <c r="D13" s="38" t="inlineStr">
         <is>
           <t>Basic IaaS</t>
         </is>
       </c>
-      <c r="E13" s="40" t="inlineStr">
+      <c r="E13" s="38" t="inlineStr">
         <is>
           <t>Standard AWS services</t>
         </is>
       </c>
-      <c r="F13" s="40" t="inlineStr">
+      <c r="F13" s="38" t="inlineStr">
         <is>
           <t>Advanced AWS native services</t>
         </is>
       </c>
-      <c r="G13" s="40" t="inlineStr">
+      <c r="G13" s="38" t="inlineStr">
         <is>
           <t>Target AWS architecture complexity</t>
         </is>
       </c>
-      <c r="H13" s="40" t="inlineStr"/>
+      <c r="H13" s="38" t="inlineStr"/>
     </row>
     <row r="14" ht="26" customHeight="1">
-      <c r="A14" s="41" t="inlineStr">
+      <c r="A14" s="40" t="inlineStr">
         <is>
           <t>Security &amp; Compliance</t>
         </is>
       </c>
-      <c r="B14" s="42" t="inlineStr">
+      <c r="B14" s="41" t="inlineStr">
         <is>
           <t>Security Requirements</t>
         </is>
@@ -1435,27 +1435,27 @@
           <t>VPC Security Groups IAM</t>
         </is>
       </c>
-      <c r="D14" s="43" t="inlineStr">
+      <c r="D14" s="41" t="inlineStr">
         <is>
           <t>Basic cloud security</t>
         </is>
       </c>
-      <c r="E14" s="43" t="inlineStr">
+      <c r="E14" s="41" t="inlineStr">
         <is>
           <t>Industry standard (SOC2)</t>
         </is>
       </c>
-      <c r="F14" s="43" t="inlineStr">
+      <c r="F14" s="41" t="inlineStr">
         <is>
           <t>Advanced (compliance frameworks)</t>
         </is>
       </c>
-      <c r="G14" s="43" t="inlineStr">
+      <c r="G14" s="41" t="inlineStr">
         <is>
           <t>Cloud security controls</t>
         </is>
       </c>
-      <c r="H14" s="43" t="inlineStr"/>
+      <c r="H14" s="41" t="inlineStr"/>
     </row>
     <row r="15" ht="26" customHeight="1">
       <c r="A15" s="37" t="inlineStr">
@@ -1473,35 +1473,35 @@
           <t>SOC2</t>
         </is>
       </c>
-      <c r="D15" s="40" t="inlineStr">
+      <c r="D15" s="38" t="inlineStr">
         <is>
           <t>1-2 basic standards</t>
         </is>
       </c>
-      <c r="E15" s="40" t="inlineStr">
+      <c r="E15" s="38" t="inlineStr">
         <is>
           <t>2-3 industry standards</t>
         </is>
       </c>
-      <c r="F15" s="40" t="inlineStr">
+      <c r="F15" s="38" t="inlineStr">
         <is>
           <t>Multiple complex frameworks</t>
         </is>
       </c>
-      <c r="G15" s="40" t="inlineStr">
+      <c r="G15" s="38" t="inlineStr">
         <is>
           <t>Post-migration compliance</t>
         </is>
       </c>
-      <c r="H15" s="40" t="inlineStr"/>
+      <c r="H15" s="38" t="inlineStr"/>
     </row>
     <row r="16" ht="26" customHeight="1">
-      <c r="A16" s="41" t="inlineStr">
+      <c r="A16" s="40" t="inlineStr">
         <is>
           <t>Performance</t>
         </is>
       </c>
-      <c r="B16" s="42" t="inlineStr">
+      <c r="B16" s="41" t="inlineStr">
         <is>
           <t>Migration Window</t>
         </is>
@@ -1511,27 +1511,27 @@
           <t>Weekend maintenance windows</t>
         </is>
       </c>
-      <c r="D16" s="43" t="inlineStr">
+      <c r="D16" s="41" t="inlineStr">
         <is>
           <t>Single cutover</t>
         </is>
       </c>
-      <c r="E16" s="43" t="inlineStr">
+      <c r="E16" s="41" t="inlineStr">
         <is>
           <t>Phased migration</t>
         </is>
       </c>
-      <c r="F16" s="43" t="inlineStr">
+      <c r="F16" s="41" t="inlineStr">
         <is>
           <t>Zero-downtime migration</t>
         </is>
       </c>
-      <c r="G16" s="43" t="inlineStr">
+      <c r="G16" s="41" t="inlineStr">
         <is>
           <t>Migration execution strategy</t>
         </is>
       </c>
-      <c r="H16" s="43" t="inlineStr"/>
+      <c r="H16" s="41" t="inlineStr"/>
     </row>
     <row r="17" ht="26" customHeight="1">
       <c r="A17" s="37" t="inlineStr">
@@ -1549,35 +1549,35 @@
           <t>Match on-premises baseline</t>
         </is>
       </c>
-      <c r="D17" s="40" t="inlineStr">
+      <c r="D17" s="38" t="inlineStr">
         <is>
           <t>Standard performance</t>
         </is>
       </c>
-      <c r="E17" s="40" t="inlineStr">
+      <c r="E17" s="38" t="inlineStr">
         <is>
           <t>Enhanced cloud performance</t>
         </is>
       </c>
-      <c r="F17" s="40" t="inlineStr">
+      <c r="F17" s="38" t="inlineStr">
         <is>
           <t>Optimized cloud-native</t>
         </is>
       </c>
-      <c r="G17" s="40" t="inlineStr">
+      <c r="G17" s="38" t="inlineStr">
         <is>
           <t>Post-migration performance targets</t>
         </is>
       </c>
-      <c r="H17" s="40" t="inlineStr"/>
+      <c r="H17" s="38" t="inlineStr"/>
     </row>
     <row r="18" ht="26" customHeight="1">
-      <c r="A18" s="41" t="inlineStr">
+      <c r="A18" s="40" t="inlineStr">
         <is>
           <t>Environment</t>
         </is>
       </c>
-      <c r="B18" s="42" t="inlineStr">
+      <c r="B18" s="41" t="inlineStr">
         <is>
           <t>Deployment Environments</t>
         </is>
@@ -1587,37 +1587,37 @@
           <t>2 environments (dev prod)</t>
         </is>
       </c>
-      <c r="D18" s="43" t="inlineStr">
+      <c r="D18" s="41" t="inlineStr">
         <is>
           <t>2 environments</t>
         </is>
       </c>
-      <c r="E18" s="43" t="inlineStr">
+      <c r="E18" s="41" t="inlineStr">
         <is>
           <t>3 environments</t>
         </is>
       </c>
-      <c r="F18" s="43" t="inlineStr">
+      <c r="F18" s="41" t="inlineStr">
         <is>
           <t>4+ environments with automation</t>
         </is>
       </c>
-      <c r="G18" s="43" t="inlineStr">
+      <c r="G18" s="41" t="inlineStr">
         <is>
           <t>Target cloud environments</t>
         </is>
       </c>
-      <c r="H18" s="43" t="inlineStr"/>
+      <c r="H18" s="41" t="inlineStr"/>
     </row>
     <row r="19" ht="26" customHeight="1">
       <c r="A19" s="37" t="inlineStr"/>
       <c r="B19" s="38" t="inlineStr"/>
       <c r="C19" s="39" t="inlineStr"/>
-      <c r="D19" s="40" t="inlineStr"/>
-      <c r="E19" s="40" t="inlineStr"/>
-      <c r="F19" s="40" t="inlineStr"/>
-      <c r="G19" s="40" t="inlineStr"/>
-      <c r="H19" s="40" t="inlineStr"/>
+      <c r="D19" s="38" t="inlineStr"/>
+      <c r="E19" s="38" t="inlineStr"/>
+      <c r="F19" s="38" t="inlineStr"/>
+      <c r="G19" s="38" t="inlineStr"/>
+      <c r="H19" s="38" t="inlineStr"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H19"/>
@@ -1643,10 +1643,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="150" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="173" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
@@ -1685,41 +1685,41 @@
           <t>Discovery</t>
         </is>
       </c>
-      <c r="B3" s="40" t="inlineStr">
+      <c r="B3" s="38" t="inlineStr">
         <is>
           <t>DISCOVERY_MX</t>
         </is>
       </c>
-      <c r="C3" s="44" t="n">
+      <c r="C3" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="40" t="inlineStr">
+      <c r="D3" s="38" t="inlineStr">
         <is>
           <t>All Discovery phase tasks</t>
         </is>
       </c>
-      <c r="E3" s="40" t="inlineStr"/>
+      <c r="E3" s="38" t="inlineStr"/>
     </row>
     <row r="4" ht="26" customHeight="1">
-      <c r="A4" s="41" t="inlineStr">
+      <c r="A4" s="40" t="inlineStr">
         <is>
           <t>Planning</t>
         </is>
       </c>
-      <c r="B4" s="43" t="inlineStr">
+      <c r="B4" s="41" t="inlineStr">
         <is>
           <t>PLANNING_MX</t>
         </is>
       </c>
-      <c r="C4" s="45" t="n">
+      <c r="C4" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="43" t="inlineStr">
+      <c r="D4" s="41" t="inlineStr">
         <is>
           <t>All Planning phase tasks</t>
         </is>
       </c>
-      <c r="E4" s="43" t="inlineStr"/>
+      <c r="E4" s="41" t="inlineStr"/>
     </row>
     <row r="5" ht="26" customHeight="1">
       <c r="A5" s="37" t="inlineStr">
@@ -1727,41 +1727,41 @@
           <t>Development</t>
         </is>
       </c>
-      <c r="B5" s="40" t="inlineStr">
+      <c r="B5" s="38" t="inlineStr">
         <is>
           <t>DEVELOPMENT_MX</t>
         </is>
       </c>
-      <c r="C5" s="44" t="n">
+      <c r="C5" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="40" t="inlineStr">
+      <c r="D5" s="38" t="inlineStr">
         <is>
           <t>All Development phase tasks</t>
         </is>
       </c>
-      <c r="E5" s="40" t="inlineStr"/>
+      <c r="E5" s="38" t="inlineStr"/>
     </row>
     <row r="6" ht="26" customHeight="1">
-      <c r="A6" s="41" t="inlineStr">
+      <c r="A6" s="40" t="inlineStr">
         <is>
           <t>Testing</t>
         </is>
       </c>
-      <c r="B6" s="43" t="inlineStr">
+      <c r="B6" s="41" t="inlineStr">
         <is>
           <t>TESTING_MX</t>
         </is>
       </c>
-      <c r="C6" s="45" t="n">
+      <c r="C6" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="43" t="inlineStr">
+      <c r="D6" s="41" t="inlineStr">
         <is>
           <t>All Testing phase tasks</t>
         </is>
       </c>
-      <c r="E6" s="43" t="inlineStr"/>
+      <c r="E6" s="41" t="inlineStr"/>
     </row>
     <row r="7" ht="26" customHeight="1">
       <c r="A7" s="37" t="inlineStr">
@@ -1769,41 +1769,41 @@
           <t>Deployment</t>
         </is>
       </c>
-      <c r="B7" s="40" t="inlineStr">
+      <c r="B7" s="38" t="inlineStr">
         <is>
           <t>DEPLOYMENT_MX</t>
         </is>
       </c>
-      <c r="C7" s="44" t="n">
+      <c r="C7" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="40" t="inlineStr">
+      <c r="D7" s="38" t="inlineStr">
         <is>
           <t>All Deployment phase tasks</t>
         </is>
       </c>
-      <c r="E7" s="40" t="inlineStr"/>
+      <c r="E7" s="38" t="inlineStr"/>
     </row>
     <row r="8" ht="26" customHeight="1">
-      <c r="A8" s="41" t="inlineStr">
+      <c r="A8" s="40" t="inlineStr">
         <is>
           <t>Training</t>
         </is>
       </c>
-      <c r="B8" s="43" t="inlineStr">
+      <c r="B8" s="41" t="inlineStr">
         <is>
           <t>TRAINING_MX</t>
         </is>
       </c>
-      <c r="C8" s="45" t="n">
+      <c r="C8" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="43" t="inlineStr">
+      <c r="D8" s="41" t="inlineStr">
         <is>
           <t>All Training phase tasks</t>
         </is>
       </c>
-      <c r="E8" s="43" t="inlineStr"/>
+      <c r="E8" s="41" t="inlineStr"/>
     </row>
     <row r="9" ht="26" customHeight="1">
       <c r="A9" s="37" t="inlineStr">
@@ -1811,41 +1811,41 @@
           <t>Closeout</t>
         </is>
       </c>
-      <c r="B9" s="40" t="inlineStr">
+      <c r="B9" s="38" t="inlineStr">
         <is>
           <t>CLOSEOUT_MX</t>
         </is>
       </c>
-      <c r="C9" s="44" t="n">
+      <c r="C9" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="40" t="inlineStr">
+      <c r="D9" s="38" t="inlineStr">
         <is>
           <t>All Closeout phase tasks</t>
         </is>
       </c>
-      <c r="E9" s="40" t="inlineStr"/>
+      <c r="E9" s="38" t="inlineStr"/>
     </row>
     <row r="10" ht="26" customHeight="1">
-      <c r="A10" s="41" t="inlineStr">
+      <c r="A10" s="40" t="inlineStr">
         <is>
           <t>Management</t>
         </is>
       </c>
-      <c r="B10" s="43" t="inlineStr">
+      <c r="B10" s="41" t="inlineStr">
         <is>
           <t>MANAGEMENT_MX</t>
         </is>
       </c>
-      <c r="C10" s="45" t="n">
+      <c r="C10" s="43" t="n">
         <v>1.5</v>
       </c>
-      <c r="D10" s="43" t="inlineStr">
+      <c r="D10" s="41" t="inlineStr">
         <is>
           <t>Project Management overhead</t>
         </is>
       </c>
-      <c r="E10" s="43" t="inlineStr"/>
+      <c r="E10" s="41" t="inlineStr"/>
     </row>
     <row r="11" ht="26" customHeight="1">
       <c r="A11" s="37" t="inlineStr">
@@ -1853,30 +1853,30 @@
           <t>Leadership</t>
         </is>
       </c>
-      <c r="B11" s="40" t="inlineStr">
+      <c r="B11" s="38" t="inlineStr">
         <is>
           <t>LEADERSHIP_MX</t>
         </is>
       </c>
-      <c r="C11" s="44" t="n">
+      <c r="C11" s="42" t="n">
         <v>1.5</v>
       </c>
-      <c r="D11" s="40" t="inlineStr">
+      <c r="D11" s="38" t="inlineStr">
         <is>
           <t>Quarterback/Technical Leadership overhead</t>
         </is>
       </c>
-      <c r="E11" s="40" t="inlineStr"/>
+      <c r="E11" s="38" t="inlineStr"/>
     </row>
     <row r="12" ht="26" customHeight="1">
-      <c r="A12" s="41" t="inlineStr"/>
-      <c r="B12" s="43" t="inlineStr"/>
-      <c r="C12" s="46" t="inlineStr"/>
-      <c r="D12" s="43" t="inlineStr"/>
-      <c r="E12" s="43" t="inlineStr"/>
+      <c r="A12" s="40" t="inlineStr"/>
+      <c r="B12" s="41" t="inlineStr"/>
+      <c r="C12" s="44" t="inlineStr"/>
+      <c r="D12" s="41" t="inlineStr"/>
+      <c r="E12" s="41" t="inlineStr"/>
     </row>
     <row r="14" ht="20" customHeight="1">
-      <c r="A14" s="47" t="inlineStr">
+      <c r="A14" s="45" t="inlineStr">
         <is>
           <t>EO Sales Engineer Updates Multipliers Based on Customer Scope</t>
         </is>
@@ -1907,14 +1907,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
     <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="58" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
     <col width="15" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="10" max="10"/>
     <col width="40" customWidth="1" min="11" max="11"/>
@@ -1985,76 +1985,76 @@
       </c>
     </row>
     <row r="3" ht="26" customHeight="1">
-      <c r="A3" s="48" t="inlineStr">
+      <c r="A3" s="46" t="inlineStr">
         <is>
           <t>Discovery</t>
         </is>
       </c>
-      <c r="B3" s="49" t="inlineStr">
+      <c r="B3" s="47" t="inlineStr">
         <is>
           <t>Cloud Requirements Gathering</t>
         </is>
       </c>
-      <c r="C3" s="49" t="inlineStr">
+      <c r="C3" s="47" t="inlineStr">
         <is>
           <t>Conduct stakeholder interviews for cloud migration/infrastructure</t>
         </is>
       </c>
-      <c r="D3" s="49" t="inlineStr">
+      <c r="D3" s="47" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E3" s="50" t="n">
+      <c r="E3" s="48" t="n">
         <v>40</v>
       </c>
-      <c r="F3" s="51">
+      <c r="F3" s="49">
         <f>'Estimate Settings'!$C$21</f>
         <v/>
       </c>
-      <c r="G3" s="51">
+      <c r="G3" s="50">
         <f>$E3*$F3</f>
         <v/>
       </c>
-      <c r="H3" s="52" t="n">
+      <c r="H3" s="51" t="n">
         <v>150</v>
       </c>
-      <c r="I3" s="51">
+      <c r="I3" s="50">
         <f>TEXT($G3*$H3,"$#,##0")</f>
         <v/>
       </c>
-      <c r="J3" s="49" t="inlineStr"/>
-      <c r="K3" s="49" t="inlineStr">
+      <c r="J3" s="47" t="inlineStr"/>
+      <c r="K3" s="47" t="inlineStr">
         <is>
           <t>Focus on scalability performance and business objectives</t>
         </is>
       </c>
     </row>
     <row r="4" ht="26" customHeight="1">
-      <c r="A4" s="53" t="inlineStr">
+      <c r="A4" s="52" t="inlineStr">
         <is>
           <t>Discovery</t>
         </is>
       </c>
-      <c r="B4" s="54" t="inlineStr">
+      <c r="B4" s="53" t="inlineStr">
         <is>
           <t>Infrastructure Assessment</t>
         </is>
       </c>
-      <c r="C4" s="54" t="inlineStr">
+      <c r="C4" s="53" t="inlineStr">
         <is>
           <t>Analyze current infrastructure workloads and dependencies</t>
         </is>
       </c>
-      <c r="D4" s="54" t="inlineStr">
+      <c r="D4" s="53" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E4" s="55" t="n">
+      <c r="E4" s="54" t="n">
         <v>32</v>
       </c>
-      <c r="F4" s="56">
+      <c r="F4" s="55">
         <f>'Estimate Settings'!$C$21</f>
         <v/>
       </c>
@@ -2069,84 +2069,84 @@
         <f>TEXT($G4*$H4,"$#,##0")</f>
         <v/>
       </c>
-      <c r="J4" s="54" t="inlineStr"/>
-      <c r="K4" s="54" t="inlineStr">
+      <c r="J4" s="53" t="inlineStr"/>
+      <c r="K4" s="53" t="inlineStr">
         <is>
           <t>Include application dependencies and performance baselines</t>
         </is>
       </c>
     </row>
     <row r="5" ht="26" customHeight="1">
-      <c r="A5" s="48" t="inlineStr">
+      <c r="A5" s="46" t="inlineStr">
         <is>
           <t>Discovery</t>
         </is>
       </c>
-      <c r="B5" s="49" t="inlineStr">
+      <c r="B5" s="47" t="inlineStr">
         <is>
           <t>AWS Services Assessment</t>
         </is>
       </c>
-      <c r="C5" s="49" t="inlineStr">
+      <c r="C5" s="47" t="inlineStr">
         <is>
           <t>Evaluate target AWS services and architecture patterns</t>
         </is>
       </c>
-      <c r="D5" s="49" t="inlineStr">
+      <c r="D5" s="47" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E5" s="50" t="n">
+      <c r="E5" s="48" t="n">
         <v>24</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="49">
         <f>'Estimate Settings'!$C$21</f>
         <v/>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="50">
         <f>$E5*$F5</f>
         <v/>
       </c>
-      <c r="H5" s="52" t="n">
+      <c r="H5" s="51" t="n">
         <v>200</v>
       </c>
-      <c r="I5" s="51">
+      <c r="I5" s="50">
         <f>TEXT($G5*$H5,"$#,##0")</f>
         <v/>
       </c>
-      <c r="J5" s="49" t="inlineStr"/>
-      <c r="K5" s="49" t="inlineStr">
+      <c r="J5" s="47" t="inlineStr"/>
+      <c r="K5" s="47" t="inlineStr">
         <is>
           <t>Focus on cost optimization and best practices</t>
         </is>
       </c>
     </row>
     <row r="6" ht="26" customHeight="1">
-      <c r="A6" s="53" t="inlineStr">
+      <c r="A6" s="52" t="inlineStr">
         <is>
           <t>Discovery</t>
         </is>
       </c>
-      <c r="B6" s="54" t="inlineStr">
+      <c r="B6" s="53" t="inlineStr">
         <is>
           <t>Compliance Review</t>
         </is>
       </c>
-      <c r="C6" s="54" t="inlineStr">
+      <c r="C6" s="53" t="inlineStr">
         <is>
           <t>Assess security governance and compliance requirements</t>
         </is>
       </c>
-      <c r="D6" s="54" t="inlineStr">
+      <c r="D6" s="53" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E6" s="55" t="n">
+      <c r="E6" s="54" t="n">
         <v>16</v>
       </c>
-      <c r="F6" s="56">
+      <c r="F6" s="55">
         <f>'Estimate Settings'!$C$21</f>
         <v/>
       </c>
@@ -2161,84 +2161,84 @@
         <f>TEXT($G6*$H6,"$#,##0")</f>
         <v/>
       </c>
-      <c r="J6" s="54" t="inlineStr"/>
-      <c r="K6" s="54" t="inlineStr">
+      <c r="J6" s="53" t="inlineStr"/>
+      <c r="K6" s="53" t="inlineStr">
         <is>
           <t>Include industry regulations and data residency</t>
         </is>
       </c>
     </row>
     <row r="7" ht="26" customHeight="1">
-      <c r="A7" s="48" t="inlineStr">
+      <c r="A7" s="46" t="inlineStr">
         <is>
           <t>Planning</t>
         </is>
       </c>
-      <c r="B7" s="49" t="inlineStr">
+      <c r="B7" s="47" t="inlineStr">
         <is>
           <t>AWS Architecture Design</t>
         </is>
       </c>
-      <c r="C7" s="49" t="inlineStr">
+      <c r="C7" s="47" t="inlineStr">
         <is>
           <t>Design AWS cloud architecture and migration strategy</t>
         </is>
       </c>
-      <c r="D7" s="49" t="inlineStr">
+      <c r="D7" s="47" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E7" s="50" t="n">
+      <c r="E7" s="48" t="n">
         <v>48</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="49">
         <f>'Estimate Settings'!$C$22</f>
         <v/>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="50">
         <f>$E7*$F7</f>
         <v/>
       </c>
-      <c r="H7" s="52" t="n">
+      <c r="H7" s="51" t="n">
         <v>200</v>
       </c>
-      <c r="I7" s="51">
+      <c r="I7" s="50">
         <f>TEXT($G7*$H7,"$#,##0")</f>
         <v/>
       </c>
-      <c r="J7" s="49" t="inlineStr"/>
-      <c r="K7" s="49" t="inlineStr">
+      <c r="J7" s="47" t="inlineStr"/>
+      <c r="K7" s="47" t="inlineStr">
         <is>
           <t>Include multi-AZ design and disaster recovery</t>
         </is>
       </c>
     </row>
     <row r="8" ht="26" customHeight="1">
-      <c r="A8" s="53" t="inlineStr">
+      <c r="A8" s="52" t="inlineStr">
         <is>
           <t>Planning</t>
         </is>
       </c>
-      <c r="B8" s="54" t="inlineStr">
+      <c r="B8" s="53" t="inlineStr">
         <is>
           <t>Migration Strategy</t>
         </is>
       </c>
-      <c r="C8" s="54" t="inlineStr">
+      <c r="C8" s="53" t="inlineStr">
         <is>
           <t>Develop detailed migration approach and timeline</t>
         </is>
       </c>
-      <c r="D8" s="54" t="inlineStr">
+      <c r="D8" s="53" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E8" s="55" t="n">
+      <c r="E8" s="54" t="n">
         <v>32</v>
       </c>
-      <c r="F8" s="56">
+      <c r="F8" s="55">
         <f>'Estimate Settings'!$C$22</f>
         <v/>
       </c>
@@ -2253,84 +2253,84 @@
         <f>TEXT($G8*$H8,"$#,##0")</f>
         <v/>
       </c>
-      <c r="J8" s="54" t="inlineStr"/>
-      <c r="K8" s="54" t="inlineStr">
+      <c r="J8" s="53" t="inlineStr"/>
+      <c r="K8" s="53" t="inlineStr">
         <is>
           <t>Include risk assessment and rollback procedures</t>
         </is>
       </c>
     </row>
     <row r="9" ht="26" customHeight="1">
-      <c r="A9" s="48" t="inlineStr">
+      <c r="A9" s="46" t="inlineStr">
         <is>
           <t>Planning</t>
         </is>
       </c>
-      <c r="B9" s="49" t="inlineStr">
+      <c r="B9" s="47" t="inlineStr">
         <is>
           <t>Security Architecture</t>
         </is>
       </c>
-      <c r="C9" s="49" t="inlineStr">
+      <c r="C9" s="47" t="inlineStr">
         <is>
           <t>Design AWS security controls and governance framework</t>
         </is>
       </c>
-      <c r="D9" s="49" t="inlineStr">
+      <c r="D9" s="47" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E9" s="50" t="n">
+      <c r="E9" s="48" t="n">
         <v>24</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="49">
         <f>'Estimate Settings'!$C$22</f>
         <v/>
       </c>
-      <c r="G9" s="51">
+      <c r="G9" s="50">
         <f>$E9*$F9</f>
         <v/>
       </c>
-      <c r="H9" s="52" t="n">
+      <c r="H9" s="51" t="n">
         <v>175</v>
       </c>
-      <c r="I9" s="51">
+      <c r="I9" s="50">
         <f>TEXT($G9*$H9,"$#,##0")</f>
         <v/>
       </c>
-      <c r="J9" s="49" t="inlineStr"/>
-      <c r="K9" s="49" t="inlineStr">
+      <c r="J9" s="47" t="inlineStr"/>
+      <c r="K9" s="47" t="inlineStr">
         <is>
           <t>Include IAM networking and data protection</t>
         </is>
       </c>
     </row>
     <row r="10" ht="26" customHeight="1">
-      <c r="A10" s="53" t="inlineStr">
+      <c r="A10" s="52" t="inlineStr">
         <is>
           <t>Planning</t>
         </is>
       </c>
-      <c r="B10" s="54" t="inlineStr">
+      <c r="B10" s="53" t="inlineStr">
         <is>
           <t>Project Planning</t>
         </is>
       </c>
-      <c r="C10" s="54" t="inlineStr">
+      <c r="C10" s="53" t="inlineStr">
         <is>
           <t>Develop cloud implementation timeline and resource allocation</t>
         </is>
       </c>
-      <c r="D10" s="54" t="inlineStr">
+      <c r="D10" s="53" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E10" s="55" t="n">
+      <c r="E10" s="54" t="n">
         <v>24</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="55">
         <f>'Estimate Settings'!$C$22</f>
         <v/>
       </c>
@@ -2345,84 +2345,84 @@
         <f>TEXT($G10*$H10,"$#,##0")</f>
         <v/>
       </c>
-      <c r="J10" s="54" t="inlineStr"/>
-      <c r="K10" s="54" t="inlineStr">
+      <c r="J10" s="53" t="inlineStr"/>
+      <c r="K10" s="53" t="inlineStr">
         <is>
           <t>Coordinate with infrastructure and security teams</t>
         </is>
       </c>
     </row>
     <row r="11" ht="26" customHeight="1">
-      <c r="A11" s="48" t="inlineStr">
+      <c r="A11" s="46" t="inlineStr">
         <is>
           <t>Development</t>
         </is>
       </c>
-      <c r="B11" s="49" t="inlineStr">
+      <c r="B11" s="47" t="inlineStr">
         <is>
           <t>AWS Infrastructure Provisioning</t>
         </is>
       </c>
-      <c r="C11" s="49" t="inlineStr">
+      <c r="C11" s="47" t="inlineStr">
         <is>
           <t>Provision AWS services networking and foundational infrastructure</t>
         </is>
       </c>
-      <c r="D11" s="49" t="inlineStr">
+      <c r="D11" s="47" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E11" s="50" t="n">
+      <c r="E11" s="48" t="n">
         <v>60</v>
       </c>
-      <c r="F11" s="51">
+      <c r="F11" s="49">
         <f>'Estimate Settings'!$C$23</f>
         <v/>
       </c>
-      <c r="G11" s="51">
+      <c r="G11" s="50">
         <f>$E11*$F11</f>
         <v/>
       </c>
-      <c r="H11" s="52" t="n">
+      <c r="H11" s="51" t="n">
         <v>160</v>
       </c>
-      <c r="I11" s="51">
+      <c r="I11" s="50">
         <f>TEXT($G11*$H11,"$#,##0")</f>
         <v/>
       </c>
-      <c r="J11" s="49" t="inlineStr"/>
-      <c r="K11" s="49" t="inlineStr">
+      <c r="J11" s="47" t="inlineStr"/>
+      <c r="K11" s="47" t="inlineStr">
         <is>
           <t>Include VPC subnets security groups and routing</t>
         </is>
       </c>
     </row>
     <row r="12" ht="26" customHeight="1">
-      <c r="A12" s="53" t="inlineStr">
+      <c r="A12" s="52" t="inlineStr">
         <is>
           <t>Development</t>
         </is>
       </c>
-      <c r="B12" s="54" t="inlineStr">
+      <c r="B12" s="53" t="inlineStr">
         <is>
           <t>Application Migration</t>
         </is>
       </c>
-      <c r="C12" s="54" t="inlineStr">
+      <c r="C12" s="53" t="inlineStr">
         <is>
           <t>Migrate applications and workloads to AWS</t>
         </is>
       </c>
-      <c r="D12" s="54" t="inlineStr">
+      <c r="D12" s="53" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E12" s="55" t="n">
+      <c r="E12" s="54" t="n">
         <v>80</v>
       </c>
-      <c r="F12" s="56">
+      <c r="F12" s="55">
         <f>'Estimate Settings'!$C$23</f>
         <v/>
       </c>
@@ -2437,84 +2437,84 @@
         <f>TEXT($G12*$H12,"$#,##0")</f>
         <v/>
       </c>
-      <c r="J12" s="54" t="inlineStr"/>
-      <c r="K12" s="54" t="inlineStr">
+      <c r="J12" s="53" t="inlineStr"/>
+      <c r="K12" s="53" t="inlineStr">
         <is>
           <t>Include application optimization and testing</t>
         </is>
       </c>
     </row>
     <row r="13" ht="26" customHeight="1">
-      <c r="A13" s="48" t="inlineStr">
+      <c r="A13" s="46" t="inlineStr">
         <is>
           <t>Development</t>
         </is>
       </c>
-      <c r="B13" s="49" t="inlineStr">
+      <c r="B13" s="47" t="inlineStr">
         <is>
           <t>Data Migration</t>
         </is>
       </c>
-      <c r="C13" s="49" t="inlineStr">
+      <c r="C13" s="47" t="inlineStr">
         <is>
           <t>Migrate databases and data stores to AWS</t>
         </is>
       </c>
-      <c r="D13" s="49" t="inlineStr">
+      <c r="D13" s="47" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E13" s="50" t="n">
+      <c r="E13" s="48" t="n">
         <v>48</v>
       </c>
-      <c r="F13" s="51">
+      <c r="F13" s="49">
         <f>'Estimate Settings'!$C$23</f>
         <v/>
       </c>
-      <c r="G13" s="51">
+      <c r="G13" s="50">
         <f>$E13*$F13</f>
         <v/>
       </c>
-      <c r="H13" s="52" t="n">
+      <c r="H13" s="51" t="n">
         <v>145</v>
       </c>
-      <c r="I13" s="51">
+      <c r="I13" s="50">
         <f>TEXT($G13*$H13,"$#,##0")</f>
         <v/>
       </c>
-      <c r="J13" s="49" t="inlineStr"/>
-      <c r="K13" s="49" t="inlineStr">
+      <c r="J13" s="47" t="inlineStr"/>
+      <c r="K13" s="47" t="inlineStr">
         <is>
           <t>Include data validation backup and recovery testing</t>
         </is>
       </c>
     </row>
     <row r="14" ht="26" customHeight="1">
-      <c r="A14" s="53" t="inlineStr">
+      <c r="A14" s="52" t="inlineStr">
         <is>
           <t>Development</t>
         </is>
       </c>
-      <c r="B14" s="54" t="inlineStr">
+      <c r="B14" s="53" t="inlineStr">
         <is>
           <t>Monitoring and Operations</t>
         </is>
       </c>
-      <c r="C14" s="54" t="inlineStr">
+      <c r="C14" s="53" t="inlineStr">
         <is>
           <t>Implement AWS monitoring logging and operational tools</t>
         </is>
       </c>
-      <c r="D14" s="54" t="inlineStr">
+      <c r="D14" s="53" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E14" s="55" t="n">
+      <c r="E14" s="54" t="n">
         <v>40</v>
       </c>
-      <c r="F14" s="56">
+      <c r="F14" s="55">
         <f>'Estimate Settings'!$C$23</f>
         <v/>
       </c>
@@ -2529,84 +2529,84 @@
         <f>TEXT($G14*$H14,"$#,##0")</f>
         <v/>
       </c>
-      <c r="J14" s="54" t="inlineStr"/>
-      <c r="K14" s="54" t="inlineStr">
+      <c r="J14" s="53" t="inlineStr"/>
+      <c r="K14" s="53" t="inlineStr">
         <is>
           <t>Include CloudWatch X-Ray and operational dashboards</t>
         </is>
       </c>
     </row>
     <row r="15" ht="26" customHeight="1">
-      <c r="A15" s="48" t="inlineStr">
+      <c r="A15" s="46" t="inlineStr">
         <is>
           <t>Development</t>
         </is>
       </c>
-      <c r="B15" s="49" t="inlineStr">
+      <c r="B15" s="47" t="inlineStr">
         <is>
           <t>Automation and IaC</t>
         </is>
       </c>
-      <c r="C15" s="49" t="inlineStr">
+      <c r="C15" s="47" t="inlineStr">
         <is>
           <t>Develop infrastructure automation using CloudFormation/CDK</t>
         </is>
       </c>
-      <c r="D15" s="49" t="inlineStr">
+      <c r="D15" s="47" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E15" s="50" t="n">
+      <c r="E15" s="48" t="n">
         <v>32</v>
       </c>
-      <c r="F15" s="51">
+      <c r="F15" s="49">
         <f>'Estimate Settings'!$C$23</f>
         <v/>
       </c>
-      <c r="G15" s="51">
+      <c r="G15" s="50">
         <f>$E15*$F15</f>
         <v/>
       </c>
-      <c r="H15" s="52" t="n">
+      <c r="H15" s="51" t="n">
         <v>125</v>
       </c>
-      <c r="I15" s="51">
+      <c r="I15" s="50">
         <f>TEXT($G15*$H15,"$#,##0")</f>
         <v/>
       </c>
-      <c r="J15" s="49" t="inlineStr"/>
-      <c r="K15" s="49" t="inlineStr">
+      <c r="J15" s="47" t="inlineStr"/>
+      <c r="K15" s="47" t="inlineStr">
         <is>
           <t>Include CI/CD pipeline integration</t>
         </is>
       </c>
     </row>
     <row r="16" ht="26" customHeight="1">
-      <c r="A16" s="53" t="inlineStr">
+      <c r="A16" s="52" t="inlineStr">
         <is>
           <t>Testing</t>
         </is>
       </c>
-      <c r="B16" s="54" t="inlineStr">
+      <c r="B16" s="53" t="inlineStr">
         <is>
           <t>Unit Testing</t>
         </is>
       </c>
-      <c r="C16" s="54" t="inlineStr">
+      <c r="C16" s="53" t="inlineStr">
         <is>
           <t>Develop automated tests for all solution components</t>
         </is>
       </c>
-      <c r="D16" s="54" t="inlineStr">
+      <c r="D16" s="53" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E16" s="55" t="n">
+      <c r="E16" s="54" t="n">
         <v>32</v>
       </c>
-      <c r="F16" s="56">
+      <c r="F16" s="55">
         <f>'Estimate Settings'!$C$24</f>
         <v/>
       </c>
@@ -2621,84 +2621,84 @@
         <f>TEXT($G16*$H16,"$#,##0")</f>
         <v/>
       </c>
-      <c r="J16" s="54" t="inlineStr"/>
-      <c r="K16" s="54" t="inlineStr">
+      <c r="J16" s="53" t="inlineStr"/>
+      <c r="K16" s="53" t="inlineStr">
         <is>
           <t>Include technology-specific testing frameworks</t>
         </is>
       </c>
     </row>
     <row r="17" ht="26" customHeight="1">
-      <c r="A17" s="48" t="inlineStr">
+      <c r="A17" s="46" t="inlineStr">
         <is>
           <t>Testing</t>
         </is>
       </c>
-      <c r="B17" s="49" t="inlineStr">
+      <c r="B17" s="47" t="inlineStr">
         <is>
           <t>Integration Testing</t>
         </is>
       </c>
-      <c r="C17" s="49" t="inlineStr">
+      <c r="C17" s="47" t="inlineStr">
         <is>
           <t>Test system integrations data flows and external dependencies</t>
         </is>
       </c>
-      <c r="D17" s="49" t="inlineStr">
+      <c r="D17" s="47" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E17" s="50" t="n">
+      <c r="E17" s="48" t="n">
         <v>40</v>
       </c>
-      <c r="F17" s="51">
+      <c r="F17" s="49">
         <f>'Estimate Settings'!$C$24</f>
         <v/>
       </c>
-      <c r="G17" s="51">
+      <c r="G17" s="50">
         <f>$E17*$F17</f>
         <v/>
       </c>
-      <c r="H17" s="52" t="n">
+      <c r="H17" s="51" t="n">
         <v>120</v>
       </c>
-      <c r="I17" s="51">
+      <c r="I17" s="50">
         <f>TEXT($G17*$H17,"$#,##0")</f>
         <v/>
       </c>
-      <c r="J17" s="49" t="inlineStr"/>
-      <c r="K17" s="49" t="inlineStr">
+      <c r="J17" s="47" t="inlineStr"/>
+      <c r="K17" s="47" t="inlineStr">
         <is>
           <t>Include end-to-end workflow validation</t>
         </is>
       </c>
     </row>
     <row r="18" ht="26" customHeight="1">
-      <c r="A18" s="53" t="inlineStr">
+      <c r="A18" s="52" t="inlineStr">
         <is>
           <t>Testing</t>
         </is>
       </c>
-      <c r="B18" s="54" t="inlineStr">
+      <c r="B18" s="53" t="inlineStr">
         <is>
           <t>Performance Testing</t>
         </is>
       </c>
-      <c r="C18" s="54" t="inlineStr">
+      <c r="C18" s="53" t="inlineStr">
         <is>
           <t>Conduct load performance and scalability testing</t>
         </is>
       </c>
-      <c r="D18" s="54" t="inlineStr">
+      <c r="D18" s="53" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E18" s="55" t="n">
+      <c r="E18" s="54" t="n">
         <v>24</v>
       </c>
-      <c r="F18" s="56">
+      <c r="F18" s="55">
         <f>'Estimate Settings'!$C$24</f>
         <v/>
       </c>
@@ -2713,84 +2713,84 @@
         <f>TEXT($G18*$H18,"$#,##0")</f>
         <v/>
       </c>
-      <c r="J18" s="54" t="inlineStr"/>
-      <c r="K18" s="54" t="inlineStr">
+      <c r="J18" s="53" t="inlineStr"/>
+      <c r="K18" s="53" t="inlineStr">
         <is>
           <t>Include production-like environment and stress testing</t>
         </is>
       </c>
     </row>
     <row r="19" ht="26" customHeight="1">
-      <c r="A19" s="48" t="inlineStr">
+      <c r="A19" s="46" t="inlineStr">
         <is>
           <t>Testing</t>
         </is>
       </c>
-      <c r="B19" s="49" t="inlineStr">
+      <c r="B19" s="47" t="inlineStr">
         <is>
           <t>Security Testing</t>
         </is>
       </c>
-      <c r="C19" s="49" t="inlineStr">
+      <c r="C19" s="47" t="inlineStr">
         <is>
           <t>Perform security assessments penetration testing and compliance validation</t>
         </is>
       </c>
-      <c r="D19" s="49" t="inlineStr">
+      <c r="D19" s="47" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E19" s="50" t="n">
+      <c r="E19" s="48" t="n">
         <v>16</v>
       </c>
-      <c r="F19" s="51">
+      <c r="F19" s="49">
         <f>'Estimate Settings'!$C$24</f>
         <v/>
       </c>
-      <c r="G19" s="51">
+      <c r="G19" s="50">
         <f>$E19*$F19</f>
         <v/>
       </c>
-      <c r="H19" s="52" t="n">
+      <c r="H19" s="51" t="n">
         <v>175</v>
       </c>
-      <c r="I19" s="51">
+      <c r="I19" s="50">
         <f>TEXT($G19*$H19,"$#,##0")</f>
         <v/>
       </c>
-      <c r="J19" s="49" t="inlineStr"/>
-      <c r="K19" s="49" t="inlineStr">
+      <c r="J19" s="47" t="inlineStr"/>
+      <c r="K19" s="47" t="inlineStr">
         <is>
           <t>Include vulnerability scanning and compliance checks</t>
         </is>
       </c>
     </row>
     <row r="20" ht="26" customHeight="1">
-      <c r="A20" s="53" t="inlineStr">
+      <c r="A20" s="52" t="inlineStr">
         <is>
           <t>Testing</t>
         </is>
       </c>
-      <c r="B20" s="54" t="inlineStr">
+      <c r="B20" s="53" t="inlineStr">
         <is>
           <t>User Acceptance Testing</t>
         </is>
       </c>
-      <c r="C20" s="54" t="inlineStr">
+      <c r="C20" s="53" t="inlineStr">
         <is>
           <t>Coordinate UAT with business users and stakeholders</t>
         </is>
       </c>
-      <c r="D20" s="54" t="inlineStr">
+      <c r="D20" s="53" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E20" s="55" t="n">
+      <c r="E20" s="54" t="n">
         <v>32</v>
       </c>
-      <c r="F20" s="56">
+      <c r="F20" s="55">
         <f>'Estimate Settings'!$C$24</f>
         <v/>
       </c>
@@ -2805,84 +2805,84 @@
         <f>TEXT($G20*$H20,"$#,##0")</f>
         <v/>
       </c>
-      <c r="J20" s="54" t="inlineStr"/>
-      <c r="K20" s="54" t="inlineStr">
+      <c r="J20" s="53" t="inlineStr"/>
+      <c r="K20" s="53" t="inlineStr">
         <is>
           <t>Include training feedback collection and sign-off</t>
         </is>
       </c>
     </row>
     <row r="21" ht="26" customHeight="1">
-      <c r="A21" s="48" t="inlineStr">
+      <c r="A21" s="46" t="inlineStr">
         <is>
           <t>Deployment</t>
         </is>
       </c>
-      <c r="B21" s="49" t="inlineStr">
+      <c r="B21" s="47" t="inlineStr">
         <is>
           <t>Production Deployment</t>
         </is>
       </c>
-      <c r="C21" s="49" t="inlineStr">
+      <c r="C21" s="47" t="inlineStr">
         <is>
           <t>Deploy solution to production environment with monitoring</t>
         </is>
       </c>
-      <c r="D21" s="49" t="inlineStr">
+      <c r="D21" s="47" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E21" s="50" t="n">
+      <c r="E21" s="48" t="n">
         <v>24</v>
       </c>
-      <c r="F21" s="51">
+      <c r="F21" s="49">
         <f>'Estimate Settings'!$C$25</f>
         <v/>
       </c>
-      <c r="G21" s="51">
+      <c r="G21" s="50">
         <f>$E21*$F21</f>
         <v/>
       </c>
-      <c r="H21" s="52" t="n">
+      <c r="H21" s="51" t="n">
         <v>160</v>
       </c>
-      <c r="I21" s="51">
+      <c r="I21" s="50">
         <f>TEXT($G21*$H21,"$#,##0")</f>
         <v/>
       </c>
-      <c r="J21" s="49" t="inlineStr"/>
-      <c r="K21" s="49" t="inlineStr">
+      <c r="J21" s="47" t="inlineStr"/>
+      <c r="K21" s="47" t="inlineStr">
         <is>
           <t>Include blue-green deployment rollback and validation</t>
         </is>
       </c>
     </row>
     <row r="22" ht="26" customHeight="1">
-      <c r="A22" s="53" t="inlineStr">
+      <c r="A22" s="52" t="inlineStr">
         <is>
           <t>Deployment</t>
         </is>
       </c>
-      <c r="B22" s="54" t="inlineStr">
+      <c r="B22" s="53" t="inlineStr">
         <is>
           <t>Go-Live Support</t>
         </is>
       </c>
-      <c r="C22" s="54" t="inlineStr">
+      <c r="C22" s="53" t="inlineStr">
         <is>
           <t>Provide comprehensive support during initial production rollout</t>
         </is>
       </c>
-      <c r="D22" s="54" t="inlineStr">
+      <c r="D22" s="53" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E22" s="55" t="n">
+      <c r="E22" s="54" t="n">
         <v>48</v>
       </c>
-      <c r="F22" s="56">
+      <c r="F22" s="55">
         <f>'Estimate Settings'!$C$25</f>
         <v/>
       </c>
@@ -2897,84 +2897,84 @@
         <f>TEXT($G22*$H22,"$#,##0")</f>
         <v/>
       </c>
-      <c r="J22" s="54" t="inlineStr"/>
-      <c r="K22" s="54" t="inlineStr">
+      <c r="J22" s="53" t="inlineStr"/>
+      <c r="K22" s="53" t="inlineStr">
         <is>
           <t>Include 24/7 support monitoring and issue resolution</t>
         </is>
       </c>
     </row>
     <row r="23" ht="26" customHeight="1">
-      <c r="A23" s="48" t="inlineStr">
+      <c r="A23" s="46" t="inlineStr">
         <is>
           <t>Training</t>
         </is>
       </c>
-      <c r="B23" s="49" t="inlineStr">
+      <c r="B23" s="47" t="inlineStr">
         <is>
           <t>Administrator Training</t>
         </is>
       </c>
-      <c r="C23" s="49" t="inlineStr">
+      <c r="C23" s="47" t="inlineStr">
         <is>
           <t>Train system administrators and technical support teams</t>
         </is>
       </c>
-      <c r="D23" s="49" t="inlineStr">
+      <c r="D23" s="47" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E23" s="50" t="n">
+      <c r="E23" s="48" t="n">
         <v>16</v>
       </c>
-      <c r="F23" s="51">
+      <c r="F23" s="49">
         <f>'Estimate Settings'!$C$26</f>
         <v/>
       </c>
-      <c r="G23" s="51">
+      <c r="G23" s="50">
         <f>$E23*$F23</f>
         <v/>
       </c>
-      <c r="H23" s="52" t="n">
+      <c r="H23" s="51" t="n">
         <v>130</v>
       </c>
-      <c r="I23" s="51">
+      <c r="I23" s="50">
         <f>TEXT($G23*$H23,"$#,##0")</f>
         <v/>
       </c>
-      <c r="J23" s="49" t="inlineStr"/>
-      <c r="K23" s="49" t="inlineStr">
+      <c r="J23" s="47" t="inlineStr"/>
+      <c r="K23" s="47" t="inlineStr">
         <is>
           <t>Include hands-on technical training and certification</t>
         </is>
       </c>
     </row>
     <row r="24" ht="26" customHeight="1">
-      <c r="A24" s="53" t="inlineStr">
+      <c r="A24" s="52" t="inlineStr">
         <is>
           <t>Training</t>
         </is>
       </c>
-      <c r="B24" s="54" t="inlineStr">
+      <c r="B24" s="53" t="inlineStr">
         <is>
           <t>End User Training</t>
         </is>
       </c>
-      <c r="C24" s="54" t="inlineStr">
+      <c r="C24" s="53" t="inlineStr">
         <is>
           <t>Train business users on solution functionality and workflows</t>
         </is>
       </c>
-      <c r="D24" s="54" t="inlineStr">
+      <c r="D24" s="53" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E24" s="55" t="n">
+      <c r="E24" s="54" t="n">
         <v>24</v>
       </c>
-      <c r="F24" s="56">
+      <c r="F24" s="55">
         <f>'Estimate Settings'!$C$26</f>
         <v/>
       </c>
@@ -2989,84 +2989,84 @@
         <f>TEXT($G24*$H24,"$#,##0")</f>
         <v/>
       </c>
-      <c r="J24" s="54" t="inlineStr"/>
-      <c r="K24" s="54" t="inlineStr">
+      <c r="J24" s="53" t="inlineStr"/>
+      <c r="K24" s="53" t="inlineStr">
         <is>
           <t>Include role-based training documentation and support</t>
         </is>
       </c>
     </row>
     <row r="25" ht="26" customHeight="1">
-      <c r="A25" s="48" t="inlineStr">
+      <c r="A25" s="46" t="inlineStr">
         <is>
           <t>Training</t>
         </is>
       </c>
-      <c r="B25" s="49" t="inlineStr">
+      <c r="B25" s="47" t="inlineStr">
         <is>
           <t>Documentation</t>
         </is>
       </c>
-      <c r="C25" s="49" t="inlineStr">
+      <c r="C25" s="47" t="inlineStr">
         <is>
           <t>Create comprehensive technical and user documentation</t>
         </is>
       </c>
-      <c r="D25" s="49" t="inlineStr">
+      <c r="D25" s="47" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E25" s="50" t="n">
+      <c r="E25" s="48" t="n">
         <v>32</v>
       </c>
-      <c r="F25" s="51">
+      <c r="F25" s="49">
         <f>'Estimate Settings'!$C$26</f>
         <v/>
       </c>
-      <c r="G25" s="51">
+      <c r="G25" s="50">
         <f>$E25*$F25</f>
         <v/>
       </c>
-      <c r="H25" s="52" t="n">
+      <c r="H25" s="51" t="n">
         <v>110</v>
       </c>
-      <c r="I25" s="51">
+      <c r="I25" s="50">
         <f>TEXT($G25*$H25,"$#,##0")</f>
         <v/>
       </c>
-      <c r="J25" s="49" t="inlineStr"/>
-      <c r="K25" s="49" t="inlineStr">
+      <c r="J25" s="47" t="inlineStr"/>
+      <c r="K25" s="47" t="inlineStr">
         <is>
           <t>Include runbooks troubleshooting guides and best practices</t>
         </is>
       </c>
     </row>
     <row r="26" ht="26" customHeight="1">
-      <c r="A26" s="53" t="inlineStr">
+      <c r="A26" s="52" t="inlineStr">
         <is>
           <t>Closeout</t>
         </is>
       </c>
-      <c r="B26" s="54" t="inlineStr">
+      <c r="B26" s="53" t="inlineStr">
         <is>
           <t>Knowledge Transfer</t>
         </is>
       </c>
-      <c r="C26" s="54" t="inlineStr">
+      <c r="C26" s="53" t="inlineStr">
         <is>
           <t>Transfer solution ownership to operations and support teams</t>
         </is>
       </c>
-      <c r="D26" s="54" t="inlineStr">
+      <c r="D26" s="53" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E26" s="55" t="n">
+      <c r="E26" s="54" t="n">
         <v>16</v>
       </c>
-      <c r="F26" s="56">
+      <c r="F26" s="55">
         <f>'Estimate Settings'!$C$27</f>
         <v/>
       </c>
@@ -3081,84 +3081,84 @@
         <f>TEXT($G26*$H26,"$#,##0")</f>
         <v/>
       </c>
-      <c r="J26" s="54" t="inlineStr"/>
-      <c r="K26" s="54" t="inlineStr">
+      <c r="J26" s="53" t="inlineStr"/>
+      <c r="K26" s="53" t="inlineStr">
         <is>
           <t>Include operational procedures escalation and maintenance</t>
         </is>
       </c>
     </row>
     <row r="27" ht="26" customHeight="1">
-      <c r="A27" s="48" t="inlineStr">
+      <c r="A27" s="46" t="inlineStr">
         <is>
           <t>Closeout</t>
         </is>
       </c>
-      <c r="B27" s="49" t="inlineStr">
+      <c r="B27" s="47" t="inlineStr">
         <is>
           <t>Performance Baseline</t>
         </is>
       </c>
-      <c r="C27" s="49" t="inlineStr">
+      <c r="C27" s="47" t="inlineStr">
         <is>
           <t>Establish performance metrics monitoring baselines and SLAs</t>
         </is>
       </c>
-      <c r="D27" s="49" t="inlineStr">
+      <c r="D27" s="47" t="inlineStr">
         <is>
           <t>EO Engineer</t>
         </is>
       </c>
-      <c r="E27" s="50" t="n">
+      <c r="E27" s="48" t="n">
         <v>8</v>
       </c>
-      <c r="F27" s="51">
+      <c r="F27" s="49">
         <f>'Estimate Settings'!$C$27</f>
         <v/>
       </c>
-      <c r="G27" s="51">
+      <c r="G27" s="50">
         <f>$E27*$F27</f>
         <v/>
       </c>
-      <c r="H27" s="52" t="n">
+      <c r="H27" s="51" t="n">
         <v>130</v>
       </c>
-      <c r="I27" s="51">
+      <c r="I27" s="50">
         <f>TEXT($G27*$H27,"$#,##0")</f>
         <v/>
       </c>
-      <c r="J27" s="49" t="inlineStr"/>
-      <c r="K27" s="49" t="inlineStr">
+      <c r="J27" s="47" t="inlineStr"/>
+      <c r="K27" s="47" t="inlineStr">
         <is>
           <t>Include KPI definition monitoring setup and reporting</t>
         </is>
       </c>
     </row>
     <row r="28" ht="26" customHeight="1">
-      <c r="A28" s="53" t="inlineStr">
+      <c r="A28" s="52" t="inlineStr">
         <is>
           <t>Management</t>
         </is>
       </c>
-      <c r="B28" s="54" t="inlineStr">
+      <c r="B28" s="53" t="inlineStr">
         <is>
           <t>Technical Leadership</t>
         </is>
       </c>
-      <c r="C28" s="54" t="inlineStr">
+      <c r="C28" s="53" t="inlineStr">
         <is>
           <t>Quarterback technical oversight and architecture review</t>
         </is>
       </c>
-      <c r="D28" s="54" t="inlineStr">
+      <c r="D28" s="53" t="inlineStr">
         <is>
           <t>EO Quarterback</t>
         </is>
       </c>
-      <c r="E28" s="55" t="n">
+      <c r="E28" s="54" t="n">
         <v>40</v>
       </c>
-      <c r="F28" s="56">
+      <c r="F28" s="55">
         <f>'Estimate Settings'!$C$28</f>
         <v/>
       </c>
@@ -3173,54 +3173,54 @@
         <f>TEXT($G28*$H28,"$#,##0")</f>
         <v/>
       </c>
-      <c r="J28" s="54" t="inlineStr"/>
-      <c r="K28" s="54" t="inlineStr">
+      <c r="J28" s="53" t="inlineStr"/>
+      <c r="K28" s="53" t="inlineStr">
         <is>
           <t>25% of engineering effort</t>
         </is>
       </c>
     </row>
     <row r="29" ht="26" customHeight="1">
-      <c r="A29" s="48" t="inlineStr">
+      <c r="A29" s="46" t="inlineStr">
         <is>
           <t>Management</t>
         </is>
       </c>
-      <c r="B29" s="49" t="inlineStr">
+      <c r="B29" s="47" t="inlineStr">
         <is>
           <t>Project Management</t>
         </is>
       </c>
-      <c r="C29" s="49" t="inlineStr">
+      <c r="C29" s="47" t="inlineStr">
         <is>
           <t>Project coordination and management activities</t>
         </is>
       </c>
-      <c r="D29" s="49" t="inlineStr">
+      <c r="D29" s="47" t="inlineStr">
         <is>
           <t>EO Project Manager</t>
         </is>
       </c>
-      <c r="E29" s="50" t="n">
+      <c r="E29" s="48" t="n">
         <v>40</v>
       </c>
-      <c r="F29" s="51">
+      <c r="F29" s="49">
         <f>'Estimate Settings'!$C$28</f>
         <v/>
       </c>
-      <c r="G29" s="51">
+      <c r="G29" s="50">
         <f>$E29*$F29</f>
         <v/>
       </c>
-      <c r="H29" s="52" t="n">
+      <c r="H29" s="51" t="n">
         <v>150</v>
       </c>
-      <c r="I29" s="51">
+      <c r="I29" s="50">
         <f>TEXT($G29*$H29,"$#,##0")</f>
         <v/>
       </c>
-      <c r="J29" s="49" t="inlineStr"/>
-      <c r="K29" s="49" t="inlineStr">
+      <c r="J29" s="47" t="inlineStr"/>
+      <c r="K29" s="47" t="inlineStr">
         <is>
           <t>20% of engineering effort</t>
         </is>
@@ -3319,14 +3319,14 @@
       <c r="B3" s="60" t="n">
         <v>-10000</v>
       </c>
-      <c r="C3" s="40" t="inlineStr">
+      <c r="C3" s="38" t="inlineStr">
         <is>
           <t>AWS Partner Network (APN) credit for cloud migration solution architecture and implementation services</t>
         </is>
       </c>
     </row>
     <row r="4" ht="26" customHeight="1">
-      <c r="A4" s="41" t="inlineStr">
+      <c r="A4" s="40" t="inlineStr">
         <is>
           <t>Implementation Discount</t>
         </is>
@@ -3334,7 +3334,7 @@
       <c r="B4" s="61" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="43" t="inlineStr">
+      <c r="C4" s="41" t="inlineStr">
         <is>
           <t>No implementation discount applicable</t>
         </is>
